--- a/QA/新奥QA测试-32B蒸馏_answers.xlsx
+++ b/QA/新奥QA测试-32B蒸馏_answers.xlsx
@@ -483,7 +483,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -509,21 +509,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在要解决的问题是如何从单粒子运动轨迹理论出发，推导并解释磁镜约束的基本原理，及其对聚变装置设计的意义。同时，我还要讨论绝热不变量在其中的作用和失效条件。作为一个刚开始学习聚变等离子体物理的学生，我得先理清楚这些概念之间的关系。
-首先，我需要理解什么是磁镜约束。磁镜是一种磁约束聚变装置，它利用磁场的形状来约束等离子体。我记得磁镜装置中的磁场通常是由一系列线圈产生的，磁场的磁感线在中间区域比较平直，而在两端则会发散，形成类似镜子的结构。
-接下来，单粒子运动轨迹理论。这部分涉及到带电粒子在磁场中的运动。带电粒子在磁场中会受到洛伦兹力的作用，这会导致粒子做螺旋运动。如果磁场的形状发生变化，比如磁镜结构中的磁场，粒子的轨迹也会受到影响，这可能形成约束条件。
-绝热不变量是指在等离子体约束中，某些物理量在特定条件下保持不变。比如，粒子在沿着磁场线方向上的动量，或者磁通量。这些不变量可以帮助我们理解粒子在磁场中的约束情况。
-现在，我得一步步来推导磁镜约束的基本原理。首先，考虑一个带电粒子在磁场中的运动。根据洛伦兹力公式，粒子的运动轨迹会受到磁场的影响。在均匀磁场中，粒子做匀速圆周运动，但随着磁场变化，轨迹也会变化。
-在磁镜结构中，磁场强度在轴线处较强，而在径向较弱。当粒子沿着磁场线运动到磁场较弱的地方时，由于动量守恒，粒子的速度会增加，这可能导致粒子偏离轴线，进入磁场较强的地方，从而被反射回来。这种现象被称为磁镜效应。
-为了更详细地分析，我需要引入绝热不变量的概念。对于绝热过程，粒子的磁通量保持不变。假设粒子从强磁场区域运动到弱磁场区域，由于磁通量不变，粒子在弱磁场区域的运动速度会增加。当速度足够大时，粒子可能会穿过磁场边界，但由于磁场发散，粒子的轨迹会受到限制，从而被约束在磁镜结构内。
-接下来，我要推导粒子的运动轨迹。假设磁场强度随径向位置r变化，可以用某些函数表示，比如B(r) = B0 + k*r。然后，根据粒子的动量守恒，推导出粒子在径向上的运动方程。
-在推导过程中，可能会忽略一些次要因素，比如电场和碰撞的影响，假设粒子运动是绝热的，即温度梯度和磁场变化足够缓慢，粒子能够保持与磁场的同步运动。
-通过这些推导，可以得出磁镜约束的基本条件，即磁场强度需要足够大，使得粒子的动能不足以克服磁场的势垒，从而被约束在装置内部。
-然后，我需要讨论绝热不变量在其中的作用和失效条件。绝热不变量帮助维持粒子的约束，使得粒子在磁场变化时仍然保持稳定。但当磁场变化过于剧烈，或者粒子的速度过快，绝热条件可能被破坏，导致粒子逃逸。
-在聚变装置设计中，磁镜约束的意义在于提供了一种有效的约束方法，避免粒子逸出装置，从而提高聚变反应的效率。同时，理解绝热不变量的失效条件，可以帮助设计者优化磁场结构，提高约束效果。
-总结一下，我需要从单粒子运动出发，结合磁场的分布，推导出磁镜约束的条件，并利用绝热不变量来分析约束的有效性和失效情况，最后讨论这些结果对聚变装置设计的实际意义。
-&lt;/think&gt;
-### 从单粒子运动轨迹理论出发解释磁镜约束的基本原理及其对聚变装置设计的意义
+          <t>### 从单粒子运动轨迹理论出发解释磁镜约束的基本原理及其对聚变装置设计的意义
 #### 核心结论  
 磁镜约束通过利用强磁场形成的势垒来反射粒子，其基本原理基于绝热不变量，绝热条件的失效会导致粒子逃逸，这对设计高约束聚变装置具有重要意义。
 #### 背景与概念  
@@ -559,7 +545,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -585,15 +571,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，用户的问题涉及到聚变等离子体中的电磁波传播，特别是右旋和左旋圆偏振波的色散关系，以及它们在托卡马克中的应用。首先，我得回忆一下等离子体的磁化性质和电磁波的色散关系。
-我知道，均匀磁化等离子体中，电磁波的传播特性取决于波的偏振方向。右旋和左旋圆偏振波会有不同的色散关系。平行传播的情况下，波矢平行于磁场，这可能简化一些方程。色散关系通常涉及等离子体的频率、电子回旋频率、离子回旋频率等参数。
-接下来，推导色散关系。可能需要用到麦克斯韦方程组，考虑等离子体的响应。因为是冷等离子体，温度可以忽略，只考虑漂移运动。磁场均匀，所以空间变化只在波矢方向，假设波平行传播，那么磁化张量可能在某些分量上起作用。
-然后，对于右旋和左旋波，它们的偏振方向不同，导致不同的色散方程。右旋波可能对应着某种模式，而左旋波对应另一种。推导过程中，可能需要解一个二次方程，得到两个根，分别对应两种波的频率。
-估算典型托卡马克参数下的回旋频率，这需要知道电子和离子的质量，电荷量，以及给定的磁场和密度。电子回旋频率ω_ce可以通过qB/(m_e c)计算，离子的则是ω_ci = qB/(m_ion c)。然后，比较这些频率与电磁波的频率，确定ECRH和ICRH分别利用哪种波的共振特性。
-ECRH通常利用电子的回旋共振，因此右旋波可能在这样的频率下共振。而ICRH则利用离子的回旋共振，左旋波可能更适合这种情况。不过，也有可能根据波的传播方向和磁化特性不同，所以需要详细分析。
-最后，总结色散关系和应用，指出右旋和左旋波的频率范围以及它们在加热等离子体中的作用。这可能涉及到波的吸收和能量传递效率，对托卡马克装置的运行控制有重要影响。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 均匀磁化冷等离子体中平行传播的右旋圆偏振电磁波（R波）和左旋圆偏振电磁波（L波）的色散关系为：  
 - 右旋波：$\omega = \omega_{pe} + \Omega_e$  
 - 左旋波：$\omega = \omega_{pe} - \Omega_e$  
@@ -655,7 +633,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,47 +659,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>好的，我现在需要估算一个典型托卡马克等离子体中的Spitzer电阻率，并讨论经典电阻在环电压中的占比，进而引出反常电阻的概念。首先，我应该明确问题给出的参数：电子温度Te是5keV，电子密度ne是10^20 m^-3，有效电荷数Zeff是2。
-我记得Spitzer电阻率的公式是ρ = (n_e * e^4 * lnΛ)/(8 * ε0^2 * ε0^2 * ε0 * m_e * c^2)，或者是更简洁的表达方式。或许我应该先回忆正确的公式形式。查一下资料，Spitzer电阻率的公式是ρ = (3 * Zeff^2 * e^4 * n_e * lnΛ) / (8 * ε0^2 * m_e^2 * v_th^3)，其中v_th是热速度，v_th = sqrt(2kTe/(m_e))。或者是否有更简洁的表达式？
-或者，更常见的表达式是ρ_Spitzer = (1.24 × 10^2) * (n_e [m^-3])^(-1) * (T_e [eV])^(3/2)。这个表达式是否正确？单位是否正确？让我检查一下：n_e的单位是m^-3，Te是eV，所以整个表达式的结果应该是欧姆米。那计算一下：Te=5keV=5000eV，n_e=1e20 m^-3。
-代入公式：ρ_Spitzer = 1.24e2 * (1e20)^(-1) * (5000)^(3/2)。先计算各部分：1e20的倒数是1e-20，(5000)^(3/2)=sqrt(5000)^3。sqrt(5000)≈70.71，所以70.71^3≈353,500。所以整体计算：1.24e2 * 1e-20 * 3.535e5 ≈ 1.24e2 * 3.535e-15 ≈ 4.38e-13 欧姆米。这个结果对吗？或者可能我记错了公式中的常数。
-或者，是否有更准确的表达式？比如，Spitzer电阻率的公式通常写为ρ_Spitzer = (1.24 × 10^2) * (n_e [10^19 m^-3])^(-1) * (T_e [keV])^(3/2) * 10^(-10) 欧姆米。这可能吗？这样的话，n_e=1e20=10*1e19，所以n_e的因子是10。Te=5keV，所以(5)^(3/2)=11.18。代入公式：ρ_Spitzer = 1.24e2 * (1e20/1e19)^-1 * (5)^(3/2) * 1e-10 = 1.24e2 * 0.1 * 11.18 * 1e-10 ≈ 1.24e2 * 1.118e-1 * 1e-10 ≈ (13.86) * 1e-10 ≈ 1.386e-9 欧姆米？这和之前的计算结果不符，说明可能记错了公式。我需要找到正确的Spitzer电阻率的表达式。
-查阅资料，正确的Spitzer电阻率公式是ρ_Spitzer = (1.24 × 10^2) * (n_e [10^19 m^-3])^(-1) * (T_e [keV])^(3/2) * 10^(-10) 欧姆米。这样的话，n_e=1e20=10*1e19，所以因子为10^-1。Te=5keV，(5)^(3/2)=11.18。代入：1.24e2 * (1e20/1e19)^-1 * (5)^(3/2) * 1e-10 = 1.24e2 * 0.1 * 11.18 * 1e-10 = 124 * 0.1 * 11.18 * 1e-10 = 12.4 * 11.18 * 1e-10 ≈ 138.43 * 1e-10 ≈ 1.384e-8 欧姆米。这个结果更合理吗？
-或者，是否有更准确的计算方法？比如，使用基本物理常数来推导。公式中的常数涉及到电子电荷、电子质量、介电常数、热速度等。公式是ρ = (3 Zeff² e^4 n_e lnΛ) / (8 ε0^2 m_e v_th^3)，其中v_th=sqrt(2 k T_e / m_e)。这可能更准确。
-那让我们一步步计算：
-1. 计算v_th：v_th = sqrt(2 k Te / m_e)，其中k=1.38e-23 J/K，Te=5keV=5e3 eV=5e3 * 1.6e-19 J=8e-16 J。所以v_th = sqrt(2 * 1.38e-23 * 8e-16 / 9.1e-31)。计算分子：2 * 1.38e-23 * 8e-16 = 2.76e-23 * 8e-16 = 2.208e-38。分母：9.1e-31。所以v_th^2 = 2.208e-38 / 9.1e-31 ≈ 2.426e-8，v_th≈sqrt(2.426e-8)≈4.926e-4 m/s。这个结果对吗？感觉有点低，因为5keV的温度下，电子的速度应该更高。可能哪里计算错了。
-哦，可能错误在于单位转换。Te是5keV，转换成焦耳应该是5e3 * 1.6e-19 = 8e-16 J。正确。但k的单位是J/K，所以Te=8e-16 J的温度等效为多少K？可能需要重新计算。
-或者，更方便的方式是使用电子温度的表达式，其中v_th = sqrt(2 k T_e / m_e)。或者，使用更简洁的表达式：v_th = sqrt(2 k T_e / m_e) ≈ 1.26e6 * sqrt(Te [keV]) m/s。所以，Te=5keV，v_th≈1.26e6 * sqrt(5)≈1.26e6 * 2.236≈2.814e6 m/s。这样更合理。
-那现在回到电阻率公式：ρ_Spitzer = (3 Zeff² e^4 n_e lnΛ) / (8 ε0^2 m_e v_th^3)。
-将各常数代入：
-e=1.6e-19 C，
-ε0=8.85e-12 F/m，
-m_e=9.1e-31 kg，
-Zeff=2，
-n_e=1e20 m^-3，
-v_th=2.814e6 m/s，
-lnΛ约为15左右（典型的碰撞数）。
-计算分子：3*(2^2)*(1.6e-19)^4*(1e20)*15
-分母：8*(8.85e-12)^2*(9.1e-31)*(2.814e6)^3
-这将是一个繁琐的计算，但为了准确，我需要一步步计算。
-首先计算分子：
-3 * 4 = 12，
-(1.6e-19)^4 = (1.6)^4 * 1e-76 = 6.5536e-76，
-所以分子部分：12 * 6.5536e-76 * 1e20 * 15 = 12 * 6.5536e-76 * 1e20 = 12 * 6.5536e-56 *15 = 12 * 98.304e-56 = 1179.648e-56 = 1.179648e-53，
-乘以15？或者是不是12 * 6.5536e-76 * 1e20 *15？可能需要重新计算：12 * (1.6e-19)^4 * 1e20 *15 = 12 * 6.5536e-76 *1e20 *15 = 12*6.5536e-56 *15 = 12*9.8304e-55 = 117.9648e-55 = 1.179648e-53。
-分母：
-8*(8.85e-12)^2*(9.1e-31)*(2.814e6)^3。
-先计算各部分：
-(8.85e-12)^2=7.832e-23，
-(2.814e6)^3≈22.33e18 = 2.233e19，
-所以分母：8 *7.832e-23 *9.1e-31 *2.233e19 = 8 *7.832e-23 *9.1e-31 = 8 *7.1163e-53 = 5.693e-52，然后乘以2.233e19：5.693e-52 *2.233e19=1.271e-32。
-所以总体ρ_Spitzer=分子/分母= (1.179648e-53) / (1.271e-32) ≈9.28e-22 欧姆米？这似乎太小了，可能哪里计算错误。
-或者，可能我的计算步骤有误，特别是在单位转换或常数代入时。可能更好的方法是使用已知的简化公式，如ρ_Spitzer ≈ 10^(-9) 欧姆米，这与之前的计算结果相符。
-现在，假设Spitzer电阻率为约1e-9 欧姆米，环电压的典型值在聚变装置中可能在千伏级，比如10kV。电流I可能在兆安级别，比如10MA。环电压V=I*R，其中R是等离子体电阻，R=ρ*(2πa)/B，假设半径a=1m，磁感应强度B=5T，所以R≈ρ*(2π*1)/5 ≈ρ*1.256。因此，V=I*R=10^7 A * ρ *1.256。
-如果V=10kV=1e4 V，则ρ= V/(I*R) ≈1e4 / (1e7 *1.256) ≈7.96e-4 欧姆米。这远大于Spitzer电阻率，意味着实际电阻率比经典Spitzer电阻率大得多，因此需要反常电阻的概念。
-所以，经典电阻（Spitzer）的贡献可能只有1%或更低，剩下的99%由反常电阻贡献。这引出了反常电阻的重要性，因为它们显著影响等离子体的运行。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 在典型托卡马克等离子体参数下，Spitzer电阻率为 $\rho_{\text{Spitzer}} \approx 1.2 \times 10^{-9} \, \Omega \cdot \text{m}$。经典电阻仅贡献环电压的约 1%，剩余 99% 由反常电阻解释。
 ### 背景与概念
 托卡马克装置中的等离子体电阻主要分为经典电阻（Spitzer电阻）和反常电阻。Spitzer电阻基于电子-电子碰撞导电机制，适用于高密度、低温度条件。公式为：
@@ -750,7 +688,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -776,16 +714,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，我现在得仔细想想反常输运是什么，还有离子温度梯度模（ITG）是如何驱动它的，包括线性和非线性机制。首先，反常输运听起来是指等离子体中的异常扩散现象，和常规的流体力学不一样。
-我记得在受控核聚变中，托卡马克之类的装置里等离子体的输运对约束性能影响很大。常规输运主要是由碰撞引起的，而反常输运可能更复杂，涉及微不稳定性，比如ITG。
-那ITG是什么呢？好像是在等离子体中，当离子的温度梯度足够陡的时候，会触发的一种不稳定性。导致这种不稳定的驱动力是什么？应该是温度梯度产生的自由能，能够驱动波动，从而引发输运。
-线性阶段，这些波动是怎么增长的？应该涉及到波动方程的求解，考虑等离子体的参数，比如温度梯度、密度梯度、磁场梯度等等。然后假设波动的频率在某些范围内，比如低频，这样可以忽略一些高阶项，从而简化方程，找出增长率最高的情况。
-当增长率达到一定程度，非线性效应开始起作用。这个时候，波动的幅度变得足够大，非线性项不能忽略，可能导致波动间的相互作用，比如说波波相互作用。这可能抑制进一步的增长，导致输运达到一个饱和状态。
-那ITG饱和机制有哪几种？我记得有谱间散射、动量耗散之类的机制。这些机制会让自由能被耗散，从而限制输运的增长，进入饱和阶段。
-工程上，了解ITG对设计托卡马克有帮助，比如优化参数，让温度梯度不要太大，或者改变磁场梯度，从而抑制ITG的发展，减少输运，提高约束性能。
-总的来说，反常输运和ITG模的关系涉及到自由能驱动、线性不稳定性的发展，以及非线性饱和机制。这些都是影响聚变装置性能的重要因素，需要深入研究和控制。
-&lt;/think&gt;
-### 反常输运的定义与背景
+          <t>### 反常输运的定义与背景
 **核心结论**：反常输运是指在受控核聚变装置中，等离子体输运过程由于微不稳定性或波动而显著增强的现象，远超常规碰撞输运水平。
 反常输运是受控核聚变中的关键问题之一，尤其在托卡马克和仿星器等装置中。其本质是等离子体中由于自由能的存在，驱动微不稳定性，从而显著增强粒子、能量和动量的输运，通常用跨面输运系数来量化，单位为 m²/s。
 ### 微观不稳定性：离子温度梯度模（ITG）
@@ -841,7 +770,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -867,15 +796,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>好，我需要描述等离子体鞘层的形成过程和主要特征，特别是德拜鞘层和预鞘层。然后，要解释鞘层在等离子体与壁相互作用（PMI）以及朗缪尔探针诊断中的角色。
-首先，鞘层是等离子体与固体表面之间的重要过渡区域。了解它的形成过程是关键。等离子体由离子、电子和中性粒子组成，当它们接近固体表面时，电子由于质量轻，容易被壁吸收，导致局部电子密度降低。这使得离子继续向壁运动，但由于电子的缺失，整体上形成了一种电势梯度，这就是鞘层的开始。
-接下来，主要特征包括德拜鞘层和预鞘层。德拜鞘层是靠近壁的一薄层，电子密度迅速下降，形成一个陡峭的电势梯度，以平衡离子的流入。预鞘层则是位于德拜鞘层之外的区域，电子密度较高，电势梯度较平缓，主要由电子的流动决定。
-在PMI中，鞘层起到关键作用。它决定了离子如何沉积在壁上，影响壁的侵蚀和材料性能。鞘层的存在可以防止等离子体中的高能离子直接轰击壁，从而减少壁的损坏。此外，鞘层的特性如鞘电压和鞘厚度对等离子体参数的诊断非常重要。
-在朗缪尔探针诊断中，鞘层直接关系到探针的测量结果。探针的电流-电压特性曲线显示了鞘层的形成，通过测量电压和电流，可以推断出等离子体的电子温度和密度。因此，鞘层的电势分布对探针的准确诊断至关重要。
-总的来说，鞘层在等离子体物理中扮演着重要角色，不仅影响等离子体与壁的相互作用，还为诊断提供了关键的信息。在设计和优化聚变装置时，必须充分考虑鞘层的特性，以提高装置的效率和安全性。
-通过以上分析，我明确了鞘层的基本概念、形成机制、主要特征及其在PMI和朗缪尔探针中的作用，这为进一步的研究和应用提供了坚实的基础。
-&lt;/think&gt;
-### 等离子体鞘层的形成过程和主要特征
+          <t>### 等离子体鞘层的形成过程和主要特征
 1. **核心结论**  
    等离子体鞘层是等离子体与固体表面之间形成的一个过渡区域，主要分为德拜鞘层和预鞘层，对等离子体与壁相互作用（PMI）及朗缪尔探针诊断起关键作用。
 2. **背景与概念**  
@@ -909,7 +830,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -935,14 +856,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，用户是一位资深的聚变等离子体物理与工程专家，他需要解释MHD近似的适用条件和局限性，还要说明在哪些情况下必须用更复杂的模型，比如双流体或回旋动力学模型。首先，我得明确什么是MHD近似。
-MHD近似是将等离子体视为磁化流体的整体，忽略了粒子的微观运动。适用条件应该是当等离子体处于高密度、高温，且时间尺度足够大，这样流体的运动主导行为，而微观过程可以被平均。比如托卡马克中的平衡和大尺度不稳定性。
-接下来，局限性方面，当等离子体的温度低，或者密度高到离子之间的碰撞频繁，可能会出现MHD不适用的情况。特别是当粒子的微观运动变得重要时，比如回旋运动，或者当离子和电子的运动不同步时，需要双流体模型。
-然后，需要举例说明必须超越MHD的情况，比如小尺度的波动现象，或者涉及粒子输运的情况。这时候，双流体或回旋动力学模型能更准确地描述等离子体的行为。
-还要考虑到用户的需求，可能是在进行聚变装置设计时，需要决定何时使用更复杂的模型。因此，结论需要明确指出在哪些情况下必须使用这些模型，以及它们带来的好处。
-最后，确保答案结构清晰，分点论述，方便用户快速理解。同时，用词要严谨，不使用未经验证的信息，确保专业性和准确性。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 磁流体力学（MHD）近似适用于等离子体的宏观行为，其适用条件是等离子体参数满足磁流体假设，而其局限性在于无法描述微观动力学效应。在涉及等离子体中小尺度波动、粒子回旋效应或不同粒子物种间非平衡现象的研究中，必须超越MHD模型，采用更复杂的动力学模型。
 ---
 ### 背景与概念  
@@ -1004,7 +918,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1030,17 +944,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，用户问的是关于等离子体中的朗道阻尼机制，为什么会发生阻尼，以及对等离子体加热和电流驱动的影响。好的，我得先回忆一下朗道阻尼的基本概念。
-朗道阻尼，也叫朗道耗散，是等离子体中的一种波阻尼现象。我记得是Vlasov在1945年研究发现的，后来被朗道进一步解释。那这个机制到底是怎么工作的呢？
-首先，等离子体里的粒子运动是集体的，形成了波。当波传播时，其中一些粒子会受到波电场的影响，导致能量交换。但是，等离子体中的碰撞很少，特别是在托卡马克这样的高温等离子体中，碰撞频率很低，所以主要的阻尼机制应该是无碰撞的。
-那为什么无碰撞情况下波会阻尼呢？这可能涉及到波与粒子之间的相互作用。粒子会对波的电场做出反应，当它们的运动速度接近波的相速度时，就会发生共振。这时，粒子会吸收波的能量，从而导致波的阻尼。
-具体来说，这涉及到粒子的分布函数和波的频率之间的关系。当粒子的速度分布满足一定的条件时，波就会被阻尼。例如，当波的频率接近粒子的热运动频率时，就会有明显的能量交换。
-在加热和电流驱动方面，朗道阻尼有什么影响呢？等离子体加热通常使用高频率波，比如RF波。这些波通过朗道阻尼将能量传递给等离子体粒子，特别是高能离子，从而提高温度。而电流驱动则是利用低频率波，比如ECRH，通过相同的机制驱动电流，维持聚变反应所需的条件。
-我还记得，朗道阻尼的效率取决于粒子的热速度和波的频率。如果粒子的热速度接近波的相速度，阻尼效果会更好。这也解释了为什么在某些条件下，波的能量传递更有效。
-另外，朗道阻尼还影响波的传播特性，比如衰减长度和群速度。这些参数在设计加热和电流驱动系统时非常重要，因为它们决定了波能穿透多深，以及能量传递的效率。
-总的来说，朗道阻尼在无碰撞等离子体中起着关键的耗散作用，直接影响加热和电流驱动的效率。这对我们设计聚变装置和优化运行条件非常重要。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 朗道阻尼（Landau Damping）是无碰撞等离子体中波阻尼的主要机制，它通过波与粒子之间的非线性相互作用导致波能量被粒子吸收，从而引起波的阻尼。这种机制对等离子体加热和电流驱动具有重要影响。
 ---
 ### 2. 背景与概念  
@@ -1092,7 +996,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1118,16 +1022,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，今天用户问了一个关于E×B漂移在等离子体约束和输运中的双重作用的问题，还提到了霍尔推进器或磁控溅射作为例子。我得先回忆一下相关的知识。
-首先，E×B漂移是等离子体中电子的运动，受电场和磁场的共同作用。这个现象在等离子体约束中很重要，尤其是在托卡马克和霍尔推进器这些装置里。
-用户提到玻姆扩散和近壁电导，这些都是反常电子输运机制的例子。玻姆扩散发生在强磁场下的等离子体边界，而近壁电导则与等离子体与固体壁的相互作用有关。
-接下来，我得分析E×B漂移在这些系统中的作用。在约束方面，E×B漂移有助于将等离子体保持在磁场中心，减少逃逸。但在输运方面，它可能导致电子的非经典扩散，影响整体性能。
-我应该分点解释这些机制，包括它们的物理背景、原理，以及实际应用中的意义。比如，玻姆扩散是因为磁场的梯度导致电子的漂移运动，而近壁电导则是由于壁上形成的鞘层影响电场，进而影响电子的运动。
-另外，还要比较这些机制的优缺点，比如玻姆扩散导致的热损失，而近壁电导可能提高效率，但也有副作用。最后，总结这些作用对装置设计和运行的启示，比如如何优化参数以减少输运损失。
-用户可能是一位学生或研究人员，需要详细的分析来理解这些现象。他们可能正在研究等离子体物理或相关工程，因此回答需要结构清晰，包含足够的细节和理论推导，同时用实际例子来说明。
-总之，我需要组织一个全面的回答，涵盖背景、原理、机制分析、实际应用，以及比较和总结，确保用户能够清晰理解E×B漂移的双重作用。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 E×B漂移在等离子体约束和输运中具有双重作用：一方面通过闭合漂移轨道帮助约束等离子体，另一方面在边界区域或特定条件下引发反常电子输运机制（如玻姆扩散和近壁电导），显著影响等离子体的热输运特性。
 ---
 ### 背景与概念  
@@ -1185,7 +1080,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1211,14 +1106,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于如何通过实验手段测量等离子体的基本参数，包括电子温度、离子温度、电子密度和等离子体电流，并且要求列举至少三种不同的诊断技术，说明其原理。首先，我需要理解用户的需求，他们可能是一位研究聚变等离子体的学生或工程师，正在寻找合适的诊断方法来测量这些参数。
-我应该从常见的诊断技术入手，考虑哪些方法既常用又有效。光谱诊断是一个不错的选择，因为它能测量电子温度和密度，原理也比较直观，通过分析光谱线的强度和宽度。另外，微波诊断如反射计和干涉计，适合测量密度，尤其是电子密度，而且在托卡马克中应用广泛。还有托马斯-杨干涉法，虽然可能在其他领域应用较多，但也可以用来测量等离子体电流。
-接下来，我需要解释每种方法的原理，确保用户能够理解其中的物理概念。比如，光谱诊断利用等离子体发光的特性，反射计通过微波频率的变化来确定密度分布，干涉计则利用相位变化来测量密度。而托马斯-杨干涉法则是通过电流产生的磁场影响干涉条纹来判断电流。
-在介绍每种技术时，还要提到它们的优缺点，帮助用户根据具体需求选择合适的方法。例如，光谱诊断需要高分辨率的光谱仪，适合低温等离子体；微波诊断则适用于高温、高密度的聚变等离子体，但需要复杂的微波系统。托马斯-杨干涉法虽然简单，但精度可能不如其他方法。
-最后，要点总结部分要突出每种方法的适用性和优势，让用户有一个清晰的对比和选择依据。同时，提醒用户在选择时考虑实验的具体条件和需求，比如设备的可用性和等离子体参数的范围。
-总的来说，我需要确保回答全面、清晰，并且能够帮助用户根据实际情况选择合适的诊断技术。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 通过实验测量等离子体基本参数（电子温度$T_e$、离子温度$T_i$、电子密度$n_e$、等离子体电流$I_p$）的主要诊断技术包括光谱诊断、微波诊断和干涉诊断等，每种技术基于不同的物理原理，适用于不同的测量需求。
 ---
 ### 2. 背景与概念  
@@ -1274,7 +1162,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1300,16 +1188,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在得仔细想想这个问题。用户问的是在托卡马克放电的不同阶段，哪些等离子体物理过程占据主导地位。我需要分阶段来分析，包括击穿、电流爬升、平顶和破裂四个阶段。
-首先，等离子体击穿阶段。这个阶段发生在外磁电流开始建立的时候，等离子体刚开始形成。我记得击穿通常是由于气体被电离，所以主导的物理过程应该是电离。电子碰撞电离和光致电离应该是主要的，可能还有加热效应。这里还要考虑密度和磁场的影响。
-接下来是电流爬升阶段。这个阶段托卡马克的磁场在快速变化，电流急剧增加。这时候的主要物理过程应该是磁流体动力学不稳定性，因为磁场的变化可能引发像kink或者sausage之类的不稳定性。同时，电流的快速变化会导致等离子体的加热，可能还伴随着大量的能量注入，导致高能量的粒子产生，这可能引发辐射或输运问题。输运在这个阶段可能比较显著，因为不稳定性会导致等离子体的混合和热量散失。
-然后是平顶阶段，这是等离子体最稳定和最容易维持核聚变的阶段。主要的物理过程应该是输运，包括热量和粒子的输运。等离子体的约束能力在这个阶段非常关键，可能使用了像 ITER 中的高约束模式（H-mode）。同时，核聚变反应在这个阶段开始显著，产生大量的α粒子，这些粒子可能会引发各种效应，比如阿尔法加热或者阿尔法不稳定性。此外，等离子体的稳定性仍然重要，可能需要抑制任何不稳定性以维持平顶时间。
-最后是破裂阶段，这通常是等离子体无法维持稳定状态的结果。主导的物理过程可能包括磁流体动力学不稳定性加剧，导致等离子体失去控制，迅速崩溃。破裂可能会引起极端的条件，比如高粒子流、高热流，甚至可能造成对装置壁的损害。这个阶段也可能涉及到快速的能量释放和复杂的物理过程，如等离子体的重新连接。
-在思考过程中，我还需要考虑每个阶段的关键参数和影响因素，比如磁场强度、电流、等离子体密度、温度等。这些参数的变化如何影响各个物理过程的主导性。例如，在击穿阶段，高密度和强磁场可能促进电离过程，而在爬升阶段，快速变化的磁场可能导致不稳定性。
-另外，我还需要回忆托卡马克运行中的典型现象，如电流初始化中的击穿现象，爬升阶段可能出现的不稳定性，平顶阶段的H-mode和输运屏障，以及破裂时的等离子体失控现象。这些现象背后的物理机制将帮助我明确每个阶段的主导过程。
-总结一下，击穿阶段以电离为主导，电流爬升阶段以不稳定性和输运为主，平顶阶段以输运和核聚变为主，破裂阶段以不稳定性为主。在解释每个阶段时，我需要结合具体的物理机制和影响因素，确保分析的全面性和准确性。
-&lt;/think&gt;
-在托卡马克放电的四个主要阶段中，不同的等离子体物理过程主导：
+          <t>在托卡马克放电的四个主要阶段中，不同的等离子体物理过程主导：
 ### 等离子体击穿阶段
 **主导物理过程：电离**
 - **电离**：气体被强电场和高能量电子碰撞电离，产生等离子体。
@@ -1394,7 +1273,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1420,38 +1299,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答的问题是关于汤姆逊散射诊断测量等离子体电子温度和密度的基本原理，以及在给定条件下计算散射光谱的特征多普勒展宽Δλ，同时评估这对诊断系统光谱仪分辨率的要求。
-首先，我需要理解汤姆逊散射诊断的基本原理。汤姆逊散射是激光与等离子体中的自由电子相互作用产生的散射现象。这个过程可以用来测量等离子体的电子温度和密度。当激光束照射到等离子体上时，电子会因为热运动而发生散射。散射光的频率变化与电子的速度有关，从而可以推断出电子的温度。同时，散射光的强度与电子的密度有关，因此通过测量散射光的强度可以得到电子密度。
-接下来，问题提到入射激光波长λ0=1μm，散射角θ=90°，电子温度Te=10keV。需要估算散射光谱的特征多普勒展宽Δλ，并评估对光谱仪分辨率的要求。
-首先，我应该回忆一下多普勒展宽的公式。多普勒展宽主要来自于电子的热运动速度，导致散射光频率的变化。公式通常表示为Δλ/λ0 = (k_B Te)/(2 m_e c^2)，其中k_B是玻尔兹曼常数，Te是电子温度，m_e是电子质量，c是光速。
-让我先写出这个公式，并确认单位是否正确。Te=10keV，我需要将其转换为电子伏特对应的温度。但实际上，多普勒展宽的计算通常直接使用温度的单位转换，所以可能需要将Te从keV转换为电子伏特，再转换为温度单位。不过，我可能在这里犯了一个错误，因为通常温度以eV为单位时，可以直接用于计算。
-或者，我应该将Te=10keV转换为温度单位K。因为1eV≈1.16045×10^4 K，所以Te=10keV≈1.16×10^5 eV≈1.16×10^5 × 1.16045×10^4 K≈1.346×10^9 K。这可能太大了，但等离子体中的温度确实可以达到如此高的值。
-不过，计算中可能更直接地使用Te的单位为keV，而将其转换为能量。因为k_B Te在计算中通常用eV作为单位，所以可能需要将Te=10keV转换为eV，即10,000 eV。
-现在，计算Δλ：
-Δλ = λ0 * (k_B Te)/(2 m_e c^2)
-其中，k_B=8.617×10^-5 eV/K，Te=10keV=10,000 eV，m_e=9.109×10^-31 kg，c=3×10^8 m/s，λ0=1μm=1×10^-6 m。
-不过，这里可能有一个更简便的方法，因为Δλ与Te的关系可以直接计算，而无需将Te转换为温度单位。
-让我重新整理一下：
-Δλ = λ0 * (sqrt( (k_B Te) / (m_e c^2) )) * (1 / sqrt(2))
-因为多普勒展宽通常表示为半高宽，所以可能需要乘以sqrt(ln2)，但通常简化为Δλ≈λ0 * (sqrt(2k_B Te/(m_e c^2))) )。
-或者，正确的公式应该是Δλ = λ0 * sqrt( (2 k_B Te) / (m_e c^2) ) / (sqrt(2)) )，这可能简化为Δλ=λ0 * sqrt(k_B Te/(m_e c^2))。
-我需要确认正确的多普勒展宽公式。根据我的记忆，多普勒展宽的半宽度Δλ可以表示为Δλ = λ0 * sqrt(2 k_B Te/(m_e c^2)) ) / sqrt(2)，因为通常考虑的是对称分布的宽度。
-或者，更准确地说，Δλ = λ0 * sqrt( (k_B Te)/(m_e c^2) )，因为展宽的计算可能使用平均速度或最可能速度，而不同来源可能有不同的表达式。
-可能更准确的是，考虑电子的热速度v_th = sqrt(2 k_B Te/(m_e))，然后多普勒频移δλ/λ0 = v_th/c，因此Δλ≈λ0 * v_th/c。
-现在计算：
-v_th = sqrt(2 k_B Te/(m_e)) = sqrt(2 * 8.617×10^-5 eV/K * 10,000 eV / 9.109×10^-31 kg)
-这里可能需要将k_B Te转换为能量单位。k_B=8.617×10^-5 eV/K，Te=10keV=10,000 eV，所以k_B Te=8.617×10^-5 eV/K * 10,000 eV = 0.8617 eV^2/K。
-但可能更直接地将k_B Te转换为焦耳，因为能量单位需要与m_e一致。
-1 eV=1.602×10^-19 J，所以k_B Te=8.617×10^-5 eV/K * 10,000 eV = 0.8617 eV = 0.8617 * 1.602×10^-19 J=1.381×10^-19 J。
-然后，v_th = sqrt(2 * 1.381×10^-19 J / 9.109×10^-31 kg) = sqrt(2 * 1.381×10^-19 / 9.109×10^-31) = sqrt( (2.762×10^-19) / 9.109×10^-31 ) ≈ sqrt(3.032×10^11) ≈ 5.51×10^5 m/s。
-然后，Δλ = λ0 * v_th/c = 1×10^-6 m * 5.51×10^5 m/s / 3×10^8 m/s ≈ 1×10^-6 * 5.51×10^5 / 3×10^8 ≈ 1×10^-6 * 1.837×10^-3 ≈ 1.837×10^-9 m ≈ 1.84 nm。
-这与之前提到的计算结果类似，可能在量级上正确。
-因此，Δλ≈1.84 nm。
-接下来，考虑对光谱仪分辨率的要求。光谱仪的分辨率通常以Δλ/λ来衡量，其中Δλ是仪器能够分辨的最小波长差。为了准确测量多普勒展宽，光谱仪的分辨率应优于Δλ的半宽度，即Δλ_res ≈ Δλ/2 ≈ 0.92 nm。
-因此，光谱仪的分辨率Δλ/λ0 ≈ 0.92 nm / 1 μm = 0.92×10^-3，即约为0.09%。换算成瑞利判据或其他分辨率指标，可能需要更高的分辨率。
-总结一下，基本原理涉及激光与电子的汤姆逊散射，通过频率变化测量温度，通过散射强度测量密度。多普勒展宽的计算基于电子热速度，而光谱仪需要足够的分辨率来捕捉这一展宽。
-&lt;/think&gt;
-**汤姆逊散射诊断原理及多普勒展宽计算**
+          <t>**汤姆逊散射诊断原理及多普勒展宽计算**
 **1. 基本原理：**
 汤姆逊散射诊断利用激光与等离子体中的自由电子相互作用产生的散射现象，通过测量散射光的频率变化和强度来获取电子温度（Te）和电子密度（ne）。散射光的频率变化（多普勒效应）反映电子的热运动速度，从而推导出Te；而散射光的强度与ne成正比。
 **2. 多普勒展宽计算：**
@@ -1492,7 +1340,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1518,17 +1366,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于激光干涉和偏振测量诊断等离子体密度和磁场的原理，以及为什么ITER等大型装置常用多弦或远红外激光系统，还有振动补偿和长光程对准的挑战。让我慢慢理清思路。
-首先，干涉测量法和偏振测量法的基本原理是怎样的呢？干涉测量法利用激光在等离子体中的折射率变化，导致光程差，从而通过干涉条纹的变化来测量密度。而偏振测量法则利用等离子体中的法拉第效应，即磁场会使线偏振光的偏振方向旋转，旋转角度与磁场和电子密度的积分有关。
-那么，为什么这些方法适用于诊断呢？因为等离子体的折射率和法拉第旋转对密度和磁场变化非常敏感，所以这些诊断方法可以提供高精度的数据。
-接下来，为什么在大型装置如ITER中使用多弦或多波束系统？我想可能是因为等离子体的形状复杂，单束可能无法覆盖整个区域，多弦可以提供三维的密度和磁场分布。而远红外激光波长较长，可以减少散射，提高信号的穿透力，适合用于较厚的等离子体层。
-然后，振动补偿和长光程对准的挑战是什么？在大型装置中，设备可能会有振动，影响激光束的稳定对准，所以需要有振动补偿机制，比如主动调整镜或减震装置。而长光程意味着激光在等离子体中穿行的距离长，对准更困难，稍微的角度偏差就会导致光束偏离目标区域，影响测量的准确性。
-我还需要考虑哪些方面呢？比如激光系统的波长选择，为什么远红外更适合？因为更长的波长可以减少等离子体对激光的散射，提高信号质量。而多弦系统通过多个视角的数据，可以利用三角测量或其他方法，更准确地重构等离子体的参数分布。
-另外，光程对准的问题，除了振动，可能还有温度变化导致材料膨胀，影响光路稳定性。因此，需要高精度的控制系统来保持光束的对准。
-还有，这些诊断系统如何与其他系统协同工作？比如，干涉仪可能与偏振计结合使用，同时测量密度和磁场，提供更全面的数据支持。
-总结一下，激光干涉和偏振测量法利用等离子体对激光的折射和偏振效应，提供密度和磁场的诊断。在大型装置中，多弦和远红外激光提高测量的全面性和信号质量，而振动补偿和长光程对准则需要高精度的控制系统来应对挑战。
-&lt;/think&gt;
-### 激光干涉和偏振测量诊断等离子体密度和磁场的原理
+          <t>### 激光干涉和偏振测量诊断等离子体密度和磁场的原理
 #### 核心结论
 激光干涉测量通过等离子体折射率变化引起的光程差测量密度，而偏振测量利用法拉第效应测量磁场或电流密度。多弦和远红外激光系统在大型装置中提供高空间分辨率和穿透力，而振动补偿和长光程对准是关键挑战。
 #### 背景与概念
@@ -1569,7 +1407,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1595,12 +1433,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于电子回旋发射（ECE）诊断测量电子温度剖面的问题。首先，我得理解ECE的基本原理。ECE是通过测量等离子体中电子的回旋共振辐射来诊断温度的，这应该涉及到电子的回旋频率和等离子体的温度之间的关系。
-接着，问题提到在不同光学厚度条件下的应用有什么区别。光学厚度决定了辐射是处于热辐射还是非热辐射状态。薄光学厚度意味着辐射可以穿透，温度测量可能更直接；厚光学厚度则可能导致辐射饱和，需要不同的处理方法。
-然后，讨论在强ECRH环境下的问题。ECRH会加热等离子体中的电子，尤其是产生超热电子。这可能引起ECE信号的非热成分增加，导致测量误差。解决方案可能需要优化频率选择或使用双频测量来区分热和非热部分。
-最后，要点总结需要涵盖ECE的基本原理、光学厚度的影响以及强ECRH下的问题与解决方法。确保回答结构清晰，涵盖所有部分，并且用中文表达。
-&lt;/think&gt;
-### 电子回旋发射（ECE）诊断测量电子温度剖面的物理基础
+          <t>### 电子回旋发射（ECE）诊断测量电子温度剖面的物理基础
 1. **核心结论**  
    电子回旋发射（ECE）诊断通过测量等离子体中电子的回旋共振辐射，利用辐射强度与电子温度的关系，实现电子温度剖面的测量。
 2. **背景与概念**  
@@ -1643,7 +1476,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1669,17 +1502,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于聚变中子诊断在D-T聚变等离子体研究中的重要性，还要求列举至少三种不同的中子诊断技术，并说明它们提供的关键物理信息。看来用户可能是在研究聚变装置，特别是托卡马克或者其他类似装置，可能涉及ITER或者之前的实验装置。
-首先，我需要回忆一下中子诊断的基本概念和作用。中子是D-T聚变的直接产物，所以中子诊断可以提供关于聚变反应的关键信息，比如聚变功率、温度、燃料比例，甚至α粒子的行为。这些都是聚变研究中非常重要的参数，因为它们直接影响到聚变的效率和等离子体的稳定性。
-接下来，用户提到了三种中子诊断技术：中子通量监测、中子能谱仪、中子相机。我要逐一分析每种技术的工作原理和它们能提供的关键信息。
-中子通量监测主要是测量中子的通量，也就是单位时间内的中子数量。这个信息可以直接用来计算聚变功率，因为每个中子对应一定的能量释放。这对于评估聚变反应的效率和装置的性能非常重要。
-中子能谱仪则通过测量中子的能量分布来确定聚变条件。D-T反应释放的中子能量主要是14MeV，但实际测量中会有能量分布的变化，这可以帮助推断等离子体的温度和杂质的情况。温度是等离子体的关键参数，因为它影响聚变反应的速率和整体性能。
-中子相机利用中子的成像能力，将聚变反应的位置和分布可视化。这对于理解等离子体的结构和三维分布非常有帮助，特别是在高能中子和热中子的结合下，可以提供关于聚变区几何形状和燃烧进程的信息。
-除了这三种，可能还有其他技术，比如中子发射谱仪，用于研究α粒子的动量分布，这对于理解聚变产物的行为和等离子体加热机制很重要。或者中子调制器，用于关联中子发射与等离子体动态行为，比如周期性振荡等现象。
-在总结时，我需要强调中子诊断对于等离子体研究的不可替代性，因为它们直接关联到聚变过程的关键参数，而其他诊断手段可能无法提供这些信息。同时，不同诊断技术的结合使用可以提供更全面的数据，帮助优化聚变装置的设计和运行。
-最后，要确保每个部分的信息准确，技术名称和原理正确，提供的关键信息也要符合实际应用。比如中子通量监测确实用于聚变功率计算，中子能谱仪用于温度和杂质分析，中子相机用于空间分布研究，这些都是标准的聚变诊断应用。
-&lt;/think&gt;
-### 1. **核心结论**  
+          <t>### 1. **核心结论**  
 聚变中子诊断是研究D-T聚变等离子体的关键手段，能够直接测量聚变功率、离子温度、燃料离子比例及α粒子行为等核心参数。
 ---
 ### 2. **背景与概念**  
@@ -1734,7 +1557,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -1760,16 +1583,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，今天用户问了一个关于光谱诊断在聚变等离子体研究中的广泛应用的问题。我得仔细想想该怎么回答。首先，用户提到的可见光、紫外和X射线光谱，这些都是不同能量范围的光谱，适用于不同的诊断需求。
-我应该从核心结论开始，简明扼要地说明光谱诊断的重要性。然后，详细解释背景和概念，包括每种光谱的适用范围，以及它们在聚变研究中的具体应用。
-接下来，我需要分点讨论光谱诊断的具体应用。杂质种类和浓度的测量是通过分析光谱线的强度和宽度来确定的，这涉及到黑体辐射和线型宽化的概念。离子温度和旋转速度的测量则基于多普勒效应，这里需要解释斯托克斯和反斯托克斯位移，以及如何通过宽度推断温度。
-电荷交换复合光谱（CXRS）的原理可能有点复杂，我得确保解释清楚这个过程，以及它如何用于测量边缘区域的参数。同时，不同光谱技术的互补性也是一个重要的点，要说明为什么需要多种诊断手段。
-在工程或实验意义部分，我得强调诊断结果如何指导装置设计和运行优化，比如如何减少杂质、优化温度分布，或者改进材料以应对高温环境。
-比较与拓展部分，应该讨论每种光谱技术的优缺点，例如可见光谱的高时间分辨率但参数覆盖有限，CXRS的空间分辨能力有限，而X射线谱适合高温等离子体但诊断复杂。
-最后，要点总结要简明扼要，突出光谱诊断在聚变研究中的关键作用。
-整个思考过程中，要确保每个部分都清晰明了，逻辑严谨，避免遗漏重要信息。同时，语言要准确，符合学术规范，确保用户能全面理解光谱诊断在聚变研究中的应用。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 光谱诊断技术（可见光、紫外、X射线）在聚变等离子体研究中被广泛用于测量杂质种类和浓度、离子温度、旋转速度等关键参数，为等离子体的控制与优化提供了重要依据。
 ---
 ### 背景与概念  
@@ -1825,7 +1639,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1851,23 +1665,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于磁诊断的基本原理和应用，以及长脉冲运行对磁诊断积分器的要求。让我慢慢理清思路，逐步分析这个问题。
-首先，磁诊断是聚变等离子体物理中的一个重要工具，主要用于测量等离子体的电流、位置、形状、储能以及检测MHD不稳定性。常见的磁诊断设备包括磁探针、通量环和罗氏线圈。那么，每种设备的基本原理是什么？
-磁探针是通过测量等离子体中的磁场分布来推断电流密度。根据毕奥-萨伐尔定律，磁场是由电流产生的，因此通过磁场的测量可以积分得到总的电流。磁探针的测量点通常是固定在装置内的，所以它们能够提供等离子体中的磁场分布，从而推断出电流的分布。
-通量环则环绕着等离子体，测量穿过环的总磁通量。由于磁通量与电流的关系由法拉第电磁感应定律决定，因此通过测量磁通量的变化，可以得到等离子体的总电流。通量环通常用于测量等离子体的整体电流，而磁探针则可以提供更高空间分辨率的磁场分布。
-罗氏线圈则利用法拉第电磁感应定律，测量变化的磁场。它通常由两个同心环组成，用于消除背景磁场。罗氏线圈适用于测量脉动电流或者等离子体中的快速变化的磁场，比如MHD不稳定性产生的电流扰动。
-接下来，这些设备在测量等离子体的各种参数中的应用是怎样的呢？例如，如何通过磁诊断来测量等离子体的位置和形状？这可能涉及到测量等离子体在装置中的位置偏移，或者通过磁场分布推断出等离子体的边界形状，比如托卡马克中的环形等离子体的磁表面。
-另外，储能的测量也与磁通量有关。聚变等离子体中的磁能存储量可以通过测量磁通量和电流的关系来计算，通常使用公式E = (1/2)L I²，其中L是电感，I是电流，E是磁储能。
-在检测MHD不稳定性方面，磁诊断可以捕捉到等离子体中由于磁场重联或者磁流体力学不稳定性引起的磁场扰动。这些扰动通常表现为电流的变化或者磁场的波动，罗氏线圈特别适合捕捉这些快速变化的信号。
-接下来，关于长脉冲运行对磁诊断积分器的要求。长脉冲运行意味着装置运行时间较长，可能达到几分钟甚至更长时间。在这样的情况下，磁诊断系统需要持续稳定地工作，避免信号饱和或漂移。积分器是磁诊断系统中的关键部分，负责将感应电动势转换为磁通量的测量。
-首先，积分器的动态范围需要足够大，以处理长脉冲运行中可能出现的从低到高范围内的信号变化。这通常涉及到选择合适的放大器和积分电路，确保在信号变化时积分器能够准确跟踪而不发生饱和。
-其次，积分器的线性度需要很高，以保持测量精度。长时间运行中，任何非线性都可能导致积分误差的积累，从而影响测量结果的准确性。因此，需要选择高精度的运算放大器和反馈电路设计，以确保线性度。
-稳定性也是一个关键因素。在长脉冲运行中，温度、电源波动等因素都可能引起积分器参数的变化，导致信号漂移。为了保持测量的稳定性，需要采取温度补偿措施，使用高质量的元件，以及设计稳定的电源供应。
-抗干扰能力同样重要。长脉冲运行中，周围环境的电磁干扰可能更复杂，积分器需要具备良好的抗干扰能力，以防止外部噪声干扰测量结果。这可能涉及到屏蔽设计、滤波电路的优化，以及合理的信号路由布局。
-此外，数据采集系统的稳定性也不可忽视。长时间的信号采集需要确保数据的完整性和准确性，可能需要使用高分辨率的模数转换器和大容量的数据存储，以支持长时间的数据记录和分析。
-综上所述，长脉冲运行对磁诊断积分器的要求主要包括：宽动态范围、高线性度、稳定性、抗干扰能力以及可靠的数据采集系统。这些要求确保了在长时间运行中，磁诊断系统能够准确、稳定地测量等离子体的电流、位置、形状和其他参数，为聚变装置的优化和控制提供可靠的数据支持。
-&lt;/think&gt;
-### 磁诊断在聚变等离子体中的应用
+          <t>### 磁诊断在聚变等离子体中的应用
 #### 核心结论
 磁诊断技术通过测量磁场变化，有效监测等离子体电流、位置、形状、储能及MHD不稳定性，是聚变装置不可或缺的工具。
 #### 背景与概念
@@ -1900,7 +1698,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1926,25 +1724,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于朗缪尔探针和球形探针的问题。首先，我需要理解这两种探针的基本工作原理，它们能测量哪些参数，以及在强磁场和高热流密度的聚变边界等离子体中使用时会遇到哪些挑战。
-首先，朗缪尔探针。我记得它通常是在等离子体中施加一个电压，测量电流变化来获取信息。朗缪尔探针主要测量的参数应该包括等离子体的密度、温度和速度分布。特别是，它能同时测量电子温度和密度，这对研究等离子体的热运动很重要。但不确定是不是还能测离子温度，可能需要进一步查阅资料。
-接下来是球形探针。球形探针的形状是球形的，这可能与它测量的参数有关。我记得它主要测量等离子体的密度，特别是在低密度区域，因为它对密度变化更敏感。此外，球形探针可能也能提供一些关于离子温度的信息，但不确定是不是同样适用。需要确认这两种探针的具体测量能力。
-然后，应用挑战。在强磁场和高热流密度的环境中，等离子体边界参数会受到很多因素的影响。例如，强磁场会导致等离子体发生磁化，这可能影响探针测量的准确性。此外，高热流可能导致探针表面温度升高，进而影响测量结果。还有，鞘层效应和表面污染也是问题，尤其是长期运行时探针表面可能被沉积物覆盖，导致测量误差。
-现在，具体分析每个部分：
-1. 工作原理：
-   - 朗缪尔探针：施加偏压，测量离子饱和电流和特征曲线。通过饱和电流得到密度，特征曲线上得到电子温度。
-   - 球形探针：利用球形几何特性，可能更适用于测量密度，特别是在边界区域，因为边界区域密度较低，球形探针的灵敏度更高。
-2. 测量参数：
-   - 朗缪尔探针：密度、电子温度、离子密度（如果需要）。
-   - 球形探针：密度、可能的离子温度信息。
-3. 挑战和局限性：
-   - 强磁场导致磁化，影响离子运动，探针测量时需要考虑鞘层结构。
-   - 高热流导致探针温度变化，影响测量。
-   - 短暂寿命和表面污染问题，尤其是在长时间运行中。
-在实际应用中，可能需要结合两种探针的优点，例如在边界区域同时使用球形探针和朗缪尔探针，以获得更全面的参数。此外，设计探针时要考虑到磁场和热流的影响，可能需要采用特殊材料或冷却系统。
-总结一下，朗缪尔探针和球形探针在聚变等离子体边界研究中有重要作用，但强磁场和高热流条件带来了技术上的挑战，需要在设计和应用中加以解决。
-&lt;/think&gt;
-### 朗缪尔探针和球形探针的分析
+          <t>### 朗缪尔探针和球形探针的分析
 #### 1. 工作原理
 - **朗缪尔探针**：通过施加不同的偏压，测量离子饱和电流和特征曲线。离子饱和电流用于计算等离子体密度，特征曲线则用于确定电子温度。
 - **球形探针**：利用球形几何，对低密度区域的敏感性较高，适用于测量密度。此外，通过鞘层效应，可能获得离子温度信息。
@@ -1970,7 +1750,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1996,15 +1776,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，现在我需要解决的问题是关于未来聚变装置，比如ITER的诊断系统面临的严峻辐照损伤问题。用户提到诊断系统的光学窗口、反射镜、光纤、电缆和探测器等关键部件可能会受到强中子和γ辐照、高热负荷、长脉冲、真空以及远程维护的挑战。我的任务是讨论这些部件的主要辐照损伤效应以及应对策略。
-首先，我得逐一分析每个部件可能受到的损伤类型。光学窗口可能面临中子辐照导致的材料活化和热辐照引起的性能下降。反射镜可能会有材料疲劳和表面污染的问题。光纤和电缆可能会受到辐照导致的信号衰减和材料老化。探测器则可能因辐照损伤而性能退化。
-然后，我需要找出每种损伤的原因和机制。例如，中子辐照会导致材料活化，产生放射性物质，影响设备的维护和更换。热辐照和高热负荷可能会导致材料的物理性能改变，如膨胀或软化。此外，长时间的辐照可能导致材料疲劳，影响其机械强度。
-接下来，思考应对策略。这可能包括选用耐辐照材料，如特殊钢种或陶瓷；采用保护性涂层来减少辐照的影响；设计冗余系统以应对部件损坏；或者使用更先进的制造技术，如3D打印，来提高材料的耐久性。
-在分析过程中，我需要确保每一步都有科学依据，并引用相关的物理原理和实验结果。此外，还需要考虑工程上的可行性，比如材料的可获得性、制造成本以及维护便利性。
-可能遇到的困难包括如何量化辐照对材料的影响，比如计算中子通量和材料的活化程度，或者评估热负荷对材料性能的具体影响。这可能需要使用一些公式和模型来进行估算。
-最后，要确保应对策略不仅解决当前问题，还要具有可扩展性和未来适用性，以适应更先进的聚变装置的需求。
-&lt;/think&gt;
-### ITER诊断系统关键部件的辐照损伤效应与应对策略
+          <t>### ITER诊断系统关键部件的辐照损伤效应与应对策略
 #### **1. 核心结论**
 未来聚变装置的诊断系统将面临中子辐照、热负荷及真空环境的多重挑战，主要辐照损伤包括材料活化、热辐照损伤、光纤信号衰减、探测器性能退化等。应对策略包括采用耐辐照材料、保护性涂层、冗余设计、远程维护技术及先进制造工艺。
 ---
@@ -2060,7 +1832,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2086,18 +1858,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在要解释“诊断第一壁”和“端口插件”在ITER诊断系统中的作用，同时说明如何在满足诊断视窗要求的情况下，确保真空密封、结构强度和足够的辐射屏蔽。让我先理清楚这两个术语，然后逐步分析。
-首先，诊断第一壁（Diagnostic First Wall）应该是指ITER装置内部，靠近等离子体的第一个接触到诊断系统的结构。这可能是一个防护层，用来保护内部结构免受高温、辐射和等离子体溅射的影响。同时，它需要允许诊断设备的视线通过，比如光、粒子束等，以便进行测量。
-然后是端口插件（Port Plug），这可能是指 ITER 用于安装各种诊断设备的端口处的可更换部件。这些插件可能需要根据不同诊断设备的需求进行设计，比如不同的窗口材料、结构等。因此，它们在集成诊断系统中起到关键作用，需要确保它们能够满足各种诊断设备的要求，同时不影响 ITER 的整体性能，比如真空密封、结构强度等。
-接下来，我要考虑如何在满足诊断视窗要求的同时，确保真空密封、结构强度和足够的辐射屏蔽。这意味着：
-1. **诊断视窗要求**：需要有适当的窗口材料，允许特定波长的光或粒子通过，同时阻挡等离子体的热量和粒子。这些材料需要在高温、高辐射环境中保持稳定，并且能够承受热应力和冲击。
-2. **真空密封**：ITER 运行在高真空环境中，因此诊断设备和端口插件必须具备良好的真空密封性能，防止空气进入，影响等离子体的稳定性。这可能涉及到密封材料的选择、结构设计等。
-3. **结构强度**：在高温、高辐射和机械应力下，诊断第一壁和端口插件必须具备足够的强度和刚性，以防止变形或破裂。这可能需要使用高强度的材料，优化结构设计，进行强度和疲劳分析。
-4. **辐射屏蔽**：为了保护设备和人员免受辐射的影响，可能需要在结构中加入屏蔽层，如铅或其他高密度材料。同时，这可能会影响窗口的透明度，因此需要在屏蔽和诊断性能之间找到平衡。
-在设计和集成这些系统时，可能还需要考虑多种因素，比如热传导、等离子体的相互作用、材料的兼容性等。此外，不同诊断设备可能对窗口材料和结构有不同的要求，因此可能需要定制化的解决方案。
-接下来，我会分步骤详细分析每一个方面，确保每个部分都得到充分考虑，并提供可能的解决方案。
-&lt;/think&gt;
-**诊断第一壁（DFW）和端口插件（PP）的作用及其设计考量**
+          <t>**诊断第一壁（DFW）和端口插件（PP）的作用及其设计考量**
 **1. 诊断第一壁（DFW）的作用与设计**
 - **作用**：
   - **保护功能**：DFW位于ITER的真空室内部，直接面对等离子体，起到保护内部结构的作用。
@@ -2168,7 +1929,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -2194,19 +1955,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>好，我现在要解决这个问题：实时等离子体监测与反馈控制对现代托卡马克运行至关重要。哪些诊断信号通常被用于等离子体位形控制、不稳定性控制（如NTM抑制）和破裂预警？对这些诊断系统的时间分辨率和可靠性有何要求？
-首先，我需要明确问题的关键点。问题分为两部分：一是诊断信号的类型，二是对这些系统的性能要求，特别是时间分辨率和可靠性。
-关于诊断信号的类型，我得考虑托卡马克运行中的不同控制目标。首先是等离子体位形控制，这可能涉及到测量等离子体的位置和形状。其次，是不稳定性控制，特别是NTM（NeoclassicalTearing Mode），可能需要检测特定的磁扰动。最后是破裂预警，这需要检测可能导致破裂的条件，比如磁流线破裂的前兆。
-接下来，我需要回想常见的托卡马克诊断系统。常见的有极光干涉仪（用于测密度分布）、磁诊断（如磁探针、平衡线圈，用于测磁信号）、光谱诊断（测温度和组成）、微波诊断（测电子温度和密度）、红外和X射线诊断（测热负荷和杂质分布）。此外，还有破裂检测系统，比如X射线相机和高动态范围可见光相机。
-现在，我需要将这些诊断系统与不同的控制目标对应起来：
-1. 等离子体位形控制可能主要使用磁诊断，特别是极性探针阵列（MPA）和平衡线圈，因为它们能提供实时的等离子体形状和位置信息。
-2. NTM控制可能依赖于检测磁扰动的信号，因此磁探针、磁平衡线圈以及可能的微波反射计可能适用，因为它们可以测量磁场的动态变化。
-3. 破裂预警可能需要检测等离子体边界的变化或杂质的增加，可能用到X射线相机和可见光相机，因为它们能快速捕捉到破裂前的信号。
-接下来，考虑时间分辨率。位形控制可能需要几百毫秒到秒级的更新，而NTM抑制可能需要更快的响应，如几十毫秒，而破裂预警可能需要更快速，可能在几毫秒级别。
-可靠性方面，这些系统必须能提供稳定、准确的信号，避免误触发或遗漏重要事件，这对系统的冗余设计和校准维护提出了高要求。
-总结下来，我需要将这些思路整理成一个结构清晰的回答，涵盖各个诊断信号的类型及其对应的应用，以及时间分辨率和可靠性的具体要求。同时，要注意使用规范的物理术语和单位，并保持逻辑连贯。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 实时诊断信号如磁探针、极光干涉仪、微波反射计、光谱仪、X射线和可见光相机被用于托卡马克的位形控制、不稳定性抑制和破裂预警。这些系统需具备 ms 级时间分辨率和高可靠性以确保精确反馈控制。
 ### 背景与概念
 在托卡马克装置中，实时监测等离子体状态对于维持稳定运行至关重要。常用的诊断系统包括磁诊断（MPA，平衡线圈）、光诊断（极光干涉仪，微波反射计，光谱仪）、X射线和可见光相机。这些系统分别测量等离子体的位置、形状、密度、温度、磁场扰动和破裂前兆。
@@ -2295,7 +2044,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2321,18 +2070,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于托卡马克真空室设计的问题。作为一个刚开始学习聚变等离子体的学生，这个问题有点挑战性，但我会尽力理解和分析。
-首先，问题主要讨论真空室的主要设计要求和功能，以及它需要承受的载荷，包括大气压、电磁力、热应力和内部过压。然后还要探讨材料选择和冷却策略。听起来涉及结构、材料、热管理等多个方面。
-我记得托卡马克装置中，真空室的作用是提供一个极低压力的环境，这对于约束高温等离子体至关重要。因为高真空可以减少等离子体与容器壁的相互作用，防止杂质进入等离子体，从而提高聚变效率。
-关于载荷部分，真空室可能需要承受内部和外部的压力差。通常，真空室内部接近真空，而外部是大气压，这可能导致真空室承受较大的外部压力。另外，聚变反应会产生热量，需要有效的冷却系统来处理热应力。还有，强大的电磁场可能会在真空室结构中产生电磁力，影响其稳定性。
-材料选择方面，托卡马克装置需要考虑材料的耐辐射性和低活化特性，因为聚变反应会产生中子，导致材料活化，产生放射性。不锈钢可能是一个常见的选择，因为它具有良好的机械性能和耐腐蚀性。低活化钢可能更适合，因为它们在中子辐照下产生的放射性较少，适合长期使用。
-冷却策略方面，真空室可能需要内部冷却，比如使用水冷系统，或者依靠辐射冷却。冷却不仅是为了处理热负载，还要保持真空室的结构完整性，防止因温度变化导致的变形或应力集中。
-现在，我需要将这些思路整理成一个结构化的回答，按照用户提供的规范，每个部分都要详细展开。同时，要使用正确的物理概念、符号和单位，必要时进行定量估算。
-或许，我需要进一步了解具体的载荷计算方法，比如内部压力和外部大气压之间的压力差如何影响真空室的结构强度。此外，电磁力可能涉及到环形电流或涡流的效应，这可能需要 Maxwell 方程的知识。
-在材料选择方面，除了耐辐射性和低活化，可能还需要考虑材料的高温性能、焊接性能以及在高真空下的稳定性。冷却系统的效率直接影响到聚变装置的运行，需要优化冷却介质的选择和流动设计。
-总的来说，我需要系统地分析真空室的设计需求，从结构、材料、冷却等多个维度进行探讨，确保每个部分都涵盖到，并且提供足够的细节支持结论。
-&lt;/think&gt;
-托卡马克真空室的设计是一个复杂的工程问题，涉及多方面的考虑。以下是对该问题的详细分析，分为核心结论、背景与概念、设计要求、材料选择、冷却策略、工程意义、总结等部分。
+          <t>托卡马克真空室的设计是一个复杂的工程问题，涉及多方面的考虑。以下是对该问题的详细分析，分为核心结论、背景与概念、设计要求、材料选择、冷却策略、工程意义、总结等部分。
 ### 核心结论
 托卡马克真空室的主要设计要求包括提供高真空环境、承受内外压力差、处理热应力和电磁力、选择耐辐射材料，并采用有效的冷却策略。
 ### 背景与概念
@@ -2362,7 +2100,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2388,16 +2126,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于仿星器的工程挑战以及QUADCOIL等工具如何帮助平衡物理性能和工程可行性的。首先，我需要理解仿星器的基本结构和它与其他聚变装置（如托卡马克）的不同之处。
-仿星器的三维复杂线圈和真空室设计听起来确实比托卡马克要复杂得多。托卡马克的线圈设计相对对称，而仿星器需要非对称的线圈来产生特定的磁场形状。这可能会导致制造和装配的困难，比如线圈的形状多样，可能需要定制的材料和工艺。
-首先，工程设计上的挑战。三维线圈意味着每个线圈可能有不同的形状和尺寸，这会增加设计的复杂性。此外，真空室的设计也必须与线圈完美配合，以确保磁约束的有效性。这可能涉及到复杂的几何建模和有限元分析，以确保结构的完整性和耐久性。
-然后是制造和装配的挑战。线圈的复杂形状可能需要特殊的制造技术，比如3D打印或者数控加工，但这些技术可能会增加成本和时间。装配过程中，如何精确地定位和固定每个线圈，确保它们在空间中的位置准确无误，也是一个难题。真空室的制造可能同样复杂，需要高度精确的焊接和密封工艺，以防止任何泄漏，因为真空室内部需要极高的真空环境。
-接下来，物理性能和工程可行性的平衡。物理性能方面，仿星器需要在磁场强度、均匀性和稳定性上达到一定的标准，以维持等离子体的稳定运行。然而，工程上要考虑材料的可获得性、制造成本、维护便利性等因素。如何在这些物理要求和工程限制之间找到平衡点，是一个关键问题。
-QUADCOIL这样的先进设计工具可能通过提供多物理场仿真、优化算法和模块化设计功能来帮助解决这些问题。多物理场仿真可以同时考虑电磁、热、结构等多个方面的因素，帮助设计者预测潜在的问题并进行优化。优化算法可以在设计空间中寻找最优解，平衡物理性能和工程可行性的需求。模块化设计则可以简化装配过程，减少复杂性和潜在的错误。
-此外，QUADCOIL可能还提供虚拟现实或增强现实功能，帮助设计者和工程师更直观地理解复杂的三维结构，从而在设计阶段发现问题并进行调整。这也可能减少物理原型的需求，降低开发成本和时间。
-总结一下，仿星器的设计和制造确实面临许多独特的挑战，但在先进设计工具的帮助下，这些问题可以得到有效的缓解，从而推动仿星器技术的发展。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 仿星器的复杂线圈和真空室设计对工程设计、制造和装配提出了更高要求，而QUADCOIL等工具通过多物理场仿真和优化设计帮助平衡了物理性能与工程可行性。
 ---
 ### 背景与概念  
@@ -2437,7 +2166,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2463,22 +2192,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于ITER遥操作系统的主要组成部分以及它们各自的功能，同时还要分析在ITER的强辐射、空间受限环境下遥操作面临的关键挑战。作为一个刚开始接触核聚变和ITER项目的学生，我需要先理解ITER是什么，以及为什么需要遥操作系统。
-首先，我知道ITER是一个国际热核聚变实验堆项目，目标是模拟太阳的核聚变反应，为人类提供可持续的清洁能源。在ITER中，聚变反应会产生极高的温度和强烈的辐射，这对装置内部的设备和系统造成了巨大的挑战。因此，ITER的维护和操作需要一种特殊的方式，这就是遥操作系统（Remote Handling System, RH）。
-接下来，我需要分解ITER遥操作系统的主要组成部分，包括偏滤器RH、包层RH、中性束RH、料盒与端口插件RH。每个部分都有其特定的功能。
-1. **偏滤器RH（Divertor RH）**：偏滤器是ITER中的一个关键部件，负责分离并排出等离子体中的杂质和热量。由于偏滤器直接暴露在等离子体中，会受到强烈的辐射和热负荷，因此需要定期更换和维护。偏滤器RH系统必须能够在高温和高辐射的环境下精确操作，确保偏滤器的正常运行。
-2. **包层RH（Blanket RH）**：包层的主要功能是将聚变反应产生的热量转化为可用的能量，同时保护ITER的墙壁免受等离子体的直接冲击。包层RH系统需要处理和更换包层模块，确保其高效运作，同时在维修时提供远程操作的能力。
-3. **中性束RH（Neutral Beam RH）**：中性束注入系统用于加热等离子体，确保其达到足够的温度以维持聚变反应。这个系统的位置可能较为复杂，需要高精度的遥控操作来维护和调整中性束设备。
-4. **料盒与端口插件RH（Cassette and Port Plug RH）**：料盒和端口插件用于装载和卸载ITER内部的各种组件，如偏滤器和包层模块。料盒与端口插件RH系统需要处理这些大型组件的移动和安装，确保它们在有限的空间内准确无误地操作。
-现在，我需要考虑在ITER的强辐射、空间受限环境下，遥操作面临的关键挑战。
-首先，**强辐射环境**会对RH系统的材料和电子元件造成损害，导致部件老化和功能失效。因此，RH系统需要采用能够承受高强度辐射的材料，并进行有效的屏蔽设计。
-其次，**空间受限**使得RH系统的操作空间非常有限，这增加了操作的难度和复杂性。RH系统需要设计紧凑且灵活的机械臂和工具，以在狭小的空间内完成复杂的操作任务。
-此外，**高温和等离子体环境**会对RH系统的耐热性和绝缘性提出极高的要求。在操作过程中，RH系统可能会接触到高温的设备和等离子体，必须具备良好的散热和绝缘性能，以防止故障和损坏。
-还有，**远程操作的高精度和可靠性**也是关键挑战之一。由于RH系统的操作需要在极端环境下远程完成，任何微小的误差都可能导致严重的后果。因此，RH系统必须具备高精度的定位和控制能力，确保操作的准确性和可靠性。
-最后，**系统的复杂性和集成度高**也是一个挑战。ITER的RH系统由多个子系统组成，每个子系统都有其特定的功能和操作要求。如何确保各子系统之间的协调和集成，是一个复杂的系统工程问题，需要综合考虑各部分的相互作用和整体性能。
-总结起来，ITER遥操作系统在设计和操作上面临多重挑战，包括强辐射、空间受限、高温环境、高精度要求以及系统的高度集成。克服这些挑战需要在材料科学、机械设计、自动化控制和系统集成等多方面进行创新和突破，以确保ITER能够安全、稳定地运行，实现其聚变能的宏伟目标。
-&lt;/think&gt;
-### ITER遥操作系统的主要组成部分及其功能
+          <t>### ITER遥操作系统的主要组成部分及其功能
 **1. 偏滤器RH（Divertor RH）**
    - **功能**：负责偏滤器的安装、更换和维护。偏滤器用于分离等离子体中的杂质和排出热量，需定期维护以保证ITER的高效运行。
    - **特点**：在高辐射和高温环境下操作，要求系统具备高耐辐射性和热稳定性。
@@ -2513,7 +2227,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -2539,17 +2253,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，我现在要解决的问题是讨论先进制造技术在聚变堆关键部件制造中的应用和优势。具体来说，这些技术包括激光焊接、电子束焊接、增材制造和热等静压HIP。关键部件包括真空室扇段、偏滤器模块、包层模块。问题还问到这些技术如何提高部件质量、缩短制造周期和降低成本。
-首先，我需要理解每个技术是什么以及它们各自的特点。激光焊接是一种利用高能激光束将材料焊接在一起的技术，优点是热影响区小，焊缝精确。电子束焊接则使用高能电子束，在真空或惰性气体环境下进行，适合焊接高熔点材料，深度大，变形小。增材制造，也就是3D打印，是通过逐层堆积材料来制造复杂结构，适合制造传统方法难以制作的复杂形状。热等静压HIP是一种在高温高压下将粉末冶金坯料致密化的方法，用于制造高均匀性和强度的材料。
-接下来，我要考虑这些技术如何应用于聚变堆的关键部件。例如，真空室扇段可能需要高密封性和强度，而激光焊接和电子束焊接可以提供高质量的焊接接头，减少缺陷。偏滤器模块可能需要耐高温和高热负荷，增材制造可以制作复杂的冷却通道，提高冷却效率。包层模块可能涉及氚增殖，对材料的致密性和均匀性要求高，HIP技术可以确保材料性能。
-然后，我需要分析这些技术如何提高质量。激光和电子束焊接可以减少热变形和应力，提高接头强度；增材制造允许设计更复杂的结构，优化性能；HIP则提高材料均匀性和强度，减少缺陷。
-关于缩短制造周期，增材制造无需传统模具，生产时间缩短；激光和电子束焊接速度快，适合高产量；HIP处理时间虽然长，但减少后续加工需求，整体周期缩短。
-降低成本方面，增材制造减少材料浪费，尤其是昂贵材料；高效率的焊接技术降低人工和时间成本；HIP消除缺陷，减少返工成本。
-最后，我需要综合这些信息，确保每个部分都涵盖到，并且结构清晰。可能还需要考虑不同技术的优缺点，比如增材制造的成本较高，但随着技术进步，成本在下降。此外，结合多种技术可能会获得更好的效果，比如使用HIP处理材料，再用增材制造形状，最后用激光焊接组装。
-可能还需要提到具体的参数，比如激光焊接的功率、速度，HIP的温度和压力，但题目没有提供具体数值，所以可能需要用典型的参数范围来说明。
-总的来说，我需要组织这些思路，按照用户的要求，分点讨论每个技术在各个部件中的应用和优势，并说明如何提升质量、缩短周期、降低成本，最后进行总结。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 先进制造技术（如激光焊接、电子束焊接、增材制造、热等静压HIP）显著提升了聚变堆关键部件（真空室扇段、偏滤器模块、包层模块）的质量，缩短了制造周期，并降低了成本。这些技术通过提高材料性能、优化结构设计和减少加工缺陷实现了上述目标。
 ---
 ### 2. 背景与概念
@@ -2611,7 +2315,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -2637,17 +2341,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于聚变装置，特别是像ITER这样的大型国际合作项目在建造和装配过程中的质量保证（QA）和质量控制（QC）体系的建立和实施。首先，我需要理解什么是QA和QC，以及它们在大型项目中的重要性。
-聚变装置的建造是一个极其复杂的过程，涉及到大量的精密设备和高技术要求。ITER项目尤其庞大，由多个成员国合作完成，因此在质量控制方面必须极其严格，以确保各个部分能够完美配合，实现聚变反应。
-接下来，我需要考虑QA和QC体系是如何建立的。可能需要从项目管理的角度出发，设立专门的质量管理部门，制定详细的质量标准和检查流程。同时，考虑到国际合作的性质，可能需要统一各成员国的质量标准，确保整个项目的质量一致性。
-然后，关键的检验和测试环节有哪些呢？这可能包括材料检验、部件制造检验、装配检验以及系统集成测试等。每一步都需要进行严格的检查和测试，确保每个部分都符合设计要求，只有这样才能保证整个装置的可靠性和安全性。
-材料检验方面，可能需要对用于建造的金属材料、复合材料等进行严格的质量控制，确保其性能符合聚变装置的极端工作条件。部件制造过程中，可能需要采用无损检测技术，如超声波检测、X射线检测等，确保制造出来的部件没有缺陷。
-在装配阶段，可能需要进行精确的安装检测，确保各个部件的位置和装配精度符合设计要求。系统集成测试则是整个装置运行前的重要步骤，确保各个子系统能够协同工作，达到预期的性能指标。
-此外，考虑到 ITER 项目规模庞大，可能需要采用先进的质量管理工具和技术，如统计过程控制（SPC）、质量管理体系（QMS）等，以提高质量管理的效率和效果。
-在实施过程中，还需要建立有效的沟通和协作机制，确保各个成员国在质量控制方面能够紧密合作，及时解决问题，避免延误项目进度。
-总结来说，建立和实施QA和QC体系需要从项目管理、质量标准制定、检验和测试环节、技术支持以及国际合作等多个方面进行综合考虑，确保聚变装置的建造质量，为实现聚变能的商业化应用奠定坚实的基础。
-&lt;/think&gt;
-**核心结论**  
+          <t>**核心结论**  
 聚变装置的QA/QC体系通过全面的质量标准、严格的过程控制和多层次的检验测试来确保装置性能和安全，关键环节包括材料检验、制造验收、装配调试和性能测试。
 **背景与概念**  
 聚变装置（如ITER）是复杂的大型国际项目，涉及多国合作和高技术设备。QA（质量保证）确保所有活动符合既定标准，QC（质量控制）通过测试和检验来验证产品质量。两者的结合确保装置在设计、制造和运行中的安全性和功能性。
@@ -2671,7 +2365,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -2697,25 +2391,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>好吧，我现在需要回答一个关于聚变装置放大挑战的问题。这个问题涉及到从现有的中小型装置，比如像中国的 EAST 或欧洲的 JET，到 ITER，再到未来的 DEMO 电站。这些装置的规模和复杂性急剧增加，带来了许多工程放大挑战，特别是在部件制造、现场装配、系统集成和项目管理方面。
-首先，我得明确问题的核心：工程放大挑战有哪些？这里的问题提到了四个主要方面：部件制造、现场装配、系统集成和项目管理。因此，我的思考应围绕这四个领域展开。
-在部件制造方面，我想，从小型装置到大型装置，部件的尺寸和复杂性都会增加。例如，ITER 的托卡马克比现有的装置大得多，所以制造所需的超导磁体、真空容器等部件，可能面临材料供应、制造精度和成本方面的挑战。可能需要全新的制造技术和材料，这可能导致制造周期延长和成本增加。
-接下来是现场装配。在现有的装置中，部件可能在工厂预制，然后运输到现场进行组装。但随着装置规模的增大，现场的空间可能有限，导致装配难度增加。例如，ITER 的许多部件非常庞大，无法整体运输，必须在现场进行组装，这会增加装配的复杂性和所需的时间。另外，装配的精度也可能更高，因为大型装置对部件的位置和对齐要求更高，以确保等离子体的稳定性。
-在系统集成方面，大型聚变装置通常包含多个复杂的子系统，如磁约束系统、加热系统、冷却系统、诊断系统等。系统集成意味着这些子系统需要在统一的控制和协调下工作。对于中小型装置，可能每个子系统的规模较小，集成相对容易。但对于像 ITER 这样的大型装置，系统集成的复杂性大大增加，需要确保所有子系统之间的兼容性和协调性，这对控制系统的可靠性和稳定性提出了更高的要求。此外，系统的复杂性也增加了故障排查和维护的难度。
-项目管理方面，大型项目往往涉及更多的参与方，包括国际合作、多国政府和企业的参与。例如，ITER 项目是一个国际大科学工程，参与的国家有欧盟、中国、美国、俄罗斯、日本、韩国和印度。这可能导致项目管理的复杂性，因为需要协调不同国家的利益和资源，处理跨国界的物流、法规和沟通问题。此外，大型项目的工期通常较长，可能面临预算超支、进度延迟等问题，这需要项目管理者具备更高的协调和管理能力，以及应对各种风险的能力。
-除了上述四个方面，我可能还需要考虑其他相关的挑战，例如：
-1. **材料供应和成本**：制造大型聚变装置所需的材料，如超导材料、耐高温材料、高纯度材料等，可能面临供应不足或成本过高的问题。
-2. **热和粒子流管理**：在大型装置中，等离子体的热负荷和粒子流可能会更大，如何有效管理这些热负荷，防止材料损坏，是一个重要挑战。
-3. **等离子体控制和稳定性**：随着装置规模的增大，等离子体的行为可能会更加复杂，控制其稳定性以实现稳定的聚变反应变得更加困难。
-4. **诊断和测量技术**：在大型装置中，诊断和测量系统需要更高的精度和更快的响应速度，以实时监测等离子体的状态，并提供必要的反馈控制。
-5. **维护和可访问性**：大型装置在运行中可能会出现故障，如何设计装置以方便维护，提高可访问性，也是一个重要的考虑因素。
-6. **国际合作与知识共享**：大型聚变项目通常是国际合作的结果，如何促进知识共享，确保技术的有效传递，也是一个挑战。
-综合以上思考，我觉得需要按照用户提供的结构来组织答案。首先给出核心结论，然后分别从背景与概念、挑战分析、工程或实验意义等方面详细展开。
-现在，我需要将这些思考整理成一个结构化的答案，确保每个部分都涵盖到位，并且符合用户的要求。例如，核心结论要简明扼要，背景与概念要清晰明了，挑战分析要详细，每个方面都要有具体的例子或说明，工程或实验意义要具体指出解决方案或启示，比较与拓展部分则可以探讨不同的应对策略及其优缺点。
-在写作过程中，我还需要注意使用正确的术语和符号，确保单位的一致性，必要时引用相关的方程或原理，但不要过于复杂，以免影响读者的理解。
-最后，要点总结部分要再次强调最重要的结论和建议，确保读者能够迅速抓住重点。
-&lt;/think&gt;
-### 工程放大挑战
+          <t>### 工程放大挑战
 从现有的中小型聚变装置到ITER，再到未来的DEMO电站，装置规模和复杂性的急剧增长带来了显著的工程放大挑战。以下是主要的挑战及其影响：
 #### 1. 部件制造
 - **挑战**：制造大型复杂部件，如超导磁体、真空容器等，面临材料供应、制造精度和成本的难题。需要开发新的制造技术和材料。
@@ -2750,7 +2426,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -2776,16 +2452,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，用户问的是聚变堆的总体布局和系统集成需要考虑哪些关键因素，比如磁体、真空、冷却、加热、诊断、燃料循环、遥操作这些子系统之间的接口设计、空间分配和维护通道预留。
-首先，我得回忆一下聚变堆的基本结构和各系统的功能。托卡马克装置是最常见的，主要由磁体系统、真空室、加热系统、冷却系统、诊断系统、燃料循环系统和维护系统组成。每个系统都有各自的需求，所以集成起来要考虑它们之间的相互影响。
-核心结论肯定是系统之间的接口设计、空间布局、维护通道，以及兼容性与安全性这些方面。背景部分要详细说明每个子系统的作用和它们之间的关系。
-接下来，考虑各系统的空间需求。磁体系统特别是超导磁体占据很大空间，必须合理摆放。真空室则需要足够大的空间让等离子体运行，同时还要容纳内部组件。子系统如加热器和诊断设备通常安装在真空室周围，这样既方便操作又不会影响等离子体。
-然后是接口设计，这涉及到不同系统的连接，比如冷却系统需要为磁体和其他设备提供足够的冷却，同时接口不能影响其他系统的运行。诊断系统需要实时监测，所以传感器的布置和信号传输都要仔细考虑，避免干扰。
-维护通道方面，考虑到聚变堆的高辐射环境，维护人员无法直接接触，必须预留足够的通道和空间，让遥操作机器人能够进行维修和更换部件。空间分配必须合理，确保各系统不会互相阻碍，同时留有足够的维护空间。
-安全性和兼容性也是关键因素，各系统需要协同工作，确保在任何情况下都不会发生故障，影响整个装置的安全运行。例如，冷却系统如果出现问题，可能会导致磁体过热，进而影响整个装置的稳定性。
-最后，总结一下，系统集成需要综合考虑空间、接口、维护、安全等因素，确保各个子系统能够协同工作，提高聚变堆的整体性能和可靠性。
-&lt;/think&gt;
-### 聚变堆的总体布局和系统集成关键因素
+          <t>### 聚变堆的总体布局和系统集成关键因素
 #### **1. 核心结论**
 聚变堆的总体布局和系统集成需要综合考虑各子系统（磁体、真空、冷却、加热、诊断等）的空间需求、功能兼容性以及安全性，确保系统间的高效协同与维护便利性。
 ---
@@ -2843,7 +2510,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -2869,15 +2536,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答的问题是关于ITER偏滤器部件的制造和测试过程，特别是钨/铜等离子体面向部件（PFCs）如何与冷却结构键合，以及高热负荷测试设施（如GLADIS、Divertor Test Facility）在验证部件性能方面的作用。
-首先，我需要回忆一下ITER的背景。ITER是一个大型的托卡马克装置，目标是通过核聚变反应产生能量。偏滤器是托卡马克中的关键部件，用于排出等离子体中的杂质并控制粒子的流失。PFCs作为偏滤器的组成部分，直接面对高温等离子体，因此必须能够承受极高的热负荷。
-接下来，制造过程。PFCs由钨制成，因为它有很高的熔点，可以承受高温。然而，钨的导热性较差，所以需要将其与铜这样的高导热材料结合起来，以有效地将热量传递到冷却回路中。键合的方式可能包括钎焊或扩散焊。钎焊使用一种熔点低于基材的焊料，能够在不熔化基材的情况下连接它们。扩散焊则通过在高温和压力下，使原子在两材料间扩散，形成冶金结合。
-然后是测试设施，如GLADIS和Divertor Test Facility。这些设施用来模拟ITER中的热负荷条件，测试PFCs在高热流下的性能。测试内容可能包括热循环测试，检查材料在多次加热和冷却中的反应，以及热震测试，模拟突然的温度变化对材料的影响。此外，还可能进行高温下的力学性能测试，以确保材料在极端条件下不会发生结构失效。
-在回答时，我需要分步骤详细解释每个部分，包括背景、制造过程、键合技术、测试设施的作用以及这些测试对装置设计的反馈。同时，要确保使用正确的物理概念和单位，保持语言的严谨性和专业性。
-可能会遇到的问题包括：不同键合技术的优缺点，不同测试设施的具体测试方法，以及测试结果如何反馈到制造工艺中。需要查阅相关资料，确保信息的准确性，避免错误。
-总之，我需要按照规范的结构，一步步展开，确保每个部分都清晰明了，符合用户的要求。
-&lt;/think&gt;
-### ITER偏滤器部件制造与测试过程
+          <t>### ITER偏滤器部件制造与测试过程
 #### 1. **核心结论**
 ITER的钨/铜等离子体面向部件（PFCs）通过钎焊或扩散焊与冷却结构键合，高热负荷测试设施如GLADIS和Divertor Test Facility通过模拟极端条件验证其热性能和可靠性。
 ---
@@ -2941,7 +2600,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2967,19 +2626,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好，我现在需要分析一下聚变堆内部件，比如包层模块和偏滤器盒的连接与固定技术。这个问题看起来涉及到结构强度、真空密封、冷却剂流通以及遥操作拆装等多个方面，得逐一考虑这些要求怎么权衡。
-首先，我得了解这些内部件在聚变堆中的作用。包层模块主要负责捕获中子并转化为有用的热能，同时保护结构免受中子辐照的影响。偏滤器盒则是在等离子体边缘，负责处理和控制杂质的进入，保持等离子体的纯洁性。这两部分都需要在极端环境下工作，比如高温、高辐射和强烈的电磁环境，所以它们的连接和固定技术至关重要。
-结构强度方面，这些部件可能会受到等离子体的热载荷、机械振动和电磁力的影响。连接必须足够稳固，避免在运行过程中出现松动或失效。这意味着材料的选择和连接方式的设计需要特别考虑强度和耐久性。
-真空密封也是必须满足的条件。聚变堆内部是一个高度真空的环境，以确保等离子体的稳定性和实验的准确性。任何泄漏都可能导致真空度下降，影响实验效果甚至损坏设备。因此，连接处必须具备良好的密封性能，可能需要采用特殊的密封材料或结构设计。
-冷却剂流通是另一个关键点。内部件通常需要复杂的冷却系统来带走热量，防止过热。这意味着连接处需要有足够的流道，并且不能阻碍冷却剂的流动，同时还要保证流道的密封性，防止泄漏。这可能涉及到流道的设计和材料的热导性能。
-遥操作拆装则是因为聚变堆内部环境恶劣，人类无法直接进入进行维护或更换部件。因此，连接设计必须支持远程操作，可能需要使用机械臂或其他自动化设备进行拆装。这要求连接装置具备易于操作的结构，可能包括快速连接和断开的功能，同时保证在操作过程中的稳定性和安全性。
-现在，我需要考虑如何在这些要求之间找到平衡。比如，高强度的连接方式可能会影响冷却剂的流通，或者使拆装变得困难。而过于注重拆装方便可能会降低连接的强度或密封性。所以，可能需要综合各种因素，采用一种折中的设计方案。
-一种可能的解决方案是使用模块化的连接方式，每个部件都是一个独立的模块，通过标准化的接口连接到主结构上。这样不仅便于拆装，还能在每个模块中集成必要的冷却系统和密封结构。同时，采用高强度的材料和可靠的连接技术，确保在运行过程中的安全性。
-此外，使用自动化和遥操作工具进行安装和拆卸，可以减少对连接结构本身的要求，但这也需要这些工具具备足够的精度和可靠性，以适应极端环境下的操作需求。
-在设计过程中，还需要进行充分的测试和验证，比如在模拟环境下测试连接处的强度、密封性和冷却性能，确保在实际运行中的表现符合预期。
-总的来说，这个问题需要在多个设计要求之间进行权衡，可能需要综合考虑材料选择、结构设计、连接技术以及自动化操作的可行性，才能找到一个最优的解决方案。
-&lt;/think&gt;
-### 聚变堆内部件连接与固定技术分析
+          <t>### 聚变堆内部件连接与固定技术分析
 1. **核心结论**  
    在聚变堆内部件的连接与固定设计中，需综合考虑结构强度、真空密封、冷却剂流通和遥操作拆装的要求，通常采用模块化设计和先进连接技术（如耐辐照钎焊与焊接），并通过严格测试确保各性能指标。
 2. **背景与概念**  
@@ -3011,7 +2658,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -3037,19 +2684,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我正在思考聚变堆的热室设施在部件维护、修理、测试和废物处理中的角色，以及设计时需要考虑的特殊要求。让我一步一步地理清楚这个问题。
-首先，热室是什么？热室（Hot Cell）是一种屏蔽设施，用于处理放射性物质。在聚变堆中，尤其是像托卡马克这样的装置，热室主要用于处理和维护那些暴露在强辐射环境下的部件。这些部件可能包括第一壁、偏滤器等，它们在运行过程中会受到高能中子和离子的轰击，导致活化和辐射。
-那么，热室在维护、修理和测试中的具体作用是什么呢？我想，远距离操作是非常重要的一部分。因为这些部件具有很高的辐射性，人员无法直接接触，必须使用遥控设备进行操作。此外，测试这些部件在极端条件下的性能也是热室的一个关键功能，比如高温、高真空和强辐射环境下的性能测试。
-废物处理方面，热室需要具备处理放射性废物的能力。这可能包括废物的包装、储存以及可能的再利用或处理。废物分类和安全处理是防止环境污染的重要环节。
-接下来，设计热室时需要考虑哪些特殊要求呢？首先是辐射屏蔽。热室必须有足够厚的屏蔽材料，以保护工作人员免受辐射的影响。常用的屏蔽材料包括混凝土、聚乙烯（因为它含有大量的氢原子，能有效屏蔽中子）和铅（用于屏蔽γ射线）。屏蔽设计需要根据预期的最大辐射剂量来计算，确保屏蔽的充分性。
-其次是三废处理。聚变堆运行中会产生废液、废气和固体废物。热室必须具备处理这些废物的系统，包括过滤、净化和安全储存。特别是废液和废气的处理，需要防止放射性物质外泄，影响环境和人员健康。
-遥操作兼容性也是设计中的重要部分。热室内需要有足够的空间和设施来容纳和操作各种遥控设备。这些设备必须能够在高温、高辐射的环境下稳定工作，同时保证操作的灵活性和精确性。遥操作系统的可靠性和易用性直接影响到维护和修理的效率。
-另外，远程监控和诊断系统也是必不可少的。通过摄像头、传感器和数据分析系统，工作人员可以在安全距离外实时监控热室内的操作和环境参数，确保一切运行正常。
-在规划热室的建设时，还需要考虑人员培训、应急响应以及长期维护和更新。热室是一个复杂的系统，需要专业的团队来操作和维护。定期的培训和演练可以提高团队的应急处理能力，确保在发生意外时能够迅速有效地采取措施。
-最后，安全性和可靠性是设计的核心。热室的安全系统必须能够预防和处理各种潜在的事故，如设备故障、辐射泄漏等。冗余设计和多重安全措施可以提高系统的可靠性，确保热室长期稳定运行。
-综上所述，热室在聚变堆的维护和废物处理中扮演着关键角色，其设计需要综合考虑辐射屏蔽、废物处理、遥操作兼容性以及安全性和可靠性等多个方面。通过科学的设计和先进的技术，热室能够有效地支持聚变堆的运行和维护，为未来的聚变能源开发提供坚实的基础。
-&lt;/think&gt;
-### 聚变堆热室设施的角色与设计要求
+          <t>### 聚变堆热室设施的角色与设计要求
 #### 1. 核心结论  
 热室是聚变堆中不可或缺的设施，用于处理放射性部件和废物，其设计必须考虑辐射屏蔽、废物处理和遥操作能力，以确保安全性和高效性。
 #### 2. 背景与概念  
@@ -3124,7 +2759,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3150,20 +2785,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在要比较分析MHD、回旋动理学和PIC这三种计算等离子体物理的方法。我对这些方法有一些基本的了解，但可能还不够深入，所以需要一步步来理清楚。
-首先，磁流体力学（MHD）是什么？我记得它是将等离子体视为流体来处理的，这可能忽略了微观粒子的运动。但这样的话，它处理的问题应该是在较大尺度上的，比如宏观流动和磁场的相互作用。MHD的模型可能包括连续性方程和磁动量方程，这些都是流体力学中的内容，加上磁效应的部分。
-接下来是回旋动理学（Gyrokinetics）。这个方法似乎更精细，因为它考虑到了粒子的回旋运动，但可能简化了其他运动，比如平行运动。这种方法可能适用于研究小尺度的湍流，比如聚变装置中的湍流输运。Gyrokinetics可能比MHD更详细，因为它考虑了微观粒子的行为，但又不像PIC那样完全追踪每个粒子。
-然后是粒子模拟（PIC）方法。这应该是直接追踪每个粒子的运动，计算它们之间的相互作用，比如库仑力，以及与电磁场的相互作用。PIC的优势在于它可以捕捉到非常微观的现象，比如粒子加速、碰撞等，但是计算量应该很大，因为它需要处理大量的粒子。
-现在，我需要从物理模型、数值算法、计算量需求、适用领域等方面来比较它们。
-在物理模型方面，MHD假设等离子体是连续流体，不考虑微观结构，适合处理大尺度的宏观现象。Gyrokinetics考虑了粒子的回旋运动，但忽略了平行方向的高频振荡，适用于中等尺度的问题，比如湍流。PIC则完全跟踪每个粒子的运动，适合微观现象，如碰撞、粒子加速。
-数值算法方面，MHD使用有限差分或有限元方法，求解偏微分方程组。Gyrokinetics使用回旋平均的方法，同样使用有限差分或谱方法。PIC则使用拉格朗日粒子追踪法，结合欧拉网格来计算电磁场，通常使用粒子推进和场推进交替进行的算法。
-计算量方面，MHD的计算量最小，因为它处理的是连续介质，网格数相对较少。Gyrokinetics的计算量介于两者之间，因为它需要处理更多的细节，但比PIC小很多。PIC的计算量最大，因为它需要处理大量的粒子和复杂的相互作用。
-适用领域方面，MHD适用于像磁 confinement 装置中的大尺度磁流体运动，如磁岛、磁重联等。Gyrokinetics适用于研究等离子体中的湍流、输运现象，如聚变装置中的能量输运。PIC适用于像高能粒子束、激光等离子体相互作用、粒子加速器等。
-可能我遗漏了一些点，比如MHD在处理流体运动时的一些假设，比如是否考虑动量交换，或者Gyrokinetics是否忽略了某些运动。另外，PIC在处理大量粒子时可能需要并行计算，这可能影响其适用性。
-总的来说，我需要将这些信息整理成结构化的比较，确保每个方面都有清晰的对比。可能还需要考虑每种方法的优缺点，比如MHD计算速度快，但不够精确；PIC精度高，但计算资源消耗大。
-现在，我应该按照用户的要求，用规范的中文输出答案，分点说明每个方面。同时，保持客观和严谨，不遗漏任何关键点。
-&lt;/think&gt;
-### 比较分析磁流体力学（MHD）、回旋动理学（Gyrokinetics）和粒子模拟（PIC）
+          <t>### 比较分析磁流体力学（MHD）、回旋动理学（Gyrokinetics）和粒子模拟（PIC）
 #### 1. 物理模型
 - **MHD**：将等离子体视为连续流体，忽略微观粒子运动，适合大尺度宏观现象，如磁 confinement 中的磁流体运动。
 - **Gyrokinetics**：考虑粒子回旋运动，简化平行运动，适用于中等尺度的湍流和输运现象。
@@ -3186,7 +2808,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3212,15 +2834,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答用户关于主流MHD模拟程序的问题。用户提到了NIMROD、JOREK和M3D-C1，还问它们的特点以及在聚变等离子体稳定性研究中的应用实例。首先，我得回忆一下这些程序的基本情况。
-我记得NIMROD是基于笛卡尔网格的，这可能让它在处理复杂几何结构时有优势。JOREK使用磁面网格，适合研究不稳定性如破裂和ELMs。M3D-C1是三维谱元素法，可能更适用于三维等离子体问题。
-接下来，用户问到了每个程序的特点。NIMROD应该是高分辨率，适合处理稳态和极端条件，比如边界层和破裂。JOREK有非线性MHD模型，能够预测破裂和ELMs，并且可以与实验数据结合。M3D-C1有混合电磁模型，能高效处理大范围问题，适用于长时间运行和三维效应分析。
-然后是应用实例。NIMROD在DIII-D的破裂机制研究中可能被用来模拟破裂引发的MHD不稳定性。JOREK被用于验证预测ELMs的模型，并与ITER的实验数据对比。M3D-C1可能分析了 Wendelstein 7-X中的三维MHD不稳定性，并为ITER的运行提供优化建议。
-用户的问题还涉及工程或实验意义，所以每个程序的应用必须体现对装置设计或运行的指导。比如，JOREK帮助改进破裂控制策略，M3D-C1提供极端条件下的材料要求。
-最后，比较与拓展部分，需要指出每个程序的优缺点和适用条件，比如NIMROD适合极端条件，JOREK适合破裂预测，M3D-C1适合三维效应。
-总结一下，我需要按照用户的要求，分点列出每个程序的背景、特点、应用实例、工程意义，并在最后进行比较和总结。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 JOREK是一种广泛应用于聚变等离子体稳定性和MHD研究的主流程序，具有非线性MHD模型、高分辨率和磁面网格特点，成功模拟了托卡马克中的破裂和ELMs现象。
 ---
 ### 2. 背景与概念  
@@ -3255,7 +2869,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -3281,15 +2895,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于回旋动理学模拟在研究等离子体微观湍流和反常输运方面的问题，以及计算量的估算和高性能计算依赖性的解释。
-首先，回旋动理学模拟，比如GENE程序，是用来处理等离子体中的微观湍流和反常输运的。我记得动理学模拟考虑了粒子的分布函数，而不是流体模型那样用平均值。所以，GENE这样的程序应该能够捕捉到更精细的湍流结构，比如动理学不稳定性，这些对输运有很大影响。
-接下来是计算量的估算。问题中提到的是一个5D的模拟，包括3个空间维度和2个速度维度，每个维度有N个网格点，时间上有Nt步。那么，计算量的标度关系是怎么样的呢？
-首先，空间维度是3D，所以空间网格点的数量是N^3。速度维度是2D，也就是N^2。所以总的网格点数应该是空间和速度的乘积，也就是N^3 * N^2 = N^5。然后，时间步数是Nt，所以总的计算量应该是与N^5 * Nt成正比的。
-这样，计算量的标度关系就是O(N^5 * Nt)。这意味着随着网格点数和时间步数的增加，计算量增长得非常快，这也就是为什么需要高性能计算的原因。现代超级计算机能够处理这些大规模的并行计算，因此高性能计算对这类模拟至关重要。
-再想一下，是否有其他因素需要考虑，比如时间步长的限制或者其他计算复杂度。一般来说，动理学模拟的时间步长受到 Courant-Friedrichs-Lewy（CFL）条件的限制，所以Nt可能与问题的时间尺度有关。但这不影响总体的标度关系，还是O(N^5 * Nt)。
-总结一下，回旋动理学模拟在捕捉微观湍流方面的作用很大，而计算量随N^5和Nt线性增长，因此需要高性能计算的支持。
-&lt;/think&gt;
-### 回旋动理学模拟的核心作用
+          <t>### 回旋动理学模拟的核心作用
 **核心结论**：回旋动理学模拟（如GENE程序）在研究等离子体微观湍流和反常输运方面起到了关键作用，能够捕捉到粒子尺度的复杂动态行为，揭示湍流驱动的反常输运机制。
 **背景与概念**  
 回旋动理学模拟是研究高温等离子体中微观湍流和反常输运的重要工具。它基于动理学方程（如Vlasov方程），考虑了粒子在相空间中的分布函数，能够捕捉到由离子回旋运动和漂移运动引起的微湍流结构及其输运效应。在托卡马克等聚变装置中，微观湍流是导致能量和粒子反常输运的主要机制，直接影响装置的稳定性和能量 confinement。
@@ -3318,7 +2924,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -3344,19 +2950,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，我现在得回答这个问题，高性能计算（HPC）的进步，特别是exascale计算，如何推动聚变等离子体模拟能力的发展，特别是在更高保真度、更大规模、更长时间尺度的多物理场耦合模拟方面。作为一个刚接触这个领域的新手，我得先理清楚这些概念和它们之间的联系。
-首先，高性能计算（HPC）是什么？我知道HPC是指使用超级计算机来处理复杂的计算任务。exascale计算则是指每秒可以执行百亿亿次运算的计算能力，这比以前的计算能力有了很大的提升。这对于科学模拟来说非常重要，尤其是在聚变等离子体的研究中。
-聚变等离子体模拟需要考虑许多复杂的物理现象，比如磁流体力学（MHD）、粒子输运、辐射、电磁波效应等等。这些现象需要在不同的空间和时间尺度上进行建模，而且它们之间相互耦合，这就需要同时进行多物理场的模拟。例如，托卡马克装置中的等离子体不仅受到磁场的约束，还涉及到热传导、粒子运动以及可能的不稳定性，如湍流。
-更高的保真度意味着模拟更接近真实情况，这需要更精细的网格分辨率和更准确的物理模型。而更大的规模可能指的是模拟更大的系统，比如整个托卡马克装置，或者更长的时间尺度，以观察等离子体在较长时间内的行为。
-那么，exascale计算如何帮助实现这些呢？更高的计算能力意味着可以在更短的时间内完成更复杂的模拟任务。比如，之前可能需要几天甚至几周才能完成的模拟，现在可能只需要几小时或几天。这不仅提高了研究的效率，还允许科学家们进行更多次的模拟，从而更深入地理解等离子体的行为。
-在多物理场耦合方面，exascale计算提供了足够的资源来同时处理多个相互作用的物理过程。这可能涉及到使用更复杂的算法和并行计算技术，以便在多个处理器上同时运行不同的物理模型，从而提高模拟的整体准确性和效率。
-另外，HPC的进步还可能带来更好的诊断和预测能力。通过更详细的模拟，科学家们可以更准确地预测聚变装置的性能，从而优化设计和运行参数。这在实际的聚变能研究中是非常有价值的，因为它可以直接影响到ITER等大型装置的性能。
-我还记得，HPC的发展不仅仅是计算能力的提升，还包括存储、数据处理和可视化技术的进步。这些都会对聚变等离子体模拟产生积极的影响。例如，更高效的存储系统可以让研究人员处理和存储更大的数据集，而改进的数据处理技术则可以更快地分析和解读这些数据。
-不过，我也在想，exascale计算虽然强大，但并不是万能的。它仍然需要依赖准确的物理模型和有效的算法。如果模型本身不够准确，那么即使计算能力再强，得到的结果也可能不准确。因此，模型的开发和验证仍然是一个重要的研究领域。
-此外，exascale计算的引入可能会带来新的挑战，比如如何有效地管理并行计算中的资源分配，如何处理大量的数据流，以及如何确保计算的稳定性和可靠性。这些都是需要在实际应用中不断探索和解决的问题。
-总的来说，HPC的进步，特别是exascale计算，将在聚变等离子体模拟中发挥关键作用。它将允许科学家们进行更高保真度、更大规模和更长时间尺度的多物理场耦合模拟，从而更深入地理解聚变等离子体的行为，优化聚变装置的设计，并加速聚变能的实现。
-&lt;/think&gt;
-高性能计算（HPC）的进步，特别是exascale计算，将在聚变等离子体模拟中发挥关键作用。它将显著提升模拟的保真度、规模和时间尺度，同时增强多物理场耦合的能力。以下是对这一影响的详细分析：
+          <t>高性能计算（HPC）的进步，特别是exascale计算，将在聚变等离子体模拟中发挥关键作用。它将显著提升模拟的保真度、规模和时间尺度，同时增强多物理场耦合的能力。以下是对这一影响的详细分析：
 ### 核心结论
 高性能计算（HPC）的快速发展，尤其是exascale计算能力的提升，将极大推动聚变等离子体模拟能力的发展。具体而言，HPC的进步将实现以下目标：
 1. **更高保真度**：通过更精细的空间和时间分辨率，更准确地模拟复杂的物理现象。
@@ -3393,7 +2987,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -3419,16 +3013,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在要解释计算模型的验证（Verification）和确认（Validation）（V&amp;V）过程，以及它们在聚变研究中的重要性。然后，还要说明如何利用实验数据对复杂的等离子体模拟程序进行严格的V&amp;V。首先，我需要弄清楚V&amp;V的基本概念。
-验证（Verification）应该是检查代码是否正确实现了预期的数学模型，也就是说，程序的计算是否正确。这可能包括检查数值方法是否正确，是否存在编程错误等。确认（Validation）则是检查模型本身是否正确地描述了真实现象，也就是模型是否准确。
-在聚变研究中，尤其是托卡马克装置中，等离子体模拟非常复杂。涉及到的物理过程包括磁流体力学（MHD）、热传导、粒子输运、射频加热等等。这些过程往往涉及到多个时间尺度和空间尺度，所以建立准确的模型非常困难。而且，聚变实验通常成本高昂，运行时间有限，所以数值模拟就成了研究等离子体行为的重要手段。因此，V&amp;V就显得尤为重要，因为如果模型不准确，模拟结果可能会误导研究。
-接下来，如何利用实验数据进行V&amp;V呢？首先，验证部分可能需要使用已知解的问题，比如简化的等离子体问题，或者与其他可靠代码的结果进行比较。确认部分则需要将模拟结果与实际实验数据进行对比，比如温度分布、密度分布、约束时间等关键参数。
-在这个过程中，可能会遇到一些问题，比如实验数据的获取是否充分，是否涵盖了模型中的各个物理过程。此外，由于等离子体的高度非线性，不同的参数范围内模型可能表现不同，所以需要在多个实验条件下进行对比。这可能需要设计特定的实验来测试模型的特定方面。
-另外，敏感性分析也很重要。这可以通过改变模型中的参数，观察结果是否在合理的范围内变化，从而判断模型的鲁棒性。这在V&amp;V过程中是一个关键步骤，因为它可以帮助识别模型中的潜在问题。
-在实施V&amp;V的过程中，可能还需要进行多次迭代，因为每次对比都可能揭示模型的不足之处，从而需要调整模型或修正代码。因此，V&amp;V不仅仅是一个一次性的过程，而是一个持续改进模型和代码的过程。
-总结一下，V&amp;V在聚变研究中的重要性在于确保数值模拟的可靠性和准确性，从而支持实验设计和理论研究。通过严格的V&amp;V过程，可以提高模拟结果的可信度，进而促进聚变能源的发展。
-&lt;/think&gt;
-## 验证（Verification）和确认（Validation）（V&amp;V）过程及其在聚变研究中的重要性
+          <t>## 验证（Verification）和确认（Validation）（V&amp;V）过程及其在聚变研究中的重要性
 1. **核心结论**  
 计算模型的验证（Verification）和确认（Validation）（V&amp;V）是确保数值模拟准确性和可靠性的关键步骤，在聚变研究中至关重要，直接关系到模拟结果对实验设计和运行的指导价值。
 2. **背景与概念**  
@@ -3489,7 +3074,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -3515,16 +3100,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在需要讨论人工智能（AI）和机器学习（ML）在加速聚变等离子体模拟和实时控制中的应用潜力和进展。首先，我得理解什么是聚变等离子体模拟和实时控制。聚变等离子体模拟涉及到复杂的物理过程，比如高温高压下的等离子体行为，这需要高性能计算来处理。而实时控制则是在聚变装置运行时，快速调整参数以维持稳定，防止破裂等不稳定现象。
-AI和ML如何应用在这两个领域呢？在模拟方面，构建代理模型可能是关键。代理模型是一种替代真实模型的简化的预测工具，可以快速给出结果，而不需要完整的物理计算。这对于参数优化来说非常重要，因为优化过程需要多次评估不同参数组合，使用代理模型可以节省大量计算时间。
-参数优化方面，AI和ML可以用来寻找最佳的操作参数，比如磁场强度、加热功率等，以提高聚变反应的效率和稳定性。同时，ML算法还可以分析大量的实验数据，发现隐藏的模式和关系，帮助物理学家更好地理解等离子体的行为。
-在实时控制方面，AI和ML可以用来预测和预防等离子体破裂。例如，使用时间序列预测模型，分析等离子体的状态参数，预测可能的破裂事件，提前调整控制参数。此外，ML还可以用于实时调整和控制等离子体的稳定性，比如调整磁场线圈的电流，以抑制不稳定性。
-现有的进展有哪些呢？在模拟方面，已经有一些研究使用ML来构建代理模型，例如卷积神经网络（CNN）或循环神经网络（RNN）来模拟等离子体的演化。这些模型在计算速度上比传统的物理模拟快得多，适用于参数优化和设计空间探索。在实时控制方面，已经有ML算法被集成到聚变装置的控制系统中，用于实时监控和调整，比如欧洲聚变堆JET和国际热核聚变实验堆ITER。
-然而，这些应用还面临一些挑战。首先，AI和ML模型需要大量的高质量数据进行训练，而在聚变实验中，这样的数据可能有限，或者成本高昂。其次，模型的可解释性和物理一致性也是一个问题，因为物理学家需要理解模型的决策过程，而不仅仅是结果。此外，实时控制需要极低的延迟和高可靠性，这对ML算法的实时性和鲁棒性提出了很高的要求。
-未来的发展方向可能包括开发更高效的数据采集和处理方法，提升模型的可解释性，以及在实际聚变装置中进行更多的实验验证。跨学科的合作也将是关键，需要物理学家、计算机科学家和工程师共同努力，推动AI和ML在聚变能领域的应用。
-总的来说，AI和ML在聚变等离子体模拟和实时控制中展现出了巨大的潜力，已经在一些领域取得了初步的进展，但仍有许多挑战需要克服，未来的发展需要多方面的努力和合作。
-&lt;/think&gt;
-## 人工智能与机器学习在聚变等离子体中的应用探讨
+          <t>## 人工智能与机器学习在聚变等离子体中的应用探讨
 ### 核心结论
 人工智能（AI）和机器学习（ML）在聚变等离子体模拟和实时控制中展现出巨大潜力，特别是在构建代理模型、参数优化、破裂预测和不稳定性控制方面，已取得显著进展。
 ### 背景与概念
@@ -3546,7 +3122,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -3572,20 +3148,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好，我现在要回答用户关于多尺度、多物理场集成建模的问题，特别是以托卡马克芯部等离子体与边界/偏滤器等离子体的耦合为例。首先，我需要理解用户的问题，然后按照他们提供的结构来组织回答。
-用户的问题分为几个部分：什么是多尺度、多物理场集成建模，以及实现这种集成建模面临的挑战和解决方案。因此，我需要先解释核心概念，然后分析挑战和解决方案。
-首先，核心结论。多尺度、多物理场集成建模是指在不同空间和时间尺度上，以及多个物理过程之间建立联系，通过相互作用来预测系统行为。这个概念适用于托卡马克中的不同区域。
-接下来是背景与概念部分。我需要定义多尺度和多物理场，以及托卡马克中的不同区域。芯部等离子体和边界/偏滤器等离子体分别涉及不同的物理过程，如磁流体力学（MHD）和中性气体流动等。
-然后是原理与推导。这里需要详细说明芯部等离子体和边界/偏滤器各自的关键物理过程，以及它们之间的相互作用。比如，芯部的高能粒子可能通过热传导影响边界，而边界可能通过气流反馈到芯部。
-接着是定量估算或示例。这部分可能需要具体的参数，比如温度、密度、边界层厚度等，但用户的问题中没有给出具体数值，所以可能需要使用典型参数区间来说明。
-工程或实验意义部分，要说明这种建模对装置设计和运行的影响。比如，通过建模可以优化边界设计，减少热负荷，提高整体性能。
-比较与拓展部分，可以讨论不同的建模方法，如全耦合和松耦合方法，各自的优缺点，以及适用条件。
-最后，要点总结，用简短的话重申最重要的信息。
-在写作过程中，要注意使用清晰的小标题，方便阅读。同时，要确保方程的正确使用，用LaTeX来表示，并标注各符号含义。单位要在首次出现时给出规范单位。
-另外，如果问题中的信息不足以得到唯一答案，我需要先阐明必要的假设，或者指出需要进一步的信息。保持严谨和客观，不输出未经验证的猜测。
-现在，按照上述结构，我可以逐步构建回答，确保每个部分都覆盖到位，逻辑清晰，易于理解。
-&lt;/think&gt;
-### 多尺度、多物理场集成建模
+          <t>### 多尺度、多物理场集成建模
 #### 1. **核心结论**
 多尺度、多物理场集成建模是将不同空间尺度和物理过程相互作用的系统建模方法，用于预测复杂系统的整体行为，特别适用于托卡马克中芯部与边界等离子体的耦合。
 #### 2. **背景与概念**
@@ -3632,7 +3195,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -3658,19 +3221,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论模拟等离子体与壁相互作用（PMI）的计算方法，特别是分子动力学（MD）、二元碰撞近似（BCA）以及流体/动理学耦合模型。我得先理解这些模型是如何工作的，以及它们如何描述溅射、再沉积和表面演化的。
-首先，分子动力学（MD）听起来像是从原子层面模拟物质的行为。它应该能详细描述原子间的作用力，适用于非常小的系统，比如纳米尺度。但等离子体和壁的相互作用可能涉及更大的尺度，所以MD可能不太适合处理整个装置的情况。不过，MD可以在高温等离子体下模拟原子的运动，从而计算溅射的数量和再沉积的位置。
-然后是二元碰撞近似（BCA）。这个模型好像假设离子和表面的每次碰撞是独立的，不考虑其他原子的影响。这应该简化了计算，适用于低密度、低碰撞率的条件。但是，如果表面已经有较多沉积物，那么BCA可能无法准确描述多原子的相互作用，导致溅射的预测不够准确。BCA在单原子层面可能有效，但在实际装置中，情况可能更复杂。
-接下来是流体/动理学耦合模型。流体模型处理大尺度的物质流动，而动理学模型则考虑粒子的分布和运动。把这两个结合起来，可能同时捕捉宏观流动和微观粒子行为。这对于理解在大尺度下等离子体如何与壁相互作用很有帮助，但可能需要大量计算资源，尤其是在处理复杂的边界条件时。
-溅射、再沉积和表面演化这三个过程都需要被模型准确描述。溅射是指等离子体中的高能粒子撞击壁，导致壁材料原子被溅射出来。再沉积是这些溅射出来的原子重新附着在其他壁面上。表面演化则是指壁材料随着时间的推移而发生形貌变化，包括材料的损失和积累。
-MD在描述溅射时可能更精确，因为它考虑了原子间的相互作用。BCA则可能低估溅射的数量，因为它只考虑单次碰撞。流体/动理学模型可能在处理大规模的材料迁移时更有效，但可能无法捕捉到微观的溅射细节。
-再沉积方面，MD可以详细模拟原子重新附着的位置和角度，而BCA可能过于简化，无法捕捉到这些细节。流体模型可能更关注材料的整体分布，而不考虑单个原子的行为。
-表面演化在长期运行中很重要，可能影响装置的寿命和性能。MD和BCA可能需要与其他模型结合，才能有效预测表面的长期变化。流体/动理学模型可能在这方面有优势，因为它们可以处理更大的时空尺度。
-我还需要考虑这些模型的适用范围和计算资源。MD适合小规模，高精度，但计算量大。BCA适用于低密度，计算速度快，但可能不够准确。流体/动理学模型适用于大规模，适合工程应用，但需要复杂的计算和假设。
-在实际应用中，可能需要结合多种模型。例如，使用MD研究关键区域的溅射，然后用流体模型预测材料的分布，最后用动理学模型调整参数。这种方法可以综合不同模型的优点，提高整体预测的准确性。
-总结一下，不同模型有不同的优势和局限，适用于不同的情况。MD适合微观、高精度；BCA适合低密度、快速计算；流体/动理学适合大规模、工程应用。在实际模拟中，可能需要结合这些模型，以全面理解PMI过程，并指导聚变装置的设计和运行。
-&lt;/think&gt;
-### 讨论用于模拟等离子体与壁相互作用（PMI）的计算方法
+          <t>### 讨论用于模拟等离子体与壁相互作用（PMI）的计算方法
 #### 1. **核心结论**
 分子动力学（MD）、二元碰撞近似（BCA）和流体/动理学耦合模型在模拟等离子体与壁相互作用（PMI）时各有优劣，适用于不同尺度和复杂度的情况。
 #### 2. **背景与概念**
@@ -3700,7 +3251,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -3726,19 +3277,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好的，我现在需要回答用户的问题：如何利用计算模拟工具进行聚变装置（如仿星器磁体、偏滤器几何）的设计优化？特别是如何通过参数扫描和优化算法寻找满足物理和工程约束的最优设计。这个问题涉及聚变装置的设计优化方法，需要详细阐述计算模拟工具在其中的作用。
-首先，我应该明确问题的核心，即设计优化的过程和方法。用户可能是一位从事聚变能源研究的工程师或物理学家，他们可能正在寻找提高装置性能的方法，尤其是在仿星器和偏滤器设计方面。用户需要具体的步骤和方法，以帮助他们优化设计，满足各种约束条件。
-接下来，我应该分解问题。设计优化通常包括以下几个步骤：明确目标和约束，建立物理模型，生成设计变量，进行仿真计算，评估和优化，最后验证结果。每个步骤都需要详细解释，并给出可能的方法和工具。
-在背景部分，我需要解释为什么设计优化在聚变装置中很重要，以及计算模拟工具的作用。这可能包括提到仿星器和偏滤器的设计挑战，以及多物理场仿真工具如磁流体力学（MHD）、等离子体输运和热负荷分析的必要性。
-在原理与推导部分，我应该详细描述参数扫描和优化算法的原理。参数扫描可以帮助生成设计空间的样本，而优化算法（如遗传算法、粒子群优化）则可以寻找最优解。这里需要解释每种算法的基本思想和应用场景，以及它们如何帮助设计优化。
-对于定量估算或示例，我可以给出一个简化的例子，比如在仿星器磁体设计中，如何通过改变电流密度分布来优化磁场强度和均匀性。这可能涉及到一些假设，比如电流密度的范围和均匀性标准，然后通过仿真计算得出最优解。
-在工程或实验意义部分，我需要说明优化结果如何应用于实际设计，比如提高装置性能、延长寿命或降低成本。例如，优化后的偏滤器设计可以减少热负荷，从而延长材料寿命，这对实验运行非常重要。
-比较与拓展部分，我可以讨论不同的优化算法，比如梯度下降法和遗传算法的优缺点。梯度下降法可能在凸优化问题中表现良好，而遗传算法在处理复杂非线性问题时更有优势。此外，多目标优化方法可以帮助在性能和成本之间找到平衡。
-最后，要点总结部分，我需要重申设计优化的关键点，包括明确目标、选择合适的算法、进行多物理场仿真，以及平衡性能与成本。
-在思考过程中，我可能会遇到一些疑问，比如如何处理多个物理场之间的相互影响，或者如何选择最优的算法参数。我需要确保在回答中涵盖这些方面，或者指出进一步需要的信息。此外，我需要确保语言的准确性和专业性，同时保持清晰易懂，避免使用过于复杂的术语，除非必要。
-总的来说，我的回答需要结构清晰，涵盖问题的各个方面，提供具体的例子和方法，帮助用户理解如何利用计算模拟工具进行设计优化。同时，我需要确保每个部分都符合用户指定的答题规范，使用适当的标题和格式，方便用户快速阅读和理解。
-&lt;/think&gt;
-### 如何利用计算模拟工具进行聚变装置设计优化？
+          <t>### 如何利用计算模拟工具进行聚变装置设计优化？
 #### 1. 核心结论  
 通过参数扫描和优化算法，结合多物理场仿真工具，可以在满足物理和工程约束的条件下，寻找聚变装置（如仿星器磁体、偏滤器几何）的最优设计。
 ---
@@ -3796,7 +3335,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -3822,16 +3361,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我需要回答关于大规模聚变等离子体模拟的数据管理、可视化和后处理面临的挑战，以及如何有效提取有用的物理信息。首先，我得理解问题的主要方面。
-数据管理方面，聚变模拟会产生海量数据，这可能包括多维网格、时间序列等。处理这些数据需要高效的存储和管理系统，否则数据可能会占据过多的存储空间，影响处理速度。另外，数据的一致性和完整性也需要考虑，避免数据损坏或丢失。
-可视化方面，聚变等离子体的模拟数据通常非常复杂，可能涉及三维空间和多个物理量，如温度、密度、磁场等。直接将这些数据可视化可能会面临计算资源的限制，因为三维渲染需要大量的计算资源。此外，用户可能需要交互式地探索数据，这对于实时反馈来说是一个挑战。
-后处理方面，从海量数据中提取有用信息需要有效的分析工具和算法。这可能包括统计分析、模式识别、机器学习等技术。另外，如何自动化这些过程也是一个问题，因为人工处理海量数据是不现实的。
-接下来，如何有效地从数据中提取物理信息呢？可能需要使用机器学习或数据挖掘技术，这些方法可以从大量数据中发现潜在的模式和关联。此外，开发高效的算法和工具，能够自动化数据分析过程，也是关键。
-我还需要考虑这些挑战在实际应用中的具体影响，比如计算资源的限制、数据传输和存储的瓶颈等。此外，团队协作和数据共享也是一个方面，如何确保不同研究者能够方便地访问和处理数据，也是一个需要考虑的问题。
-可能的解决方案包括采用分布式存储系统，如Hadoop或云存储，来处理海量数据。在可视化方面，可以使用并行渲染技术，将任务分配到多个计算节点上，提高渲染速度。后处理方面，可以开发专门的分析工具，结合聚变物理的知识，设计针对性的算法，以提取有用的物理信息。
-总的来说，大规模聚变等离子体模拟的数据管理、可视化和后处理需要综合运用多种技术和方法，从存储、计算、分析等多个方面进行优化，以应对海量数据带来的挑战。
-&lt;/think&gt;
-在进行大规模聚变等离子体模拟时，数据管理、可视化和后处理面临以下挑战：
+          <t>在进行大规模聚变等离子体模拟时，数据管理、可视化和后处理面临以下挑战：
 1. **数据管理的挑战**
    - **数据量庞大**：模拟会产生海量多维数据，存储和管理成为难题。
    - **数据多样性**：数据包括多种物理量和时间序列，处理复杂。
@@ -3918,7 +3448,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3944,15 +3474,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好吧，我现在要详细分析p-¹¹B聚变相对于D-T聚变在燃料特性、反应产物、中子产生、材料活化和潜在能量转换方式方面的主要优势，并解释为什么p-¹¹B被认为是“清洁”的聚变燃料。作为一个刚接触聚变能的人，我得慢慢理清楚这些概念。
-首先，燃料特性。D-T聚变使用的是氘和氚，这两种都是氢的同位素。氘在自然界中相对丰富，主要在海水中存在。氚则比较稀有，通常需要在反应堆中通过锂的中子辐照来生产。而p-¹¹B聚变用的是质子（也就是普通的氢核）和硼-11。质子在自然界中非常多，当然，氢是普遍存在的。硼-11则在天然硼中占比约80%，硼在地壳中也相对丰富，所以燃料来源上，p-¹¹B可能比D-T更可持续，因为不需要制造氚。
-接下来是反应产物。D-T聚变的主反应会产生氦-4和中子，这是一个强中子发射源。这带来了材料辐照和活化的问题，同时中子也会导致核废料的产生。而p-¹¹B聚变的产物主要是三种氦核（α粒子），或者有时候可能有一些其他产物，但相对来说中子产量非常低，甚至几乎没有。所以中子的问题在这里被大大减少，这对反应堆的材料和安全是非常有利的。
-然后是中子产生。D-T反应释放大量中子，每聚变反应平均释放一个中子，而p-¹¹B反应几乎不释放中子。这意味着使用p-¹¹B燃料的聚变装置不会面临同样严重的中子辐照和材料活化问题，从而减少了核废料的产生，延长了材料的使用寿命，并简化了屏蔽设计。
-材料活化方面，D-T反应产生的大量中子会导致反应堆材料和结构部件发生辐照损伤，甚至产生放射性废物。而p-¹¹B由于几乎不产生中子，材料活化问题得到显著缓解，这大大减少了维护成本和辐射风险，使得聚变装置更加环保和安全。
-在潜在能量转换方式上，D-T反应的中子能量高，使得热转换效率可能受限，因为大量的能量可能以中子形式损失。而p-¹¹B反应的产物是α粒子，能量较低，更容易通过电磁感应等方式直接转换为电能，这可能提高整体的能量转换效率，降低复杂性。
-总结一下，p-¹¹B之所以被认为是清洁的聚变燃料，主要因为它几乎不产生中子，减少了放射性废物和材料辐照的问题，同时燃料来源丰富，产物简单，能量转换效率更高，更加环保和安全。虽然现在p-¹¹B聚变面临一些技术挑战，比如高温和高密度的等离子体要求，但一旦克服，它将是一种非常理想的聚变能源方案。
-&lt;/think&gt;
-p-¹¹B聚变相对于D-T聚变的主要优势及其被视为“清洁”的原因如下：
+          <t>p-¹¹B聚变相对于D-T聚变的主要优势及其被视为“清洁”的原因如下：
 1. **燃料特性**  
    - **D-T聚变**：使用氘和氚，氘在海水中丰富，但氚需通过锂中子辐照生产，供应有限且放射性。
    - **p-¹¹B聚变**：使用质子和硼-11，两者均在自然界中丰富，无需合成，更具可持续性。
@@ -3974,7 +3496,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -4000,30 +3522,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在要解决的问题是关于p-¹¹B聚变的轫致辐射功率密度和聚变功率密度的比值。首先，我需要理解问题中的各个参数和概念。
-问题中提到，p-¹¹B聚变的理想点火温度Ti约为300 keV。等离子体的密度ne≈6nB，其中硼离子的电荷Z=5，质子和硼离子的比例是1:1，准中性。电子温度Te等于Ti，都是300 keV。
-首先，我需要找出轫致辐射功率密度PBrem和聚变功率密度Pfus的表达式，然后计算它们的比值，并讨论为什么这个比值对p-¹¹B聚变构成严峻挑战。
-首先，关于聚变功率密度Pfus。聚变反应的速率通常用⟨σv⟩表示，这是一个反应速率参数，结合了截面σ和相对速度v。对于p-¹¹B反应，Pfus应该是正比于n_p * n_B * ⟨σv⟩_pB，其中n_p和n_B分别是质子和硼离子的密度。因为质子和硼的比例是1:1，所以n_p≈n_B，因此Pfus≈n^2 * ⟨σv⟩_pB。
-接下来是轫致辐射功率密度PBrem。轫致辐射，也称为制动辐射，是由高速电子在等离子体中被离子电场减速时发出的X射线辐射。其功率密度与电子温度、离子密度和离子的电荷有关。一般来说，轫致辐射的功率密度PBrem可以表示为n_e * Z^2 * T_e^(3/2) *一些常数系数，或者更准确地说，通常会有一个系数η，所以PBrem≈η * n_e * Z^2 * T_e^(3/2)。
-现在，我需要计算PBrem和Pfus的比值。首先，把两者的表达式写出来：
-Pfus ≈ n^2 * ⟨σv⟩_pB
-PBrem ≈ η * n_e * Z^2 * T_e^(3/2)
-因为问题中给出ne≈6nB，而n_p=n_B=n，所以n_e≈6n。
-因此，PBrem≈η * 6n * Z^2 * (300 keV)^(3/2)
-然后，Pfus≈n^2 * ⟨σv⟩_pB
-那么比值PBrem/Pfus≈ (η * 6n * Z^2 * T_e^(3/2)) / (n^2 * ⟨σv⟩_pB) )= (6η Z^2 T_e^(3/2)) / (n ⟨σv⟩_pB )
-但这里可能需要更准确地处理量纲。另外，还需要考虑电子温度和离子温度相等，都是300 keV。而聚变反应速率⟨σv⟩通常与温度有关，比如对于p-¹¹B反应，⟨σv⟩可能随温度变化，但具体如何变化可能需要查阅相关数据或近似式。
-接下来，讨论这个比值为什么对p-¹¹B聚变构成严峻挑战。可能是因为对于p-¹¹B聚变，所需的点火温度非常高，而在这个温度下，电子温度很高，导致轫致辐射损失很大，而聚变增益可能不够高，导致净能量增益难以实现。
-或者，可能是因为p-¹¹B反应的反应速率较低，或者所需的温度很高，导致轫致辐射损失相对于聚变功率密度很大，从而降低了整体的能量效率，使得实现聚变点火或自持燃烧变得困难。
-在推导过程中，我需要确保单位的一致性和正确性，同时明确每个参数的含义和来源。此外，可能需要查阅一些标准公式，例如轫致辐射的表达式和聚变反应速率的表达式，以确保推导的正确性。
-另外，可能需要进一步简化或近似，以得到一个表达式的比值，或者用典型参数进行估算，如给出η的具体值或⟨σv⟩_pB在300 keV时的典型值，以计算具体的数值比值。
-总的来说，步骤是：
-1. 写出Pfus和PBrem的表达式。
-2. 代入问题中的参数，如n_e=6n，Z=5，T_e=300 keV。
-3. 计算PBrem/Pfus的表达式。
-4. 讨论这个比值高的原因及其对p-¹¹B聚变的影响。
-&lt;/think&gt;
-对于p-¹¹B聚变的轫致辐射功率密度PBrem与聚变功率密度Pfus的比值及其对聚变挑战的影响，我们可以按照以下步骤进行分析：
+          <t>对于p-¹¹B聚变的轫致辐射功率密度PBrem与聚变功率密度Pfus的比值及其对聚变挑战的影响，我们可以按照以下步骤进行分析：
 ---
 ### **1. 聚变功率密度Pfus的表达式**
 聚变功率密度Pfus主要由反应速率决定，其表达式为：
@@ -4065,7 +3564,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -4091,19 +3590,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>好的，我需要帮助用户回答关于p-¹¹B等离子体中离子温度Ti和电子温度Te的关系对聚变功率和辐射损失的影响，以及为何通常需要维持Ti&gt;Te，以及实现这种非平衡态的挑战。
-首先，我得理解用户的需求。用户可能是一名聚变物理或工程的研究生或研究人员，对托卡马克装置有一定了解，但现在需要深入探讨温度不均衡的问题。
-用户的问题分为三部分：
-1. Ti与Te的关系对聚变功率和辐射损失的影响。
-2. 为何通常需要维持Ti&gt;Te。
-3. 实现并维持这种非平衡态面临的加热和约束挑战。
-首先，聚变功率主要与离子温度Ti有关，因为聚变反应率取决于离子的动能，而高温离子促进更高的反应速率。电子温度Te主要影响辐射损失，温度越高，辐射损失越大。因此，Ti&gt;Te有助于增加聚变功率，同时减少过多的辐射损失，保持能量平衡。
-其次，维持Ti&gt;Te的原因包括优化聚变效率和减少能量损失。高Ti促进聚变，而较低的Te减少辐射，因为辐射损失随Te^4增长。此外，在某些反应堆设计中，如托卡马克，需要优化加热方法，比如离子回旋加热或中性束注入，这些方法更高效地加热离子而非电子。
-第三部分，加热和约束的挑战。实现Ti&gt;Te需要选择性加热离子，这可能通过特定的加热技术，如离子回旋共振加热或中性束注入，但这些方法可能成本高或复杂。同时，维持这种温度梯度需要高度的等离子体约束，因为任何热传导或混合都可能导致温度平衡，进而影响聚变效率和能量损失。
-此外，还需要考虑加热效率和约束条件。例如，在托卡马克中，径向热传导可能导致Ti和Te趋于平衡，因此需要有效的磁约束来减少热损失。另外，高能量的离子可能会导致等离子体不稳定，如 Alfven 波或其他磁流体力学不稳定性，这可能会影响等离子体的稳定性，进而影响加热和约束效果。
-最后，我需要总结这些思考，形成一个清晰、有条理的回答，涵盖用户提出的所有问题，并确保每部分都详细解释，帮助用户全面理解这一复杂的问题。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 在 p-¹¹B 聚变等离子体中，维持离子温度（$T_i$）高于电子温度（$T_e$）可以有效提高聚变功率并减少辐射损失。然而，实现和维持这种温度非平衡态需要克服加热选择性和热传导的双重挑战。
 ---
 ### 背景与概念  
@@ -4157,7 +3644,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -4183,17 +3670,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，我现在需要解释α粒子通道效应的物理机制，以及它如何改善p-¹¹B聚变的能量经济性。首先，我得理解什么是α粒子通道效应。可能在托卡马克装置中，α粒子的行为受到某种控制或引导，从而影响聚变反应的能量输出。
-我记得在托卡马克中，等离子体被限制在环形磁容器中，而聚变反应产生的α粒子可能会对等离子体加热和整体性能产生影响。那么，通道效应可能是指这些α粒子以某种方式被引导或传输，而不是随机运动。这可能涉及到磁场配置，或者是某种波-粒子相互作用。
-接下来，我需要了解p-¹¹B聚变的特点。p-¹¹B聚变反应的产物是两个α粒子和两个中子吗？或者可能是一个较重的同位素？我需要确认这一点，可能会影响能量经济性。
-α粒子通道效应如何改善能量经济性呢？可能是因为它能够更有效地将α粒子的能量转化为有用的输出，比如直接用于加热燃料离子，从而减少能量损失，或者用于能量转换，如直接发电，减少中间转换环节的损失。
-可能的机制包括：通过磁场梯度引导α粒子沿着特定路径移动，使它们的动能被更有效地利用。例如，在托卡马克中，如果α粒子沿着磁力线传输到特定区域，可能在那里进行能量回收。或者，利用某种共振机制，让α粒子的能量被特定的装置吸收，如逆向高频装置（RF）或其他能量回收系统。
-我还得考虑定量估算，比如在p-¹¹B聚变中，α粒子的动能有多大，效率提升多少，以及这如何转化为整个装置的能量产出。可能需要一些假设，比如装置的大小、磁场强度等参数。
-可能的工程意义包括改进磁铁设计，优化磁场配置以促进α粒子的引导，或者开发新的能量回收系统。此外，诊断技术可能需要改进，以监测α粒子的行为和能量传输路径。
-还需要比较其他可能的方法，比如传统的等离子体加热方法，与α粒子通道效应的效率差异。这可能涉及到不同的控制参数，如磁场梯度、频率等，以及它们对聚变反应的影响。
-总之，我需要系统地分析α粒子通道效应的物理机制，如何在p-¹¹B聚变中应用，带来的具体好处，以及可能的工程实现和改进。可能需要查阅相关文献，或者参考已有的研究案例，以确保信息的准确性和全面性。
-&lt;/think&gt;
-### α粒子通道效应（Alpha Channeling）的物理机制及在p-¹¹B聚变中的应用
+          <t>### α粒子通道效应（Alpha Channeling）的物理机制及在p-¹¹B聚变中的应用
 #### 1. 核心结论
 α粒子通道效应通过特定的磁场配置引导α粒子，使其能量用于加热燃料离子或直接能量转换，从而提升p-¹¹B聚变装置的能量经济性。
 #### 2. 背景与概念
@@ -4217,7 +3694,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -4243,15 +3720,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于TAE Technologies使用FRC（场反位形）来约束p-¹¹B等离子体的情况。他们想了解FRC相比托卡马克在约束高β、高温等离子体方面的潜在优势，以及TAE在NBI驱动FRC方面的关键进展。
-首先，我得回顾一下FRC和托卡马克的基本原理。FRC是一种磁约束聚变装置，利用磁场来限制等离子体，通常是在开放的磁拓扑结构中，而托卡马克则是闭合磁拓扑，利用强磁场来约束等离子体。高β值意味着等离子体压力相对于磁压力更高，这对于实现聚变反应很重要，但高β也带来了约束的挑战。
-在约束高β等离子体方面，FRC可能的优势可能包括较低的磁场强度需求，因为它们通常在较低的磁场下运行，这可能允许更高的β。此外，FRC的结构可能导致等离子体压力分布更均匀，从而在不破坏约束的情况下实现更高的β。另外，FRC的开放结构可能便于使用NBI（中性束注入）来驱动电流和加热等离子体，这对于维持高温和高密度的等离子体是关键。
-接下来，关于TAE在NBI驱动FRC方面的进展，我需要考虑他们可能采用的技术。NBI注入高能中性粒子，这些粒子在等离子体中被电离，提供高能离子来加热等离子体并驱动电流。TAE可能开发了高效的NBI系统，能够提供足够的注入功率来维持等离子体的高温度和高密度。此外，他们可能优化了FRC的磁拓扑，以更有效地利用注入的束流，从而提高等离子体的约束性能和稳定性。
-还需要考虑等离子体的稳定性。高β等离子体在托卡马克中容易引发不稳定性，如 Alfven 不稳定性，而FRC可能在这方面更具优势，因为其开放的磁结构可能抑制某些不稳定性。当然，这也可能取决于具体的磁配置和操作参数。
-另外，材料和工程方面的考虑也很重要。FRC可能在材料选择上更具优势，因为它们可能在较低的磁场下运行，减少了对高强材料的需求，从而降低了成本和复杂性。同时，NBI系统的效率和可靠性也是关键，TAE可能在这些方面取得了进展，例如提高了注入束的能量、束流的均匀性和注入效率。
-最后，总结一下，FRC在约束高β、高温等离子体方面的优势可能包括更高的β值允许、对高β等离子体的稳定性更好、以及更高效的NBI驱动。而TAE在NBI驱动FRC方面的关键进展可能包括高效注入系统、优化的磁配置和等离子体稳定性的提升。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 场反位形（FRC）在约束高β、高温等离子体方面具有潜在优势，TAE Technologies在NBI驱动FRC方面取得了关键进展，包括高效的中性束注入与电流驱动。
 ---
 ### 背景与概念  
@@ -4294,7 +3763,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -4320,18 +3789,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>好的，我现在要详细分析用户的问题：激光驱动的p-¹¹B聚变方案，特别是质子快点火的基本原理，以及与磁约束p-¹¹B聚变相比的异同和独特挑战。为了确保我的回答准确且符合规范，我需要逐步梳理每个部分，同时确保逻辑清晰和信息准确。
-首先，核心结论部分需要明确质子快点火的基本原理和与磁约束的主要区别。我需要回顾p-¹¹B聚变反应的基本知识，包括反应的条件、燃料特性等。接着，背景与概念部分要解释核聚变、p-¹¹B聚变，以及质子快点火和磁约束的概念。
-在原理与推导部分，我需要详细描述两种方案的不同机制。对于质子快点火，主要是高能激光产生质子束，加热燃料靶，使其达到点火条件。而磁约束聚变则依赖于磁场限制高温等离子体，使用微波或中性束加热。这部分需要清晰地列出关键物理过程，如质子束的产生、能量传递，以及磁场的约束作用。
-定量估算部分，我可以引用一些典型的参数，比如激光能量、质子束能量、加热时间等，来说明两种方法的能量需求和效率差异。这有助于用户理解两种方法的可行性。
-工程或实验意义部分，我需要指出激光驱动方案在目标、燃料使用上的优势，如点火能量低、无中子辐射等，同时也要提到技术挑战，如质子束稳定性、激光器效率等。对于磁约束，虽然技术较为成熟，但需要更高的磁场强度，这增加了工程难度。
-比较与拓展部分，我需要比较两种方案的优缺点，适用条件，并探讨可能的结合方式。这可能包括激光辅助点火在磁约束装置中的应用，作为混合方案的潜在优势。
-最后，要点总结需要简洁地重申主要信息，强调质子快点火的创新点和挑战，以及磁约束方案的成熟性。
-在整个思考过程中，我需要确保每个部分都符合用户提供的答题规范，避免遗漏关键点，并且语言准确，结构清晰。同时，引用实际的实验数据或典型的参数，能够增强回答的可信度和深度。此外，注意区分理论与工程的实际应用，分析各自的优缺点，有助于用户全面理解两种聚变方案的差异和挑战。
-在写作时，我会特别注意保持逻辑连贯，每个部分之间有自然的过渡，并且使用清晰的小标题和项目符号，使内容易于阅读和理解。同时，确保所有符号和术语都准确无误，并在必要时进行解释，以避免用户的困惑。
-总之，通过系统的梳理和深入的分析，我可以全面回答用户的问题，满足其对激光驱动p-¹¹B聚变方案及其与磁约束对比的需求，提供有价值的信息和见解。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 激光驱动的p-¹¹B聚变方案（如质子快点火）通过高能激光产生高能质子束，直接加热燃料靶至聚变条件；与磁约束方案相比，其点火能量更低且无中子辐射，但面临质子束控制、激光器效率及燃料靶设计等独特挑战。
 ---
 ### 背景与概念
@@ -4409,7 +3867,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -4435,15 +3893,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论D-³He聚变燃料循环的特点、优势和挑战，特别是自旋极化燃料的影响。首先，我得先了解D-³He反应的基本情况。
-D-³He反应是氘和氦-3的聚变，生成一个氦-4和一个质子，释放出17.6 MeV的能量。这看起来比常见的DT反应（生成中子和氚，释放14.1 MeV）更高效，因为产物都是带电粒子，不容易损失能量。同时，中子产额低，减少了中子辐照带来的材料问题。
-接下来，优势方面，中子少确实很好，因为这意味着更少的中子激活材料，降低辐照损伤，延长反应堆寿命。此外，带电粒子产物容易被约束，能量损失较少，这对聚变装置的运行效率有好处。
-但挑战也不少。最大的问题是³He的来源有限。自然界的³He非常稀少，主要来自天然衰变，含量极低。虽然可以通过提取 Lunar土壤中的³He，但成本极高，且技术尚不成熟。此外，³He的供应完全依赖外部，不像DT反应那样可以自行生产氚。
-现在来看自旋极化燃料的影响。自旋极化是指粒子的自旋方向高度一致，这可能会影响聚变反应率。D-³He反应中，氘的自旋为1，³He的自旋为2，所以自旋态的组合可能会影响反应截面。如果自旋极化，可能需要特定的自旋态组合，从而影响反应率。文献显示，自旋极化可以将反应率提高50%以上，这在设计反应堆时非常重要。
-另外，聚变产物的角分布也会受到影响。自旋极化可能会导致质子和其他带电粒子的发射方向更集中，这可能对中子和等离子体控制带来影响，需要更精确的控制设计。
-总结一下，D-³He燃料循环有优势，但³He供应是个大问题。自旋极化可能提高反应率，但需要更多的研究来确定其影响。未来可能需要发展高效提取³He的技术，或者寻找替代燃料，同时考虑自旋极化的影响来优化反应堆设计。
-&lt;/think&gt;
-### D-³He聚变燃料循环的特点、优势与挑战
+          <t>### D-³He聚变燃料循环的特点、优势与挑战
 #### 核心结论  
 D-³He聚变燃料循环具有带电粒子主导产物、低中子产额的优势，但面临³He资源匮乏和高成本供应的挑战。
 #### 背景与概念  
@@ -4496,7 +3946,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -4522,18 +3972,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在得想想缪子催化聚变的基本原理。我记得缪子是一种类似于电子的粒子，但质量比电子大很多，对吧？那它是如何帮助聚变反应进行的呢？
-首先，聚变反应通常需要极高的温度和压力，因为离子之间的库仑势垒很高，难以克服。但是缪子的存在似乎让这个过程变得容易了。可能是因为缪子的质量更大，导致它能够更有效地将氘和氚原子核拉近，使得它们更容易发生聚变。
-背景部分，我需要解释缪子催化的聚变原理。缪子，或者说μ子，是电子的一种重同位素，质量大约是电子的207倍。它带有负电，可以围绕氘（D）或氚（T）核形成氢原子，称为μ子氢。因为缪子的重力，轨道半径比电子的小得多，所以氘和氚被拉得更近，能够更容易发生聚变。
-原理部分，我需要详细说明这个过程。当缪子与氘核结合形成μD时，氘的轨道半径缩小，使得两个氘核在更近的距离下相遇，从而降低了库仑势垒。这样即使在较低的温度下，聚变反应也能发生。此外，缪子还可以在聚变反应后转移到另一个原子核，继续催化下一个反应，这个过程被称为“缪子循环”。
-关于为何可以在较低温度下发生，是因为缪子的存在显著降低了反应所需的动能。传统聚变需要高温高压来克服库仑势垒，而缪子催化的聚变由于原子核更接近，所需能量大大降低，因此可以在低温下进行。
-接下来是当前的主要瓶颈。第一个是α粒子粘滞问题。当聚变反应释放出α粒子时，这些α粒子可能会被周围的氘氚燃料捕获，带走能量，导致燃料被消耗，并且α粒子的动量可能对缪子循环产生不利影响。这会降低反应的效率。
-第二个瓶颈是缪子的产生成本。缪子需要通过高能粒子加速器产生，这需要大量的能量。而缪子在聚变反应中的寿命有限，如何提高缪子的利用率，减少生产成本是一个关键问题。
-解决方案方面，对于α粒子粘滞问题，可能需要设计一种方法让α粒子快速离开反应区域，或者调整燃料的密度，使得α粒子不容易被燃料捕获。这可能涉及到优化反应堆的设计，使得α粒子能够及时逸出。
-对于缪子产生成本，可能需要寻找更高效的方式来产生缪子，或者开发能够更有效地利用缪子的装置。例如，提高缪子的捕获效率，减少在聚变过程中的损失，或者开发不需要太多缪子的反应堆设计。
-最后，我需要总结这些内容，指出缪子催化聚变的潜力和面临的挑战，以及可能的解决方案。这有助于研究人员在未来的开发中找到突破口，推动这一技术的发展。
-&lt;/think&gt;
-### 缪子催化聚变（Muon-Catalyzed Fusion, μCF）的基本原理
+          <t>### 缪子催化聚变（Muon-Catalyzed Fusion, μCF）的基本原理
 **核心结论**：缪子催化聚变通过缪子促进氘和氚核聚变，能够在较低温度下进行。
 **背景与概念**：缪子（μ⁻）是电子的重同位素，质量约为电子的207倍，带有负电荷。在聚变反应中，缪子取代电子，形成μ子氢（μH、μD、μT），因其质量大，轨道半径小，从而降低库仑势垒。
 **原理与推导**：缪子使氘和氚核更接近，克服库仑势垒，促进聚变。反应释放能量，同时缪子可继续催化新反应，形成循环。
@@ -4551,7 +3990,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4577,20 +4016,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在要详细思考一下关于直接能量转换（DEC）技术在p-¹¹B和D-³He这些先进聚变燃料中的重要性，以及可能的DEC方案、它们的技术挑战和效率预期。让我先理清思路，一步步来分析。
-首先，聚变燃料的类型。p-¹¹B指的是质子和硼-11的聚变反应，而D-³He则是氘和氦-3的反应。这两种反应都是被认为比传统的DT（氘-氚）反应更清洁的聚变方式，因为它们产生的中子更少，甚至没有。这可能会减少辐射和材料活化的问题，从而更适合长期使用。
-直接能量转换技术的目标是将聚变反应释放的动能直接转化为电能，而不经过传统的蒸汽轮机等热力学循环。这可能提高效率，减少系统复杂性，同时因为产物是带电粒子，所以更容易控制和收集。
-那么，重要性方面，DEC对于这些燃料尤其重要，因为它们的聚变产物几乎完全是带电粒子。p-¹¹B的聚变产物是两个α粒子（氦核），而D-³He的产物是一个³He和一个α粒子。这些带电粒子可以通过电磁场进行引导和收集，这样DEC就显得尤为重要和可行。
-接下来，几种可能的DEC方案。我需要回忆一下常见的DEC方法。首先是磁镜减速和收集，这种方法利用强磁场来减速和捕获高速带电粒子。然后是静电收集，利用电场来捕获和加速粒子，直接产生电流。另一种可能是等离子体直接转换，通过等离子体的电阻或电磁感应来产生电能。此外，可能还有其他方法，比如使用超导线圈来收集粒子运动的电磁能。
-现在，每种方案的技术挑战是什么？首先是磁镜减速和收集。需要极高的磁场强度，因为聚变粒子速度非常快，可能需要十特斯拉甚至更高的磁场来有效地减速。同时，粒子在磁场中移动时可能会产生大量热量，需要有效的散热系统。此外，磁场的均匀性和稳定性也是一个挑战，因为任何不均匀都可能导致粒子逃逸，降低收集效率。
-静电收集面临的问题可能包括如何处理高密度的带电粒子流，这可能导致严重的空间电荷效应，影响收集效率。此外，电极材料需要能够承受高能粒子的冲击，避免被侵蚀或损坏。
-等离子体直接转换的方法可能涉及到等离子体的不稳定性和高阻抗的问题，如何有效地将等离子体的能量转换为可用的电能是一个挑战。同时，这种方法可能需要非常高的等离子体密度和温度，这对装置的设计和运行提出了严格要求。
-此外，这些方案在效率方面的预期如何？磁镜减速和收集的效率可能在60%到80%之间，这取决于磁场的强度和设计。静电收集的效率可能稍低，约为50%到70%，而等离子体直接转换的效率可能在50%左右，甚至更低，这取决于等离子体参数的控制。
-在工程或实验意义方面，DEC的成功实现将极大提升聚变装置的效率和经济性，减少设备规模和复杂性，同时降低环境影响。这可能成为未来聚变能实用化的关键因素之一。
-总结一下，DEC技术对于p-¹¹B和D-³He等聚变燃料至关重要，因为它们几乎没有中子，主要产物是带电粒子，适合直接能量转换。主要的DEC方案包括磁镜减速、静电收集和等离子体直接转换，但这些方案都面临着技术挑战，如高磁场需求、材料耐受性、空间电荷效应等。效率方面，不同方案有不同预期，但都比传统的热力学循环更高，可能在50%到80%之间。
-现在，我需要将这些思考整理成结构化的回答，按照用户的要求，分成核心结论、背景与概念、几种DEC方案及其挑战、效率预期、工程意义等部分。同时，确保使用清晰的小标题和项目符号，便于阅读。
-&lt;/think&gt;
-### 直接能量转换（DEC）技术在p-¹¹B和D-³He聚变燃料中的重要性
+          <t>### 直接能量转换（DEC）技术在p-¹¹B和D-³He聚变燃料中的重要性
 #### 核心结论
 直接能量转换（DEC）技术对于以p-¹¹B和D-³He为燃料的聚变反应至关重要，因其聚变产物几乎完全由带电粒子组成，适合直接转换，显著提升能源转换效率并减少环境影响。
 #### 背景与概念
@@ -4623,7 +4049,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -4649,15 +4075,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在要评估一下发展p-¹¹B聚变堆的长期前景，从系统工程和经济性的角度出发。首先，我知道p-¹¹B是一种很有前景的聚变燃料，因为它不会产生中子，理论上更安全，但其实还是会有少量的中子，比如通过质子与锂的反应。不过，非中子的特性还是让它的辐射防护和材料耐辐照问题相对容易处理。
-接下来，系统工程方面，p-¹¹B聚变堆需要极高的能量密度，这意味着需要更高的温度和密度条件。传统的托卡马克或仿星器可能需要进行大幅改进，甚至可能需要新的设计。等离子体约束方面，因为是质子-硼反应，可能需要不同的磁场配置，或者更高效的加热系统。此外，由于反应产物主要是氦-3和中子，这可能对堆的设计和材料选择提出特殊要求。
-经济性方面，研发投入是一个大问题。p-¹¹B的技术还处于早期研究阶段，距离商业化还有很长的路。需要巨额的资金投入，而且周期可能会非常长。此外，硼资源的问题也需要注意，虽然硼在地壳中相对丰富，但提取和精炼成本可能会增加燃料的经济负担。
-政策支持也是关键因素。聚变能的发展通常需要政府的大力支持，特别是在初期阶段。政策的波动可能会严重影响项目的推进。此外，国际间的合作也很重要，因为这种技术可能需要全球范围内的资源和知识共享。
-公众接受度也是一个不容忽视的因素。尽管p-¹¹B的辐射问题较少，但公众对核能的恐惧可能仍然存在，尤其是在发生事故时的潜在风险。此外，聚变堆的建设和运行成本高昂，可能需要提高能源价格，这可能会遇到公众的反对。
-非技术性障碍方面，除了政策和公众接受度，还有商业化路径的问题。聚变堆的商业化需要建立供应链、维护和运营体系，这些都是巨大的挑战。此外，核废料处理也是一个问题，虽然p-¹¹B反应产生的废料较少，但仍需妥善处理。
-总结一下，发展p-¹¹B聚变堆不仅需要解决技术上的难题，还需要应对研发投入、政策支持、公众接受度、硼资源可用性、商业化路径和核废料处理等多方面的挑战。只有在这些方面取得平衡和突破，p-¹¹B聚变堆才能真正成为可行的清洁能源选择。
-&lt;/think&gt;
-从系统工程和经济性的角度来看，发展 p-¹¹B 聚变反应堆的长期前景充满挑战，但也具有巨大的潜力。以下是对这一问题的详细分析：
+          <t>从系统工程和经济性的角度来看，发展 p-¹¹B 聚变反应堆的长期前景充满挑战，但也具有巨大的潜力。以下是对这一问题的详细分析：
 ### 1. 核心结论
 发展 p-¹¹B 聚变堆在技术、系统工程和经济性方面面临多重挑战，需要克服研发投入、政策支持、公众接受度和硼资源可用性等非技术性障碍。
 ### 2. 背景与概念
@@ -4740,7 +4158,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4766,16 +4184,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在要详细阐述理想MHD的基本方程组以及它的核心假设，然后还要解释如何用能量原理分析等离子体的MHD不稳定性。首先，我应该回顾一下理想MHD的组成部分。我记得理想MHD主要由质量守恒、动量守恒、能量守恒和磁高斯定律这四个方程组成。
-质量守恒方程，也就是连续性方程，应该是在流体动力学中常见的那种，形式是ρ_t + ∇·(ρv) = 0，其中ρ是密度，v是速度。对吧？然后是动量守恒，也就是欧拉方程。动量变化要考虑磁场力的影响，所以应该是ρ(a)等于磁场的洛伦兹力，也就是ρ(v·∇)v = -∇p + (J×B)。这里p是压强，J是电流密度，B是磁场。
-接下来是能量守恒。理想MHD假设没有耗散，所以热传导和粘性效应都被忽略了。能量守恒方程应该是ρ(Dh/Dt) = -∇·q + j·E，这里q是热流，E是电场。但是因为在理想情况下q和j·E都为零，所以方程简化为热量变化为零，也就是温度不变，所以能量守恒退化为理想气体定律，p=ρRT。
-最后是磁高斯定律，也就是∇·B=0，这个确保磁场没有源或汇。还有，理想MHD假设磁通冻结，也就是磁场被流体携带，没有重新连接。
-现在，关于能量原理分析MHD不稳定性。我记得能量原理主要是通过判断系统是否处于稳定状态，也就是系统的总能量是否极小。如果能量随扰动增大而减小，系统就会变得不稳定。
-具体来说，可以用变分法，引入一个扰动量，然后计算扰动后的总能量变化。如果这个变化是负的，说明系统不稳定。这通常涉及到计算一个二次型的表达式，然后判断其符号是否为负。
-我记得在托卡马克等离子体中，考虑垂直位移或磁流线的弯曲会导致某些模的不稳定，比如压致不稳定性。这时候，通过计算系统的自由能，当自由能可以降低时，系统就会趋向于更稳定的态，释放能量，导致不稳定性。
-所以，总结来说，能量原理通过计算扰动后的能量变化来判断系统的稳定性，如果能量可以降低，系统就处于不稳定的临界点。这种分析方法对理解等离子体的宏观不稳定性非常有用，比如在聚变装置中的平衡和控制设计。
-&lt;/think&gt;
-### 理想磁流体力学（MHD）的基本方程组及核心假设
+          <t>### 理想磁流体力学（MHD）的基本方程组及核心假设
 #### 理想MHD的基本方程组
 1. **质量守恒方程（连续性方程）**：
    \[
@@ -4843,7 +4252,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -4869,19 +4278,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好的，我现在需要回答用户的问题，即导出并解释托卡马克等离子体平衡的Grad-Shafranov方程，并讨论该方程的求解如何依赖于等离子体电流分布、压强分布以及外部磁场线圈的配置。
-首先，我得回顾一下Grad-Shafranov方程的基本内容。记得它是一个非线性偏微分方程，用于描述等离子体的平衡状态。在托卡马克装置中，等离子体被磁场约束，所以磁场结构和电流分布是非常重要的。
-接下来，我需要明确问题的各个部分。用户提到了三个主要方面：电流分布、压强分布以及外部磁场线圈的配置。这三个因素如何影响Grad-Shafranov方程的求解呢？
-从背景与概念开始，托卡马克的等离子体平衡涉及到磁流体力学的原理，而Grad-Shafranov方程正是在这样的框架下导出的。我需要解释等离子体的平衡状态，即压力梯度和磁场力之间的平衡。这里，流体力学的动量平衡方程是关键，也就是压力梯度等于磁场力的梯度。
-然后，关于Grad-Shafranov方程的推导，我需要列出所用的假设，比如螺线管对称性、无压缩性等。这些假设简化了原始的磁流体力学方程，使其能够导出Grad-Shafranov方程。
-在求解方程时，电流密度和压强分布起到了决定性作用。电流密度影响磁场的分布，而压强分布则与磁场的梯度有关。外部线圈的配置提供了边界条件，比如在托卡马克的边缘，磁场线必须闭合在特定的位置。
-定量估算方面，可以使用国际热核聚变实验堆（ITER）作为例子。ITER的总电流和能量参数可以帮助估计方程中的关键参数，比如压力梯度和电流密度分布。
-工程和实验意义部分，需要讨论如何利用Grad-Shafranov方程来设计和优化托卡马克装置，比如选择适当的线圈配置，确保等离子体的稳定性和约束性能。此外，诊断技术和材料选择也是需要考虑的因素。
-比较与拓展部分，可能需要提到其他平衡方程，比如在不同的对称性下的方程，或者考虑更多的物理现象，如转动效应或非对称性。每种模型都有其优缺点，适用范围也不同。
-最后，要点总结需要简明扼要地概括Grad-Shafranov方程的重要性，以及其在托卡马克设计中的关键作用。
-整个思考过程中，我需要确保逻辑清晰，每个部分都有明确的连接，并且使用正确的物理量和符号。此外，语言要简洁明了，避免冗长，同时确保涵盖所有用户提出的问题点。
-&lt;/think&gt;
-### 1. **核心结论**  
+          <t>### 1. **核心结论**  
 Grad-Shafranov方程是描述托卡马克等离子体平衡状态的关键方程，其求解依赖于等离子体的电流密度分布 `$j(r)$`、压强分布 `$p(r)$` 以及外部磁场线圈的配置，通过这些参数可以确定等离子体的磁面形状和磁场强度。
 ---
 ### 2. **背景与概念**  
@@ -4938,7 +4335,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -4964,14 +4361,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在要比较托卡马克和仿星器在等离子体平衡实现方式上的异同。然后，还要解释为什么仿星器的三维复杂磁场能消除对大电流的需求，并探讨其稳定性优势。
-首先，我得回忆一下托卡马克的工作原理。托卡马克主要利用环形的磁场，由外部线圈产生的纵场和等离子体内部的环形电流（由欧姆加热产生）来维持等离子体的形状和位置。这种设计虽然有效，但需要一个大的等离子体电流，这可能会带来一些问题，比如电流驱动的难度、稳定性和材料的负担。
-然后是仿星器，它的结构更复杂，使用三维的非对称磁场。这种设计不需要大的环形电流，因为磁场本身已经足够复杂，能够约束等离子体。这可能减少了运行仿星器时的电流相关问题，比如电流引起的不稳定性或者材料的损坏。
-接下来，我得详细分析两者的异同点。托卡马克使用二维对称的磁场，而仿星器是三维的，这导致它们的等离子体平衡机制不同。托卡马克依赖于内部的电流，而仿星器主要依靠外部产生的磁场。此外，托卡马克可能更容易出现一些不稳定性，比如磁流体动力学不稳定性，而仿星器的复杂磁场结构可能有助于抑制这些问题。
-关于仿星器的磁场如何消除对大电流的需求，我想这是因为三维磁场可以提供更好的约束，无需强大的内部电流来维持等离子体形状。此外，三维磁场结构可能更容易控制等离子体的运动，减少湍流和其他不稳定因素，从而提高整体稳定性。
-总结一下，托卡马克和仿星器在等离子体平衡上的主要区别在于磁场的结构和是否依赖大的等离子体电流。仿星器的优势在于其复杂的磁场结构可以减少对电流的需求，从而提高稳定性和降低运行复杂性。这可能使得仿星器在未来的聚变能源研究中成为一个有竞争力的选择。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 托卡马克和仿星器在等离子体平衡实现方式上存在显著差异：托卡马克依赖于由纵磁场和等离子体环形电流共同维持的二维对称磁笼，而仿星器则通过复杂的三维非对称磁场直接约束等离子体，无需大等离子体电流。这种三维磁场构型能够显著提高等离子体的稳定性，减少运行参数的敏感性。
 ---
 ### 2. 背景与概念  
@@ -5027,7 +4417,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -5053,14 +4443,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好，我现在需要解释理想MHD中的主要不稳定性模式，包括扭曲模和气球模。我得先理清楚这些模式的基本概念。
-首先，理想MHD理论适用于描述等离子体在强磁场中的宏观行为。在托卡马克装置中，磁场的结构通常是环形的，这样的磁场配置有利于约束等离子体。然而，尽管磁场提供了一定的约束能力，等离子体仍然可能经历各种不稳定性，这些不稳定性可能会破坏等离子体的约束，导致性能下降甚至实验失败。
-扭曲模，也称为Kink模，是一种常见的不稳定性。其驱动机制主要与等离子体内部的电流分布以及外部磁场的配置有关。当等离子体中存在较大的电流时，磁场的扰动可能会导致等离子体发生扭曲，从而引发不稳定性。这种模式通常在较低的平衡位形中表现得比较明显，比如在圆环形托卡马克中。
-接下来是气球模，这种不稳定性主要发生在等离子体的边缘区域。气球模的驱动机制与梯度较强的压力和磁场梯度有关。当等离子体内部的压力梯度较大时，容易引起等离子体的局部膨胀，进而导致不稳定性。这种模式通常在高热负荷的等离子体中较为常见，对托卡马克等装置的等离子体约束性能有重要影响。
-影响方面，这些不稳定性会降低等离子体的约束性能，可能导致能量损失，进而影响聚变反应的效率。此外，不稳定的等离子体状态还可能对装置的材料结构造成损害，因此在设计和运行聚变装置时，必须采取措施来抑制这些不稳定性。
-总结起来，扭曲模和气球模是理想MHD中重要的不稳定性模式，它们的驱动机制涉及电流分布和压力梯度等因素。这些不稳定性对聚变等离子体的约束性能有显著影响，需要通过设计优化和运行控制来加以抑制，以提高聚变装置的性能和可靠性。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 理想MHD中的主要不稳定性模式包括扭曲模（Kink modes）和气球模（Ballooning modes）。它们分别由等离子体的电流和压力梯度驱动，对聚变等离子体的约束稳定性具有重要影响。
 ---
 ### 背景与概念  
@@ -5103,7 +4486,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -5129,48 +4512,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在要解决的问题是关于托卡马克中的Troyon极限和beta值。首先，我得理清楚问题中的各个概念和要求。问题要求定义等离子体beta值β和环向beta值β_t，然后给定一些参数，估算Troyon极限对应的β_N值，并计算最大允许的平均压强。
-首先，我需要明确beta值的定义。等离子体beta值β通常指的是等离子体压强与磁压强的比值。而环向beta值β_t则是环向压强分量与环向磁压强分量的比值。这两个概念是聚变物理中的基本参数，用来衡量等离子体的稳定性。
-接下来，问题给出了托卡马克的参数：大环径R0=3米，小半径a=1米，环向磁场B_t=5特斯拉，等离子体电流I_p=5百万安培。需要计算的是Troyon极限对应的β_N值，假设Troyon系数g≈2.8，然后计算最大允许的平均压强。
-首先，我需要回忆一下Troyon极限的相关公式。Troyon极限是一个用来评估托卡马克等离子体稳定性的重要极限，它考虑了多种不稳定性因素，比如压强梯度导致的不稳定性等。Troyon极限可以用一个公式来表示，涉及beta_N，而beta_N是归一化的beta值，考虑了等离子体的几何参数和电流等因素。
-我记得beta_N的公式大概是这样的：β_N = β_t * (a R0 / μ0 I_p)^0.5，其中a是小半径，R0是大环径，I_p是等离子体电流，μ0是真空磁导率。而Troyon极限则给出一个β_N的最大值，约为g，这里g=2.8。
-那么，首先，我需要计算beta_t。根据beta的定义，beta_t等于（8π P_0 a²）/(B_t² R0²)。这里的P_0是等离子体的平均压强，这是我们需要最终计算的量。
-接下来，Troyon极限给出的是β_N = g ≈2.8。根据beta_N的公式，我们可以将其带入，解出P_0的表达式。然后，代入给定的参数，进行计算。
-让我一步步来：
-1. 计算a/(2R0)：因为a=1米，R0=3米，所以a/(2R0)=1/(2*3)=1/6≈0.1667。
-2. 计算beta_t的公式：beta_t = (8π P0 a²)/(B_t² R0²)。这一步是为了用P0表示beta_t。
-3. 然后，将beta_N的公式代入：β_N = beta_t * (a R0 / (μ0 I_p))^0.5。将beta_t的表达式代入进去，得到beta_N与P0的关系式。
-4. 代入beta_N = 2.8，解出P0。
-现在，我需要进行计算，带入数值：
-已知：
-R0 = 3 m
-a = 1 m
-B_t =5 T
-I_p=5 MA =5*10^6 A
-g=2.8
-μ0=4π×10^-7 H/m
-首先，计算(a R0)/(μ0 I_p):
-a R0 =1 *3=3 m²
-μ0 I_p =4π×10^-7 *5×10^6 =4π×5×10^-1 ≈ 6.2832 *0.5=3.1416
-所以，(a R0)/(μ0 I_p)=3 /3.1416≈0.9549
-然后，取平方根：sqrt(0.9549)=≈0.977
-接下来，beta_N = beta_t *0.977=2.8
-所以，beta_t=2.8 /0.977≈2.865
-现在，将beta_t的值代入beta_t的公式：
-beta_t = (8π P0 a²)/(B_t² R0²)
-带入已知值：
-2.865 = (8π P0 *1^2)/(5^2 *3^2)
-= (8π P0)/(25 *9)
-= (8π P0)/(225)
-所以，P0= (2.865 *225)/(8π)
-计算一下：
-2.865 *225=645.375
-8π≈25.1327
-所以，P0≈645.375 /25.1327≈25.67 MPa
-因为压强通常用兆帕(MPa)表示，所以P0≈25.67 MPa。
-总结一下，首先通过Troyon极限的公式，计算出beta_N的最大值，进而得到beta_t的值，再通过beta_t的公式解出平均压强P0。整个过程需要代入给定参数，计算各步骤的数值，并最终得到结果。
-&lt;/think&gt;
-### 定义与概念
+          <t>### 定义与概念
 **等离子体beta值 (β)**：表示等离子体压强与磁压强的比值，定义为：
 \[
 \beta = \frac{8\pi P_{\text{tot}}}{B_t^2}
@@ -5222,7 +4564,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -5248,15 +4590,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在需要解释电阻MHD中的撕裂模物理机制，磁岛的形成过程，以及它对等离子体约束的破坏作用，还有Δ'参数的意义。让我一步一步想想。
-首先，撕裂模属于电阻MHD不稳定的一种，主要发生在托卡马克装置中。这种不稳定性通常在高β、中高密度等条件下更容易发生。撕裂模会导致磁场的重新连接，形成磁岛，进而破坏等离子体的约束。
-关于磁岛的形成过程，我记得它涉及到初始扰动导致的磁场位移，随后这个位移逐渐增长，形成环形结构，也就是磁岛。这个过程中，电流集中会导致磁场重新连接，进而形成多个磁岛，逐渐覆盖整个截面。
-撕裂模对约束的破坏主要是因为磁岛会引导等离子体沿着磁场线运动，造成逃逸，同时会引起边缘加热，加速粒子损失。这种现象会导致等离子体的约束性能下降。
-接下来是Δ'参数的意义。Δ'是一个稳定性判据，用于判断撕裂模是否会被激发。当Δ'小于某个临界值时，撕裂模是不稳定的。这个参数考虑了安全因子q、电阻率η、以及等离子体的压强梯度等因素。较大的q或较低的电阻率有助于提高稳定性。
-总结一下，撕裂模的形成涉及磁场的重新连接和磁岛的扩展，而Δ'参数是判断其稳定性的关键指标。在工程上，设计时需要优化这些参数，以避免撕裂模的发生，保持等离子体的良好约束。
-可能我漏掉了一些细节，比如具体的物理量和方程，或者磁岛扩展的具体机制，但整体结构应该是这样的。
-&lt;/think&gt;
-### 电阻MHD中撕裂模的物理机制
+          <t>### 电阻MHD中撕裂模的物理机制
 #### 核心结论
 撕裂模是由于等离子体中存在电阻性电流片，导致磁场位移和磁岛形成的一种不稳定性，会对等离子体约束产生破坏作用。
 #### 背景与概念
@@ -5289,7 +4623,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -5315,20 +4649,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论仿星器在MHD稳定性分析中的特殊挑战，特别是三维效应和缺乏连续对称性。然后还要简述VMEC和CAS3D这些计算程序的作用。好，首先我得理清楚这些概念。
-首先，仿星器和托卡马克不同，托卡马克有较高的对称性，而仿星器的设计通常比较复杂，三维结构更明显。这可能意味着仿星器的等离子体在三维磁场中运行，与二维或轴对称的情况相比，MHD稳定性分析会更复杂。三维效应可能包括更多的波动模式，使得稳定性的分析更困难。
-缺乏连续对称性意味着仿星器可能没有像托卡马克那样明显的旋转对称轴。这可能影响到等离子体的平衡和稳定性，因为缺乏对称性可能会引入更多的不稳定性因素，或者改变现有不稳定的特性。
-接下来，MHD稳定性分析中的三维效应可能表现在磁场的复杂结构上，这会导致等离子体的流动和压力分布更加复杂。此外，仿星器中的磁场可能有很强的非轴对称成分，这会增加分析的难度，因为传统的二维或轴对称分析方法可能不再适用。
-然后，考虑计算程序VMEC和CAS3D。VMEC，全称是 Versatile MHD Equilibrium Code，它应该是一个用于计算等离子体平衡的程序，能够处理复杂的磁约束装置，包括仿星器。VMEC可能通过求解磁流函数方程来确定等离子体的平衡状态，考虑到三维效应，它可能能够提供更精确的磁场分布和等离子体参数。
-而CAS3D，全称可能是某种三维MHD分析工具，可能专注于稳定性分析，特别是三维不稳定性的问题。它可能通过求解线性或非线性的MHD方程组，来评估不同模式下的稳定性，比如是否会出现不稳定性或者什么样的增长速率。
-那么，VMEC和CAS3D在仿星器分析中的作用是什么呢？VMEC可能用于计算仿星器中的等离子体平衡，提供初始条件，而CAS3D则基于这些平衡状态进行稳定性分析，判断哪些参数设置会导致不稳定性，或者优化设计以提高稳定性。
-此外，可能还需要考虑这些程序的输入参数，比如磁场的配置、等离子体的压力分布、电流分布等。因为仿星器的设计可能非常复杂，这些程序需要能够处理大量的三维网格，进行高精度的计算，这可能对计算资源要求很高。
-还有一个问题是，这些程序的输出结果如何解读。比如，稳定性分析可能会给出不同的不稳定性模式，每个模式都有特定的增长速率和驱动因素。这对于优化仿星器的设计非常重要，可以指导工程师调整磁场配置或等离子体参数以避免不稳定性。
-此外，缺乏连续对称性可能意味着每个位置的稳定性都不同，三维效应可能会导致不稳定性在空间上的分布不均匀，这对诊断和控制提出了更高的要求。
-最后，可能需要提到这些计算程序的发展趋势，比如更高精度的算法、更高效的并行计算能力，以及与实验数据的结合，以验证和改进模型的准确性。
-总之，仿星器的MHD稳定性分析确实面临三维效应和缺乏连续对称性的特殊挑战，而VMEC和CAS3D等程序通过提供高精度的平衡和稳定性分析工具，帮助研究人员和工程师应对这些挑战，优化仿星器的设计，提高其稳定性和可行性。
-&lt;/think&gt;
-仿星器的MHD稳定性分析面临独特的三维效应和缺乏连续对称性挑战。计算程序VMEC和CAS3D分别在平衡计算和稳定性分析中发挥关键作用，支持仿星器设计的优化和实验数据的分析。
+          <t>仿星器的MHD稳定性分析面临独特的三维效应和缺乏连续对称性挑战。计算程序VMEC和CAS3D分别在平衡计算和稳定性分析中发挥关键作用，支持仿星器设计的优化和实验数据的分析。
 ### 1. 核心结论
 仿星器的MHD稳定性分析因三维磁场复杂性和缺乏对称性而极具挑战，VMEC程序用于等离子体平衡计算，而CAS3D用于三维MHD稳定性分析，两者在仿星器设计和稳定性研究中至关重要。
 ### 2. 背景与概念
@@ -5346,7 +4667,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -5372,18 +4693,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在要解决的是如何在托卡马克的先进运行模式中，通过优化电流密度剖面和压强剖面来提高MHD稳定性极限，特别是避免或抑制新经典撕裂模（NTMs）和电阻壁模（RWMs）。
-首先，我得理解问题中的关键概念。MHD稳定性指的是等离子体在托卡马克装置中维持稳定运行的能力，而NTMs和RWMs是两种常见的MHD不稳定性。电流密度剖面（J(r)）和压强剖面（P(r)）是两个主要的控制参数，优化它们可以提升稳定性。
-从背景来看，托卡马克通过强磁场约束高温等离子体，使其发生核聚变。而MHD不稳定性会破坏这种约束，导致等离子体破裂，影响聚变反应的持续性。因此，控制这些不稳定性对于实现可控核聚变至关重要。
-接下来，关于如何优化电流和压强剖面来提高稳定性。首先，压强梯度梯度（Δ'）是一个关键因素。较大的Δ'可能导致NTMs的发生。所以，降低压强梯度梯度可能有助于抑制NTMs。此外，电流密度的分布也会影响稳定性和撕裂模的发展。
-电阻壁模（RWMs）与等离子体的边界电流和磁场与壁的相互作用有关。控制RWMs通常需要调整电流密度的外边界，可能使电流密度在边缘区域较低，以减少与壁的耦合。
-在推导方面，可以参考D理想MHD理论，使用等离子体β（β=8πP/B²）来量化压强与磁场的平衡。对于NTMs，较低的等离子体β和优化的电流密度梯度有助于抑制不稳定性。而对于RWMs，可能需要特定的电流密度配置，比如在边缘区域降低电流密度，减少与壁的相互作用。
-定量估算方面，可以参考典型的托卡马克参数，如 ITER。等离子体β通常控制在5%以下，电流密度梯度控制在某个范围内。假设通过调整，Δ'降低到0.5，等离子体β控制在4%，这可能有效抑制NTMs。而RWMs的抑制可能需要进一步的参数调整，比如在边缘区域电流密度降低到某个特定值。
-工程意义方面，优化电流和压强剖面需要精确的控制技术，比如使用射频加热、电流驱动等手段。同时，诊断系统需要能够实时监测这些剖面的变化，以便及时调整。材料方面，可能需要更好的壁处理技术，以减少与RWMs相关的壁响应。
-比较与拓展部分，可能有其他的优化方法，比如使用外部磁场控制、改变装置的形状等。每种方法都有其优缺点，适用于不同的运行模式。
-总结来说，通过优化电流密度和压强剖面，可以有效提高托卡马克的MHD稳定性，抑制NTMs和RWMs。这需要综合考虑多个参数，并结合工程上的控制手段和诊断技术。
-&lt;/think&gt;
-### 如何通过优化电流密度剖面和压强剖面来提高MHD稳定性极限
+          <t>### 如何通过优化电流密度剖面和压强剖面来提高MHD稳定性极限
 1. **核心结论**  
    通过优化电流密度剖面和压强剖面，可以提高托卡马克的MHD稳定性极限，抑制新经典撕裂模（NTMs）和电阻壁模（RWMs）。
 2. **背景与概念**  
@@ -5426,7 +4736,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -5452,14 +4762,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好的，我现在需要解释Mercier判据和气球模判据在仿星器局部稳定性评估中的应用，以及为什么即使局部判据满足，仍需进行全局稳定性分析。首先，我要理解这两个判据的基本概念和它们在仿星器中的作用。
-Mercier判据主要用于评估等离子体的轴向不稳定（即纵场方向的不稳定）。这个判据涉及到等离子体的参数，如密度、温度、磁场强度和压强梯度。气球模判据则关注于横向不稳定，特别是类似气球膨胀式的模态，这些模态可能导致等离子体的破裂或失稳。
-接下来，我要思考在仿星器中，这两个判据如何帮助评估局部稳定性。仿星器的结构与托卡马克不同，其磁场线呈现螺旋形，这可能会影响不稳定的模式。在局部稳定性分析中，这些判据帮助确定在给定参数下，局部区域是否存在纵场或横向的不稳定因素。
-现在，问题提到即使局部判据满足，仍需进行全局稳定性分析。这可能是因为局部分析只考虑了特定区域的情况，而全局分析需要考虑整个等离子体的行为，包括不同区域之间的相互作用。例如，一个区域的稳定可能通过不稳定的区域引发全局性问题。此外，全局分析还能捕捉到与整体磁场结构相关的不稳定性，这些可能在局部分析中被忽视。
-在思考过程中，我还需要考虑其他因素，比如等离子体的边界条件、外部磁场的分布以及控制回路的影响。这些因素可能会影响全局稳定性，而不仅仅是局部条件。此外，一些不稳定性可能在局部判据中没有被触发，但在整体系统中由于相互作用或其他参数的变化而出现。
-总结一下，局部判据提供了重要的信息，但它们并不能涵盖所有可能导致失稳的因素。因此，进行全面的全局分析是必要的，以确保整个聚变装置的稳定运行。这涉及到综合考虑各种不稳定模式，评估它们在整个系统中的影响，并采取相应的控制措施。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 在仿星器中，Mercier判据和气球模判据用于评估等离子体的纵场和横向稳定性，但局部稳定不代表全局稳定，需结合全局分析以避免潜在的非线性不稳定或跨区域相互作用引发失稳。
 ---
 ### 背景与概念  
@@ -5514,7 +4817,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -5540,23 +4843,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>好，我现在要回答这个问题。问题是关于自由边界MHD不稳定性与固定边界不稳定性之间的区别，以及真空区和理想导电壁如何影响外部扭曲模的稳定性，特别是讨论壁稳定效应。
-首先，我需要理解MHD不稳定性的基本概念。MHD指的是磁流体力学，研究等离子体在磁场中的运动。不稳定性指的是等离子体在某种条件下会发生不稳定的扰动，导致磁场结构的变化，可能影响聚变反应的稳定进行。
-自由边界和固定边界是两种不同的边界条件。自由边界通常指等离子体与外部真空之间的界面，而固定边界则是等离子体被某种结构，比如托卡马克的壁所限制。这意味着在固定边界中，等离子体的运动被限制在容器内部，而在自由边界中，等离子体可以自由地向外膨胀或收缩。
-接下来，讨论外部扭曲模的稳定性。外部扭曲模是指等离子体外部的磁场扰动模式，这种模式可能导致等离子体的形状变化，进而影响其稳定性。外部扭曲模的稳定性受边界条件的影响很大。
-在自由边界条件下，等离子体和真空区之间的界面会响应等离子体的运动。这意味着当等离子体发生扰动时，边界会随之移动，从而影响扰动的增长或衰减。而固定边界条件则不同，因为等离子体被固定的容器壁所限制，容器壁的存在会影响外部扭曲模的稳定性。
-壁稳定效应是指当存在理想导电壁时，壁对等离子体稳定性的影响。理想导电壁意味着壁的导电性非常理想，不会有磁场的穿透，磁场会被镜像反射。这种特性会影响外部扭曲模的稳定性。在理想导电壁的情况下，外部扭曲模可能变得不稳定，因为壁反射磁场扰动会加强扰动的增长。
-我需要进一步理解壁稳定效应的作用机制。当等离子体在容器内部时，外部的磁场扰动会被壁镜像反射，形成一个外部镜像磁场。这可能与等离子体内部的磁场扰动相互作用，导致外部扭曲模的增长。而在自由边界条件下，等离子体和壁之间的真空区可能不会产生这种镜像反射，因此外部扭曲模的稳定性可能不同。
-然后，我需要考虑定量估算或示例。或许可以使用外部扭曲模的增长率公式，来说明边界条件对增长率的影响。例如，增长率为γ，当边界条件改变时，γ会如何变化。
-在工程或实验意义方面，理解壁稳定效应有助于设计更稳定的聚变装置。例如，在托卡马克设计中，考虑边界条件对不稳定性的影响，可以优化装置的结构，避免外部扭曲模的不稳定性。
-比较与拓展部分，可能需要比较不同边界条件下的稳定性行为，以及壁稳定效应在不同装置类型中的应用情况。
-最后，要点总结部分需要简明扼要地概括主要结论：自由边界和固定边界对MHD不稳定性的影响不同，壁稳定效应在理想导电壁条件下会导致外部扭曲模的不稳定性，影响聚变装置的设计。
-在思考过程中，我需要确保每个部分都详细展开，并且使用准确的物理概念和术语。同时，要遵循用户提供的答题规范，确保每个部分都有清晰的小标题或项目符号，结构清晰，便于阅读。
-可能遇到的难点是如何准确描述壁稳定效应的机制，以及如何通过方程或公式来展示边界条件对增长率的影响。需要回顾相关的MHD理论和公式，确保推导过程的正确性。
-此外，还需要考虑实际应用中的情况，例如在托卡马克装置中，固定边界条件下的壁稳定效应如何影响运行参数，以及如何通过工程设计来应对这种效应。
-总之，我需要系统地梳理MHD不稳定性、边界条件、外部扭曲模和壁稳定效应之间的关系，确保每个部分的解释准确、清晰，并符合用户的要求。
-&lt;/think&gt;
-### 自由边界MHD不稳定性与固定边界不稳定性区别
+          <t>### 自由边界MHD不稳定性与固定边界不稳定性区别
 #### 核心结论
 自由边界和固定边界在MHD稳定性中的表现不同，壁稳定效应在理想导电壁下可能导致外部扭曲模的不稳定性。
 #### 背景与概念
@@ -5644,7 +4931,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -5670,16 +4957,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好的，我现在要详细阐述离子温度梯度（ITG）模的物理机制，并推导其简化线性阈值条件，还要讨论这个阈值如何受其他参数如安全因子q和磁剪切s的影响。
-首先，我需要理解ITG模的基本概念。ITG模是托卡马克等离子体中的一种不稳定性，主要由离子温度梯度驱动。它的出现会导致能量和粒子的输运，影响聚变反应的效率。
-接下来，推导线性阈值条件。题目给出了密度梯度尺度长度Ln和离子温度梯度尺度长度LTi，我需要用这些参数来推导ηi = Ln/LTi &gt; ηi_crit。这涉及到扰动的线性增长分析，使用波动方程来找到不稳定性条件。
-在推导过程中，我需要考虑平衡状态下的参数，设定合适的变量，然后线性化方程。波动方程将包括压力、密度和温度梯度项，以及磁场相关项如磁剪切s和安全因子q。通过假设指数增长解，并利用波动的范数，可以得到增长率的平方与梯度参数的关系。
-然后，通过分析增长率为零的条件，得到临界条件，即ηi_crit。这个条件通常涉及磁剪切s和安全因子q，可能还与离子到电子质量比等参数有关。推导出ηi_crit的形式可能是一个关于s和q的函数，比如包含s的平方或其他幂次。
-讨论其他参数的影响时，我需要分析ηi_crit如何随s和q的变化而变化。比如，磁剪切s增加可能会提高临界值，意味着更不容易触发ITG不稳定性，而q的变化可能会影响不稳定性在不同半径的表现。
-最后，总结ITG模对聚变装置设计的启示，如优化磁剪切和安全因子的配置，以减少ITG驱动的输运，从而提高等离子体的约束性能。
-在整个过程中，我需要确保每一步推导都有清晰的物理意义和数学依据，并且正确地将各个参数纳入考虑，以确保结论的准确性和可靠性。
-&lt;/think&gt;
-### 离子温度梯度（ITG）模的物理机制
+          <t>### 离子温度梯度（ITG）模的物理机制
 #### 1. 核心结论
 离子温度梯度（ITG）模是托卡马克等离子体中的一种主要不稳定性，由离子温度梯度和密度梯度共同驱动，其线性不稳定性阈值条件为 $\eta_i = L_n / L_{T_i} &gt; \eta_{i,crit}$，其中 $\eta_{i,crit}$ 依赖于磁剪切 $s$ 和安全因子 $q$。
 #### 2. 背景与概念
@@ -5725,7 +5003,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -5751,22 +5029,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在要解释新经典撕裂模（NTM）的激发和增长机制，特别是自举电流扰动和极化电流效应的作用，还要讨论广义卢瑟福方程在NTM分析中的应用。首先，我得先回忆一下什么是NTM。
-NTM，全称是新经典撕裂模，是一种在托卡马克装置中出现的不稳定性。它不同于经典撕裂模，通常涉及到更复杂的湍流和非线性效应。激发和增长机制应该和等离子体中的电流扰动有关。
-自举电流扰动，这可能是指由于磁场的扰动导致的电流变化。极化电流效应，可能是指在等离子体中由于电场或磁场的极化引起的电流变化。这些电流扰动可能会导致磁场进一步变化，从而形成反馈机制，促进模的增长。
-接下来，广义卢瑟福方程。卢瑟福方程通常用于描述等离子体中电阻引起的模式变化，比如在经典撕裂模分析中，电阻率的变化会影响模式的稳定性。广义卢瑟福方程可能引入了其他因素，比如自举电流或极化电流的影响，从而更全面地分析NTM的行为。
-我需要详细梳理一下这些机制。首先，NTM的激发通常发生在某些参数范围内，比如特定的电流密度或温度梯度。当这些参数超过某个临界值时，模就会被激发。然后，自举电流扰动会如何影响模的增长呢？可能是因为电流扰动会引起磁场扰动，进而改变等离子体的运动，导致更多的电流变化，形成正反馈，使模继续增长。
-极化电流效应可能与等离子体的响应有关。当外磁场发生变化时，等离子体中的带电粒子会重新分布，产生极化电流，这可能进一步影响磁场结构，促进模的增长。
-广义卢瑟福方程可能在传统的卢瑟福方程基础上，加入了自举电流和极化电流的影响。传统卢瑟福方程考虑的是电阻率和磁场的相互作用，而广义版本可能还包括电流扰动带来的额外项，从而更准确地描述NTM的增长过程。
-我需要整理出这些机制之间的关系：自举电流扰动和极化电流效应如何相互作用，共同促进NTM的增长。这可能涉及到它们对磁场扰动的叠加效应，或者它们在不同阶段对模的贡献。
-另外，广义卢瑟福方程可能提供了一种更全面的分析工具，能够同时考虑多种电流效应，从而更准确地预测NTM的行为。这可能对托卡马克装置的设计和运行控制有重要的意义，帮助优化参数以抑制NTM，提高等离子体的稳定性。
-总结一下，我需要解释以下几点：
-1. NTM的激发和增长机制，特别是自举电流和极化电流的作用。
-2. 广义卢瑟福方程在NTM分析中的应用，以及它如何整合这些电流效应。
-3. 这些机制对托卡马克装置设计和运行的意义。
-现在，我需要用结构化的回答，按照用户的答题规范来组织内容。每个部分都要详细展开，确保逻辑清晰，信息准确。
-&lt;/think&gt;
-### 新经典撕裂模（NTM）的激发和增长机制
+          <t>### 新经典撕裂模（NTM）的激发和增长机制
 #### 1. 核心结论
 新经典撕裂模（NTM）的激发和增长机制由自举电流扰动和极化电流效应共同驱动，广义卢瑟福方程在分析中提供了关键工具。
 #### 2. 背景与概念
@@ -5806,7 +5069,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -5832,18 +5095,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于边缘局域模（ELMs）的，我得先弄清楚什么是ELMs。我之前听说过托卡马克等离子体在边界区域会形成各种不稳定性，可能ELMs就是其中一种。我记得ELMs会导致等离子体的约束被破坏，对材料壁产生冲击，所以这是一个重要的问题。
-首先，ELMs的主要类型有Type-I和Type-II，还有可能是Type-III。Type-I可能最常见，Type-II在低密度高约束条件下出现，Type-III可能比较少见或者还在研究阶段。我需要分别描述它们的特点。
-Type-I ELMs，我记得它们是突然爆发的，释放大量的能量和粒子，这会导致等离子体温度和密度突然下降。Type-II ELMs则可能更温和，或者以不同方式释放能量，但同样会影响约束。
-ELMs的影响方面，对等离子体约束主要是导致能量和粒子的快速损失，这会影响整体的等离子体性能，比如束缚时间。对材料壁的影响可能包括高热流、颗粒沉积，以及潜在的材料侵蚀，这些都是设计托卡马克装置时需要考虑的问题。
-接下来，讨论ITER等大型装置中如何控制或缓解ELMs。常见的策略有RMP（共振磁扰动）和颗粒注入。RMP是通过外部线圈施加额外的磁场扰动，破坏边界区域的等离子体结构，防止ELMs的发生。颗粒注入则是通过喷射碳或氘颗粒进入边界，改变密度分布，抑制不稳定性。
-我还需要考虑这些策略的优缺点。RMP可能有效，但需要复杂的磁力线控制，可能会影响其他等离子体参数。颗粒注入虽然可以缓解ELMs，但可能导致杂质增加，影响整体等离子体性能。
-总结一下，我得按照结构要求，先给出核心结论，再详细展开背景、机理、影响、策略以及比较分析。可能需要引用一些方程或参数，比如RMP的磁场幅度、颗粒注入的速率等，但我不太记得具体数值，可能需要做出一些合理的假设。
-确保回答清晰，分点明确，每部分都有足够的细节。比如在背景部分，要说明托卡马克中的等离子体边界，为什么会出现ELMs，可能涉及的关键参数如安全因子q、密度梯度等。在策略部分，要解释RMP如何工作，颗粒注入的作用机制。
-最后，总结ELMs对实验和工程的意义，强调控制ELMs的重要性，以及未来可能的研究方向。可能还需要提到其他控制方法，比如射频波加热或流动驱动，但问题中只提到了RMP和颗粒注入，所以可能需要集中在这些方法上。
-总的来说，我需要系统地组织信息，确保每个部分都覆盖到问题要求的内容，同时保持语言的准确性和专业性。可能还需要检查是否有遗漏的关键点，比如ELMs的触发条件或不同类型的触发机制，确保回答全面。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 边缘局域模（ELMs）是托卡马克等离子体边界区域的一种不稳定性现象，主要类型包括Type-I和Type-II，它们会导致等离子体约束性能下降并对第一壁部件造成潜在损伤。大型装置如ITER主要通过共振磁扰动（RMP）和颗粒注入等策略来缓解ELMs的影响。
 ---
 ### 背景与概念  
@@ -5883,7 +5135,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -5909,15 +5161,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，今天我要讨论锯齿不稳定性，也就是锯齿现象。首先，我得了解这是什么。锯齿不稳定性通常出现在托卡马克等离子体的芯部，是一个周期性的现象，表现为等离子体的亮度、温度和密度等参数的突然下降和恢复。
-那么，锯齿现象是如何产生的呢？我记得这是与磁流体动力学（MHD）相关的不稳定性。托卡马克中的等离子体被磁场约束，但如果某些参数变化导致稳定状态被打破，就会发生不稳定性。锯齿现象可能涉及到等离子体中的能量积累和重新分配。
-我之前学过，等离子体中的温度梯度和密度梯度可以驱动MHD不稳定性。当这些梯度超过某个临界值时，就会触发不稳定性，导致等离子体状态的突然变化。锯齿现象可能就是这种情况的一种表现。
-还有，锯齿现象中涉及磁重联机制。磁重联是磁场线重新连接的过程，释放大量能量。这可能在锯齿崩溃和恢复过程中起作用，导致局部的磁场结构变化，进而影响等离子体的约束。
-接下来，我需要考虑锯齿不稳定性对等离子体芯部约束的影响。芯部是聚变反应的主要区域，如果约束被破坏，会影响聚变效率和等离子体的稳定性。锯齿崩溃会导致温度和密度的突然下降，这可能降低聚变反应速率，同时增加能量损失，对整体的等离子体性能产生负面影响。
-此外，我还需要比较锯齿不稳定性与其他MHD不稳定性，比如新经典撕裂模（NTM）。两者都涉及MHD不稳定性，但触发机制和影响可能不同。锯齿不稳定性主要是周期性的，影响芯部约束，而NTM可能更多地影响边界区域，导致撕裂模的形成，进而影响整体的等离子体稳定性。
-总结一下，锯齿不稳定性是一个周期性的MHD现象，涉及磁重联机制，对等离子体芯部的约束有显著影响，可能与NTM等其他MHD不稳定性有关。但具体的物理过程和影响需要进一步的理论分析和实验验证。
-&lt;/think&gt;
-### 锯齿不稳定性（Sawteeth）的物理过程
+          <t>### 锯齿不稳定性（Sawteeth）的物理过程
 **1. 核心结论**  
 锯齿不稳定性是一种周期性MHD现象，通过磁重联机制导致等离子体芯部能量的周期性崩溃和恢复，影响芯部约束性能，并与其他MHD不稳定性如NTM存在相互作用。
 ---
@@ -5963,7 +5207,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -5989,15 +5233,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>好，我现在需要详细阐述电阻壁模（RWMs）的物理特性，以及它对托卡马克先进运行模式的威胁。同时，还要讨论等离子体旋转和主动反馈控制系统在稳定化RWMs中的作用。
-首先，我得理解RWMs的基本概念。RWMs是指在托卡马克等离子体中，由于等离子体与第一壁之间的电阻耦合所引起的不稳定模。它们会形成径向对流的模式，导致等离子体的位移，进而威胁到装置的稳定性和长脉冲运行。
-接下来，RWMs对托卡马克运行的威胁主要体现在以下几个方面。第一，RWMs会导致等离子体垂直位移（VDE），这可能引起等离子体接触器壁，导致严重的等离子体失稳或损坏装置结构。第二，即使没有发生垂直位移，RWMs的存在也会引起等离子体的形状变化，影响等离子体约束性能，导致能量损失。第三，RWMs还可能导致磁流结构的变化，影响内部运输垒（ITB）的形成和维持，进一步影响等离子体的高性能运行。
-现在，讨论等离子体旋转在稳定化RWMs中的作用。等离子体的旋转可以通过增加等离子体相对于第一壁的角动量，从而改变RWMs的不稳定性。旋转的作用可以分为两种情况：等离子体旋转方向与RWMs的自然旋转方向相同和相反的情况。当等离子体旋转与RWMs的自然旋转方向相反时，可以显著抑制RWMs的发展。这种抑制作用主要是通过增加系统的有效阻尼来实现的。具体的旋转速度和方向需要根据等离子体参数进行调整，通常需要使用现代的控制方法，如旋转场电流驱动，来稳定RWMs。
-然后，讨论主动反馈控制系统在RWMs稳定化中的作用。主动反馈控制系统通过实时检测RWMs的增长，调整等离子体参数以抑制其发展。这些系统通常包括磁诊断系统、反馈算法和控制执行机构。磁诊断系统用来检测RWMs的生长，反馈算法根据检测到的信号调整控制参数，控制执行机构则执行这些调整。这样的系统能够有效地抑制RWMs，保护等离子体的稳定运行。
-此外，还需要考虑等离子体旋转和主动反馈控制系统的协同作用。两者结合起来，能够更有效地抑制RWMs，提高托卡马克装置的稳定性和运行能力。通过合理设计控制策略，可以优化等离子体旋转和反馈控制之间的相互作用，进一步增强系统的稳定性。
-最后，总结一下，RWMs是托卡马克等离子体中一种危险的不稳定性，对先进运行模式构成严重威胁。通过利用等离子体旋转和主动反馈控制系统，可以有效地抑制RWMs的发展，确保等离子体的稳定性和高性能运行。这对于实现可持续的聚变能具有重要意义。
-&lt;/think&gt;
-### 电阻壁模（RWMs）的物理特性及其对托卡马克先进运行模式的威胁
+          <t>### 电阻壁模（RWMs）的物理特性及其对托卡马克先进运行模式的威胁
 #### 1. 核心结论
 电阻壁模（RWMs）是托卡马克等离子体中的一种低频磁流体力学不稳定性，会导致等离子体垂直位移和形状畸变，威胁等离子体的稳定性和高性能运行。等离子体旋转和主动反馈控制系统是抑制RWMs的关键手段。
 #### 2. 背景与概念
@@ -6042,7 +5278,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -6068,16 +5304,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>好，我现在需要回答用户关于速度空间不稳定性的问题。首先，我得理解什么是速度空间不稳定性。根据用户提供的例子，双流不稳定性、碰撞－尾部不稳定性，这些都是速度空间不稳定性的例子。它们在聚变等离子体中，尤其是在中性束注入或波加热的场景中，显得尤为重要。
-首先，核心结论部分，我应该明确地指出速度空间不稳定性是什么，然后通过背景与概念来详细说明相关的物理背景和关键概念，包括符号和单位。接下来，我需要分别解释双流不稳定性、碰撞－尾部不稳定性，包括它们的驱动机制。
-在进行理论推导或机理分析时，我需要用LaTeX写出方程，并在每一步解释所用的假设或近似。如果问题需要数值条件，我还要进行定量估算或示例计算。如果没有具体数值，我可以给出典型参数的范围作为量级估算。
-然后，工程或实验意义部分，我需要说明这些不稳定性对聚变装置设计、运行控制、诊断、材料或安全的具体影响。比较与拓展部分，如果存在多种模型或方案，我应该列出它们的优缺点，并指出适用条件。
-最后，要点总结部分，我需要用一两句话重申最重要的信息或建议。
-在写作时，我需要确保语言流畅，结构清晰，使用小标题或项目符号来方便快速阅读。方程使用LaTeX书写，单位在首次出现时给出规范单位。如果题目信息不足以得出唯一答案，我需要先阐明必要的假设或指出需要进一步的信息。
-保持严谨和客观，不输出未经验证的猜测。这是至关重要的，因为聚变等离子体物理是一个高度专业化的领域，需要精确和准确的信息。
-现在，根据这些思考，我将按照用户提供的答题规范，一步步构建答案。首先，核心结论，然后依次展开各个部分，确保每个部分都涵盖了必要的内容，且符合用户的要求。
-&lt;/think&gt;
-### 什么是速度空间不稳定性？
+          <t>### 什么是速度空间不稳定性？
 #### 核心结论
 速度空间不稳定性是由于等离子体中粒子速度分布的不均匀性而导致的波动不稳定性，常见于聚变等离子体的加热和注入场景。
 #### 背景与概念
@@ -6146,7 +5373,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -6172,17 +5399,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，我现在遇到了一个关于聚变等离子体物理的问题，需要比较分析宏观MHD不稳定性（比如Kink模）和微观漂移波不稳定性（比如ITG/ETG模）的不同之处。这个问题看起来有点复杂，但我得慢慢理清楚思路。
-首先，我得明确这两种不稳定性各自的特点。宏观MHD主要是大尺度的，涉及到等离子体整体的运动，而微观的漂移波则是在小尺度上起作用，和粒子的运动有关。Kink模我记得是托卡马克中的一个典型问题，会导致等离子体形状的变化甚至破裂。而ITG和ETG模则更多是在离子温度梯度较大的情况下引发的，影响能量传输。
-接下来，我要比较它们的驱动机制。宏观MHD可能主要受到磁场拓扑和等离子体压力的影响，而微观的漂移波则与离子和电子的温度梯度以及速度漂移有关。这可能涉及到不同的物理机制，比如MHD不稳定性可能涉及到磁流体力学方程，而漂移波可能和动理学效应有关。
-然后是空间尺度。宏观MHD的问题通常涉及较大的区域，可能与整个装置的尺寸相当，比如托卡马克的半径级别。而漂移波的波长则更短，可能在几十到几百毫米的量级，更局部化。
-时间尺度方面，宏观MHD的不稳定性通常发展得比较慢，可能在秒级或更长时间。而漂移波的不稳定性则更快，可能在毫秒或更短的时间内发展，这可能是因为它们涉及更快速的粒子运动。
-对等离子体的影响方面，宏观MHD可能导致等离子体的大规模破裂或限制，影响聚变反应的整体效率。而微观的漂移波则更多影响能量的输运，尤其是热传导，可能导致能量散失，影响等离子体的维持。
-现在，我需要把这些思考整理成一个结构化的回答，分点讨论驱动机制、空间尺度、时间尺度和对等离子体的影响。同时，可能还需要提到一些典型的参数，比如波长、频率、触发条件等，来更具体地比较两者。
-在思考过程中，我需要确保自己没有遗漏关键点，比如MHD不稳定性可能还有其他因素，如电流分布，而漂移波可能与离子的不稳定性层有关。此外，工程上的影响也可能不同，比如宏观问题可能需要结构设计上的调整，而微观问题可能需要控制温度梯度。
-最后，我要确保回答清晰，每个部分都有足够的细节支持，并且使用正确的术语和单位，如特斯拉、米、秒等。这样，读者才能清楚地理解这两种不稳定性之间的主要区别。
-&lt;/think&gt;
-## 驱动机制
+          <t>## 驱动机制
 **宏观MHD不稳定性 (如Kink模):**
 驱动机制主要与等离子体中的磁场拓扑和压力分布有关。Kink模是托卡马克等离子体中的一种典型MHD不稳定性，通常发生在纵场较弱或环向磁场分布不均时。它主要由等离子体的压强梯度和环形电流的相互作用引起。另外，纵场的不均匀性和外部导体的影响也会显著影响Kink模的稳定性。
 **微观漂移波不稳定性 (如ITG/ETG模):**
@@ -6238,7 +5455,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -6264,16 +5481,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于如何利用先进的等离子体诊断技术来识别和研究MHD不稳定的。首先，我需要回忆一下MHD不稳定性包括哪些类型，比如磁岛结构、模结构和增长率。然后，我得想想每种诊断技术的特点，比如ECE成像、微波反射计和软X射线阵列各自擅长什么。
-ECE成像，全称是电子回旋发射成像，它主要用来测量等离子体的电子温度，对吧？因为它通过检测等离子体中的电子回旋共振产生的辐射。所以，当有MHD活动，比如磁岛形成时，这些活动会导致温度分布的变化，ECE成像应该能够捕捉到温度的扰动，从而识别出磁岛的结构和位置。
-接下来是微波反射计，它通过测量微波在等离子体中的反射特性来诊断。微波反射计可以测量径向电场和密度梯度，特别是与MHD不稳定性相关的密度扰动。比如说，如果出现模结构，微波反射计应该能检测到相应的密度波动和相位信息，进而确定模的数量和结构。
-软X射线阵列则用于测量高能电子和离子的分布，因为软X射线通常来自热等离子体中的高能粒子。当MHD不稳定性发生时，比如磁岛，可能会引发高能粒子的加速，软X射线阵列可以捕捉到这些粒子的分布变化，帮助识别不稳定性的发展和位置。
-现在，把这些诊断技术结合起来，就能全面分析MHD不稳定性。ECE成像提供温度信息，微波反射计提供密度和电场数据，软X射线阵列显示粒子分布。通过综合这些数据，可以判断出MHD不稳定的类型、结构、位置以及增长率。
-不过，我得考虑每种诊断技术的局限性。比如，ECE成像的空间分辨率和覆盖范围可能有限，微波反射计可能对高频信号不敏感，软X射线阵列的空间和时间分辨率也可能有限。所以在实际应用中，可能需要根据具体实验条件和MHD不稳定的特性选择合适的诊断技术组合。
-另外，实验设计也很重要。比如，在实验中施加不同的磁场和加热条件，观察诊断数据的变化，从而推断出MHD不稳定的触发机制和控制参数。数据处理方面，可能需要使用数字信号处理或图像处理技术来提取特征，比如识别磁岛的形成或模的运动轨迹。
-总的来说，利用这些诊断技术可以提供多方面的信息，帮助识别和研究不同类型的MHD不稳定性，但需要综合考虑各种因素，并根据实验结果进行分析和验证。
-&lt;/think&gt;
-### 如何利用先进的等离子体诊断技术研究和识别MHD不稳定性
+          <t>### 如何利用先进的等离子体诊断技术研究和识别MHD不稳定性
 #### 1. 核心结论
 通过结合电子回旋发射成像（ECE成像）、微波反射计和软X射线阵列等诊断技术，可以有效识别磁岛结构、模结构，并定量测量MHD不稳定性的发展速率，为聚变装置的优化和控制提供关键数据。
 #### 2. 背景与概念
@@ -6310,7 +5518,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -6336,19 +5544,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于种子岛在新经典撕裂模（NTM）发展中的关键作用，以及哪些物理过程或事件可能提供这些种子岛的问题。首先，我需要明确什么是种子岛，以及NTM的发展机制。
-种子岛指的是等离子体中的小扰动区域，这些扰动能够触发或促进NTM的增长。NTM本身是一种撕裂模不稳定性，它涉及到等离子体中的磁流面断裂，可能导致能量释放和等离子体位形的快速变化，这对托卡马克装置的运行稳定性至关重要。
-接下来，我需要考虑哪些物理过程可能生成这些种子岛。用户提到的可能包括锯齿活动（Sawtooth Oscillations）、边缘局域模式（ELMs）、误差场（Error Fields）等。我得逐一分析这些过程如何产生种子岛，并影响NTM的发展。
-首先是锯齿活动。锯齿活动是托卡马克中常见的内部扰动，通常由q-profile的起伏引起，特别是当q值降到1以下时。锯齿的崩溃会释放大量能量，并可能在内部区域产生大的磁扰动，这些扰动可能成为种子岛，触发NTM。
-然后是边缘局域模式（ELMs）。ELMs是高约束等离子体中发生的边缘区域的不稳定性，通常伴随着能量和粒子的快速释放。ELMs可能导致等离子体边界区域的磁扰动，这些扰动可能传播到内部，成为种子岛，促进NTM的发展。
-误差场也是一个重要因素。误差场是指托卡马克装置中的不完美磁场，包括剩磁、线圈误差等。误差场可能导致磁流面的变形和断裂，特别是在磁感线弯曲的地方，容易产生种子岛，成为NTM发展的触发点。
-此外，外部干扰，如射频波的注入，也可能在特定区域产生扰动，形成种子岛。这些干扰可能在等离子体的某些区域产生局部的磁扰动，从而促进NTM的增长。
-在分析这些过程时，我需要考虑它们各自的物理机制。例如，锯齿活动主要涉及q-profile的动态变化，而ELMs则与边缘区域的稳定性和约束有关。误差场的影响则更依赖于磁场的不完美性和装置的对称性。这些不同的物理过程生成种子岛的方式和位置可能有所不同，从而影响NTM的发展路径和严重程度。
-另外，我还需要考虑这些种子岛对NTM发展的具体影响。例如，种子岛的位置、大小和强度如何影响NTM的增长速度和最终的不稳定性程度。这可能涉及到磁流面的相互作用、能量释放的机制以及等离子体响应等因素。
-在思考过程中，我可能会遇到一些不确定的地方，比如某些物理过程的具体触发条件或它们如何与NTM相互作用。这时候，我需要回顾相关的文献和理论，以确保我的分析是准确和全面的。
-总的来说，种子岛在NTM发展中的作用是关键的，而锯齿活动、ELMs、误差场和外部干扰等过程都可能成为种子岛的来源。理解这些过程如何生成种子岛，以及它们如何影响NTM的发展，对于优化托卡马克装置的运行和提高等离子体的稳定性具有重要意义。
-&lt;/think&gt;
-### 种子岛在新经典撕裂模（NTM）发展中的关键作用
+          <t>### 种子岛在新经典撕裂模（NTM）发展中的关键作用
 #### 1. 核心结论
 种子岛为NTM提供了初始的扰动，导致磁流面的断裂，进而引发能量释放和等离子体不稳定。
 #### 2. 背景与概念
@@ -6379,7 +5575,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -6405,27 +5601,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在遇到了一个关于ITER未来聚变装置不稳定控制策略设计的问题。作为一个刚开始学习聚变物理的学生，我得先理清楚这个问题涉及的关键点。首先，问题是要设计一个综合性的不稳定性控制策略，需要考虑的关键因素包括哪些，以及如何权衡不同控制手段的有效性和工程可行性。
-首先，我记得托卡马克装置中常见的不稳定性主要有两类：一类是MHD（磁流体动力学）不稳定性，比如磁岛、kink不稳定性；另一类是高能粒子引发的不稳定性，如阿尔法粒子不稳定性。此外，边缘局域模（ELMs）也是需要考虑的问题，特别是在高约束模式（H-mode）下。
-接下来，问题涉及到三种控制手段：剖面控制、主动反馈控制和ELM缓解。每种手段都有其优缺点和适用条件，因此在设计综合控制策略时需要综合考虑这些因素。
-首先，剖面控制。这包括对温度、密度和电流密度的径向分布进行优化，以改善等离子体稳定性。比如，避免大的密度梯度以减少磁岛的增长，或者优化温度梯度以防止驱动不稳定性。剖面控制的调整相对容易，可以通过改变射频加热、中性束注入等手段实现。但是，剖面控制的效果可能受到加热系统的限制，而且调整剖面可能会影响等离子体的其他性能，如约束和能量输出。
-然后是主动反馈控制，比如使用线圈阵列（如RFM或误差场控制线圈）来实时抑制不稳定性。这种方法能够快速响应，避免不稳定性的发展，但需要复杂的传感器和控制系统，并且需要对等离子体扰动有快速的检测和反馈能力。同时，反馈系统可能会引入额外的不稳定性，或者在某些频率下变得无效。
-第三种是ELM缓解，如使用磁扰流器或瞬时加热。ELMs是高约束等离子体中的周期性爆发，可能导致壁材料的侵蚀。ELM缓解可以减少这些爆发的幅度和频率，从而延长等离子体的持续时间和提高稳定性。然而，ELM缓解可能会降低等离子体的约束性能，影响能量输出。
-现在，我需要权衡这些控制手段的有效性和工程可行性。比如，剖面控制虽然调整起来相对容易，但可能在某些情况下无法完全消除不稳定性，特别是在高频不稳定性出现时。而主动反馈控制则需要高性能的硬件和控制系统，可能会增加装置的复杂性和成本。
-此外，还需要考虑这些控制手段之间的相互作用。例如，剖面控制可能会影响等离子体的响应特性，从而影响反馈控制的效果。因此，设计一个综合策略需要协调各种手段，确保它们在不同的运行条件下都能有效工作。
-另一个关键因素是实时监测和诊断能力。为了实施反馈控制，需要实时监测等离子体中的扰动，如使用磁探针或干涉仪来检测MHD不稳定性。同时，诊断系统需要有足够的分辨率和响应速度，以支持快速的反馈控制。
-此外，装置的设计参数也会影响不稳定性的控制策略。例如，ITER具有较大的装置尺寸，这可能会影响某些控制手段的适用性。较大的尺寸可能导致等离子体响应更慢，从而影响反馈控制的有效性。因此，在设计控制策略时需要考虑ITER的具体参数，如磁场强度、等离子体半径、加热功率等。
-总结一下，设计一个综合性的不稳定性控制策略需要考虑以下关键因素：
-1. 不稳定性的类型和特征，包括MHD不稳定性、高能粒子不稳定性以及ELMs。
-2. 控制手段的有效性，包括剖面控制、主动反馈控制和ELM缓解的优缺点。
-3. 工程可行性，包括硬件要求、控制系统的复杂性和维护成本。
-4. 各控制手段之间的相互作用和协调。
-5. 实时监测和诊断能力。
-6. 装置设计参数对控制策略的影响。
-在权衡不同控制手段时，需要根据具体的运行条件和装置特点，选择最有效的组合。例如，在某些情况下，剖面控制可能不足以完全抑制不稳定性，因此需要结合反馈控制和ELM缓解来提高整体稳定性。
-最后，还需要进行实验验证，以评估各种控制策略在实际运行中的效果，并进行优化调整。这可能需要在ITER装置上进行多次实验，收集数据并分析结果，以改进控制策略。
-&lt;/think&gt;
-针对ITER等未来聚变装置设计一个综合性的不稳定性控制策略，需要考虑的关键因素包括不稳定性类型、控制手段有效性、工程可行性以及相互作用等。以下是分步骤的解决方案：
+          <t>针对ITER等未来聚变装置设计一个综合性的不稳定性控制策略，需要考虑的关键因素包括不稳定性类型、控制手段有效性、工程可行性以及相互作用等。以下是分步骤的解决方案：
 1. **识别不稳定性类型**：
    - 识别主要的MHD不稳定性（如磁岛、kink）和高能粒子不稳定性（如阿尔法粒子不稳定性）。
    - 确定是否需要缓解边缘局域模（ELMs）。
@@ -6511,7 +5687,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -6537,19 +5713,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好的，我现在要解答的问题是关于托卡马克装置中的L模式、H模式和I模式的比较，以及I模式为何被认为是未来聚变反应堆有吸引力的运行模式。作为一个刚开始学习聚变等离子体物理的学生，我对这些模式还不是很熟悉，所以需要仔细思考和理解。
-首先，我需要明确什么是托卡马克装置。托卡马克是一种环形磁约束装置，用于实现受控核聚变。等离子体在其中被磁约束，通过加热使其达到高温，从而发生聚变反应。在托卡马克中，等离子体的运行模式直接影响其性能和约束效果。
-接下来，我要比较L模式、H模式和I模式的主要特征。根据之前的阅读，我了解到这些模式在输运特性、能量约束、边缘结构以及不稳定性行为上有显著不同。
-L模式（Low confinement mode）是托卡马克的基本运行模式，具有较低的能量约束能力。在L模式下，等离子体的边缘区域输运较高，能量容易泄漏，导致整体约束性能较差。这种模式下的热损失主要是由于等离子体中的湍流引起的。边缘输运垒在这个模式下并不明显，或者说比较弱，导致粒子和能量的泄漏较多。
-H模式（High confinement mode）是托卡马克中的一种高约束模式。与L模式相比，H模式具有更强的能量约束，能量泄漏减少，从而可以达到更高的等离子体温度和密度。H模式的一个显著特征是形成一个强的边缘输运垒（Edge Transport Barrier, ETB），这个垒阻止了粒子和能量从边缘向外部泄漏，从而提高了约束性能。H模式通常伴随着等离子体中的电流动态（E×B shearing）和径向电动势（radial electric field），这些因素有助于抑制湍流，改善约束。
-I模式（Improved confinement mode）被认为是一种介于L模式和H模式之间的模式，也可能是在H模式的基础上进一步优化而来的。I模式具有与H模式相当的高能量约束，但同时具有更稳定的边缘结构，ELM（边缘局域模）行为较少或者更可控。ELM是H模式下常见的一种不稳定性，会导致等离子体的能量突然释放到边缘，可能对装置的材料表面造成损害。I模式由于其边缘结构的稳定性，减少了ELM的发生，从而减少了对装置材料的损害，提高了运行的稳定性和可行性。
-在比较这些模式时，我还需要考虑粒子与能量约束、杂质输运特性。L模式由于较低的约束性能，粒子和能量的泄漏较多，影响聚变反应的效率。H模式通过ETB增强了约束，但需要面对ELM的问题，可能会导致杂质积累和能量损失。I模式则在保持高约束的同时，减少了ELM的影响，有助于更好地控制杂质输运，避免杂质积累对等离子体性能的负面影响。
-接下来，思考I模式为何被认为是未来反应堆有吸引力的运行模式。这可能与其高约束性能和较低的不稳定性有关。未来聚变反应堆需要高效的能源产出，而I模式能够提供与H模式相当的高约束，同时减少由于ELM带来的问题。这不仅提高了装置的运行稳定性，还减少了维护和材料更换的需求，降低了运行成本。此外，I模式的结构可能更容易控制和优化，适合于大规模的聚变装置。
-我还需要思考这些模式的形成机制和影响因素。例如，L到H的转变通常需要特定的等离子体参数和外部条件，如离子的驱动电流和热输入。I模式可能需要更精细的等离子体控制，包括磁场配置、加热方式和注入粒子等。这些因素都会影响模式的稳定性及其在实际装置中的应用。
-另外，杂质输运在聚变装置中是一个关键问题。杂质会影响等离子体的吸收率，降低聚变反应的效率，甚至可能导致等离子体性能的恶化。在H模式中，由于ETB的存在，杂质可能在边缘积累，而I模式由于其边缘结构的稳定性，可能更有效地抑制杂质的输运，减少对等离子体的影响。
-总的来说，理解L模式、H模式和I模式的区别，以及I模式的优势，需要从输运特性、约束性能、边缘结构和不稳定性行为等多个方面进行分析。通过对这些模式的比较，可以更清楚地认识到I模式在未来的聚变反应堆中的潜在价值，尤其是在提高约束性能的同时减少不稳定性带来的负面影响。
-&lt;/think&gt;
-### 托卡马克运行模式比较：L模式、H模式与I模式
+          <t>### 托卡马克运行模式比较：L模式、H模式与I模式
 托卡马克装置中，等离子体的运行模式直接影响其聚变性能和稳定性。以下将详细比较L模式、H模式和I模式的主要特征，并探讨I模式为何被认为是未来聚变反应堆的理想运行模式。
 #### 1. 模式定义与基本特征
 - **L模式（Low confinement mode）**：这是托卡马克的基本运行模式，具有较低的能量约束能力。L模式的边缘输运垒较弱，导致粒子和能量泄漏较多，整体约束性能较差。等离子体的热损失主要由湍流引起，导致温度分布较平缓。
@@ -6578,7 +5742,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -6604,20 +5768,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在有一个问题需要解决，是关于托卡马克等离子体启动阶段的。问题分为两部分，首先是估算击穿所需的最小环向电场，也就是Paschen最小场。然后，第二部分是在给定时间Δt内，通过中心螺线管驱动等离子体电流到Ip，需要推导中心螺线管所需的磁通变化量ΔΨCS的表达式。
-好的，首先我得搞清楚第一部分。击穿是指气体从绝缘状态变为导电状态的过程，这在托卡马克启动时很重要。我记得Paschen定律是关于气体击穿电压和电场的关系的，可能还涉及到气体压力和间隙长度等因素。所以，我应该先回顾一下Paschen定律的内容，然后应用它来计算最小环向电场。
-Paschen定律中的击穿场强E_b可以用公式表示为：E_b = (V_b / d)，其中V_b是击穿电压，d是间隙距离。但是在这个托卡马克的场景中，环向电场E_θ可能需要用不同的方式来表示，可能涉及到等离子体的半径R或者其他几何参数。
-接下来，我需要考虑等离子体的参数，比如气体类型（假设是氘氚混合气体）、压强P、温度T等等。这些参数会影响击穿的条件。不过，问题中并没有给出具体的数值，所以我可能需要使用典型参数来进行估算。例如，托卡马克中的气体压力可能在较低的范围内，大约是10^-2到10^0 Torr左右，温度可能在室温或稍微高一些。
-现在，转向第二部分。中心螺线管用来驱动等离子体电流，这个过程涉及到电磁感应定律。我需要推导出磁通变化量ΔΨCS的表达式。根据法拉第电磁感应定律，感应电动势E与磁通变化率dΨ/dt成正比，即E = -dΨ/dt。在这个问题中，等离子体的电流变化是由中心螺线管产生的磁场变化驱动的。
-已知等离子体电流从0增加到Ip，时间间隔为Δt。等离子体的电感为Lp，电阻为Rp。因此，电流的变化率是dI/dt = Ip / Δt。根据电路理论，总电压降包括电感压降和电阻压降，即E = Lp * dI/dt + Rp * I。这里的E实际上就是由中心螺线管产生的感应电动势。
-将E代入法拉第定律，得到：ΔΨCS = Lp * Ip + Rp * (Ip * Δt)。不过，这可能有点简化，我需要更详细地推导一下。
-首先，根据法拉第定律，感应电动势E = -dΨCS/dt。而这个E同时满足等离子体的电路方程：E = Lp * dI/dt + Rp * I。因此，我们有：dΨCS/dt = - (Lp * dI/dt + Rp * I)。接下来，我需要积分这个表达式从时间0到Δt，其中I从0变化到Ip。
-积分的结果应该是：ΔΨCS = - ∫ (Lp * dI/dt + Rp * I) dt。由于dI/dt是Ip / Δt，且I从0线性增加到Ip，因此积分可以分解为两部分：Lp * ∫ dI/dt dt = Lp * Ip，以及Rp * ∫ I dt。∫ I dt从0到Δt，I(t) = (Ip / Δt) * t，所以∫ I dt = (Ip / Δt) * (Δt^2)/2 = (Ip * Δt)/2。因此，ΔΨCS = - [Lp * Ip + Rp * (Ip * Δt)/2]。
-不过，这里有一个问题，中心螺线管产生的磁通变化ΔΨCS应该是正的，而根据上面的推导，得到的结果是负的。这可能是因为方向的问题，或者我在积分过程中符号处理不当。可能需要重新检查一下符号。
-总之，推导的大体方向是正确的，可能需要再核对一下符号和积分过程，确保结果合理。同时，可能需要考虑单位一致性，确保各物理量的单位都匹配，比如电感Lp的单位是亨利，电阻Rp的单位是欧姆，时间Δt的单位是秒，电流Ip的单位是安培。
-好的，现在我已经大致理清了思路，接下来就可以按照规范一步步解答了。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 在托卡马克等离子体启动阶段，击穿所需的最小环向电场（Paschen最小场）可通过 Paschen 定律估算，而中心螺线管所需的磁通变化量 ΔΨCS 的表达式为：
 \[
 \Delta \Psi_{CS} = L_p I_p + R_p \frac{I_p \Delta t}{2}
@@ -6706,7 +5857,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -6732,17 +5883,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于托卡马克中等离子体位形的精确控制及其重要性，特别是垂直不稳定性和快速反馈控制系统的设计。首先，我需要理解用户的问题结构，他们希望得到详细的解答，按照特定的格式。
-用户的问题分为两个主要部分：控制的重要性及其方法，以及垂直不稳定性及其控制系统设计。根据之前的回答，我需要先列出核心结论，然后分点详细阐述。
-首先，核心结论部分需要简洁明了，说明控制的重要性以及垂直不稳定性快速反馈系统的作用。接下来，背景与概念部分，我应该介绍托卡马克的磁约束机制，等离子体位形的各个参数，以及垂直不稳定性带来的问题。
-然后是原理与推导，这部分需要解释等离子体位形控制的基本原理，以及垂直不稳定性发生的原因。接着是定量估算或示例，可能需要引用一些典型参数来说明。
-工程或实验意义部分，要强调精确控制对装置运行和安全的重要性，以及快速反馈系统如何提高等离子体的稳定性。比较与拓展可能涉及到不同控制方法的比较，以及适用条件。
-最后，要点总结部分需要再次强调关键点，确保用户明确主要信息。
-在思考过程中，我需要确保每个部分都有足够的细节，同时避免过于技术化，使用户能够理解。另外，要注意使用正确的物理量单位和符号，确保推导过程的严谨性。
-可能需要假设一些典型参数，如等离子体电流、频率范围等，以便进行估算。同时，如果问题中没有给出具体数值，可以用量级估算来代替。
-总体来看，这个过程需要系统地梳理问题，确保每个部分都覆盖到，并且逻辑清晰，结构合理。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 托卡马克中等离子体位形的精确控制是维持磁约束、优化能量 confinement 以及防止设备损坏的关键。垂直不稳定性（VDE）是托卡马克运行中的一种危险现象，需通过快速反馈控制系统进行实时抑制。
 ---
 ### 背景与概念  
@@ -6804,7 +5945,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -6830,20 +5971,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于托卡马克破裂的，他们想知道什么是托卡马克破裂，主要的破裂前兆和触发机制是什么，以及破裂对装置的危害，比如热负荷、电磁力和逃逸电子。
-首先，我需要明确托卡马克破裂的定义。破裂是一种等离子体失控现象，通常发生在高约束等离子体状态下。这种现象会导致等离子体参数急剧下降，比如温度和密度，同时释放大量能量，对装置造成危害。
-接下来，破裂的前兆。我记得主要的前兆包括等离子体性能突然下降，比如温度和密度快速降低。然后是等离子体位置的剧烈偏移，导致边缘等离子体迅速扩散到整个托卡马克内部。还有垂直位移事件，这可能引起等离子体与壁的接触。此外，MHD不稳定性，如压岛、锯齿状振荡等，也是常见的前兆。
-关于触发机制，主要是MHD不稳定性。例如，理想MHD的压岛不稳定性通常由等离子体的压力梯度过大引起。非理想MHD不稳定性，比如电阻压岛或撕裂模，可能由等离子体的电导率变化或电流分布不均匀导致。还有其他因素，如外部干扰或诊断系统的触发，比如微波加热导致的局部能量释放。
-然后是破裂对装置的危害。热负荷是一个主要问题，因为等离子体边缘会释放大量高能粒子，导致第一壁承受高热流，可能超过材料的耐受极限。电磁力方面，等离子体的快速运动会产生强大的电磁力，可能损坏支撑结构或线圈。逃逸电子则是指被强磁场束缚的高能电子，可能造成材料的溅射和损伤，同时影响等离子体的稳定性。
-总结一下，用户可能是在研究托卡马克装置的安全运行，或者是在进行相关实验设计。他们需要全面了解破裂的机理和应对措施，以确保装置的安全性和等离子体的稳定运行。
-接下来，我应该按照用户的答题规范来组织答案，确保每个部分都涵盖，并且使用清晰的小标题和项目符号，方便阅读。同时，要注意用词准确，避免猜测，保持客观严谨。
-首先，核心结论部分需要简洁明了，说明破裂的定义和主要前兆及触发机制。然后，背景与概念部分要解释托卡马克和破裂的基本概念，以及相关参数。
-在原理与机理分析中，详细描述触发机制，包括MHD不稳定性和其他因素。定量估算部分，可以举例说明热负荷和电磁力的具体数值，帮助用户理解其严重性。
-工程和实验意义部分，要指出设计和运行中的注意事项，比如优化轮廓和监控手段。比较与拓展部分，可以讨论不同的破裂模型及其适用条件。
-最后，要点总结要重申关键信息，强调监测和缓解的重要性。
-总的来说，用户的需求是全面了解托卡马克破裂，以便在实际应用中采取有效的预防措施。因此，答案需要详细且结构清晰，帮助他们准确掌握相关知识。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 托卡马克破裂是等离子体失去约束、性能急剧下降的过程，伴随热负荷、电磁力和逃逸电子等危害。主要前兆包括等离子体性能下降和位置偏移，触发机制为MHD不稳定性或其他外部触发。破裂会对第一壁和真空室造成严重损害。
 ---
 ### 背景与概念  
@@ -6894,7 +6022,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -6920,14 +6048,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于托卡马克破裂预测和规避技术的问题，特别是人工智能和机器学习在实时预测中的优势和挑战。首先，我得回顾一下托卡马克破裂的基本知识。托卡马克是一种环形磁约束装置，用于核聚变研究，等离子体在其中被加热到极高温度，由磁场约束。破裂指的是等离子体约束失败，导致能量突然释放，这会损坏装置，所以预测和避免破裂非常重要。
-接下来，我需要了解主要的破裂预测方法。首先，诊断监测应该是一个基础，通过各种传感器监测等离子体的参数，比如温度、密度、磁场扰动等。当这些参数超出正常范围时，可能预示着破裂的发生。其次，物理模型应该基于流体动力学方程，如MHD方程，来模拟等离子体的行为，预测可能的不稳定情况。然后，机器学习和AI作为数据驱动的方法，利用大量的历史数据训练模型，识别破裂前兆的模式。
-然后是规避技术，可能包括控制和反馈机制，比如调整射频加热，改变磁场配置，或者注入冷气体来稳定等离子体。
-关于AI和机器学习的优势，它们可以从大量复杂的数据中发现非线性模式，处理多变量问题，并且能够在实时环境中快速做出预测，这对于及时采取规避措施至关重要。挑战方面，数据质量和数量是一个问题，因为聚变实验数据可能有限且噪声大。模型的实时性也是一个挑战，需要高效的计算能力。此外，模型的可解释性不足，可能会影响操作人员的信任，以及实际部署中的可靠性和鲁棒性问题，因为AI模型需要在高压、高噪声的环境中稳定工作。
-我还需要考虑比较不同的方法，物理模型虽然准确但可能不够实时，而AI虽然快速但可能缺乏解释性。因此，结合两者可能是更好的解决方案。
-最后，总结一下，AI在破裂预测中有很大的潜力，但需要解决数据、计算效率、解释性和可靠性等问题，同时可以考虑多方法融合，以提升预测的准确性和实用性。
-&lt;/think&gt;
-### 综述主要的托卡马克破裂预测和规避技术
+          <t>### 综述主要的托卡马克破裂预测和规避技术
 #### 1. 核心结论
 托卡马克破裂预测主要依赖诊断监测和物理模型，而规避技术则包括控制和反馈机制，如调整加热和磁场配置。人工智能在实时预测中具有优势，但也面临数据、计算和解释性等挑战。
 #### 2. 背景与概念
@@ -6978,7 +6099,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -7004,16 +6125,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，用户让我讨论托卡马克破裂缓解的主要策略，特别是大规模气体注入（MGI）和碎裂弹丸注入（SPI）。还需要比较它们的优缺点、物理机制以及在SPARC和ITER等装置上的应用前景。好，我得先理解这些概念。
-首先，托卡马克破裂是什么意思呢？破裂指的是等离子体突然失去稳定性，导致剧烈的热量释放，可能损坏装置。因此，缓解破裂是保障装置安全运行的关键。
-接下来，MGI和SPI是两种主要的缓解策略。MGI是通过快速注入大量气体，比如氦气或氮气，来稀释等离子体中的氘氚燃料，从而降低破裂时释放的能量。而SPI则是注入小弹丸，通常是液态氦，迅速蒸发并在破裂区域扩散，同样起到稀释燃料的作用。
-那我要比较它们的物理机制。MGI主要依赖气体的快速扩散和混合，而SPI则是弹丸的快速蒸发和高比热容。两种方法都是为了吸收能量并减少聚变反应，但实现方式不同。
-然后，优缺点方面，MGI可能更容易实施，因为只需要气体注入系统，而SPI需要更复杂的注入机制，比如弹丸加速或定向。同时，MGI可能在稀释效率上有优势，因为气体可以更均匀地扩散。而SPI可能在时间响应上更快，因为弹丸直接击中破裂区域。
-在应用前景方面，SPARC和ITER都是大型托卡马克装置，面临更高的破裂风险。MGI已经在一些装置上得到了应用，而SPI作为新技术，还在研发和实验阶段。未来可能需要结合两者，根据破裂的具体情况选择最优策略。
-最后，我需要确保回答结构清晰，按照用户的要求，分成背景与概念、物理机制、优缺点比较、应用前景等部分，使用明确的小标题，并保持逻辑连贯。
-嗯，大致思路是这样，接下来就可以按照这个框架详细展开了。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 托卡马克破裂缓解的主要策略包括大规模气体注入（MGI）和碎裂弹丸注入（SPI），两者通过不同机制吸收能量并稀释燃料，但MGI在可靠性和工程可行性上更具优势，而SPI在特定场景下可能更高效。
 ---
 ### 背景与概念  
@@ -7057,7 +6169,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -7083,15 +6195,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好的，我现在需要分析实现托卡马克和仿星器稳态或长脉冲运行所面临的关键挑战。首先，我得理解什么是托卡马克和仿星器，它们都是磁约束核聚变装置，用于实现受控核聚变。稳态或长脉冲运行意味着这些装置需要长时间稳定地维持高温等离子体，这对技术和工程来说都是巨大的挑战。
-首先，连续的加热与电流驱动。托卡马克通常使用射频波加热，比如离子回旋共振加热和电子回旋共振加热。这些方法需要高效地将能量传递给等离子体，同时避免能量损失。仿星器可能使用的加热方法不同，比如中性束注入，这可能带来更高的复杂性和成本。电流驱动方面，托卡马克主要依靠自举电流，但要维持高约束模式可能需要外部电流驱动，比如微波驱动或偏滤器电流。而仿星器可能需要更多的外部驱动，因为自举电流可能更有限。
-接下来是热量和粒子的排除。托卡马克的偏滤器需要处理高热流，可能导致材料损伤。仿星器的结构可能更复杂，增加散热难度。粒子排除方面，需要高效排出杂质，否则会影响等离子体的稳定性。
-然后是等离子体与壁的相互作用。长时间运行会导致壁材料的侵蚀和杂质释放，影响等离子体性能。此外，壁材料的选择和处理对减少杂质释放至关重要，比如使用低活化材料或特殊涂层。
-部件的可靠性也是关键。托卡马克和仿星器都有复杂的部件，如超导磁体和偏滤器，这些部件在高温、高辐射环境下容易失效。因此，材料的选择和部件设计需要考虑长期可靠性和耐久性。
-比较两者，托卡马克可能在加热和电流驱动方面有更成熟的技术，但长期运行面临部件老化和材料疲劳的问题。仿星器在等离子体约束方面可能更稳定，但其复杂结构增加了设计和维护的难度。在工程意义上，解决这些挑战需要结合理论、实验和工程的全面研究，优化设计和材料，开发新的技术和诊断方法。
-总结来说，稳态或长脉冲运行的挑战涉及加热、散热、壁相互作用和部件可靠性。每个方面都需要深入研究和技术创新，以实现聚变能的实用化。
-&lt;/think&gt;
-### 分析实现托卡马克和仿星器稳态或长脉冲运行的关键挑战
+          <t>### 分析实现托卡马克和仿星器稳态或长脉冲运行的关键挑战
 #### 1. **核心结论**
 托卡马克和仿星器实现稳态或长脉冲运行面临的主要挑战包括高效连续加热与电流驱动、热量与粒子排除、等离子体与壁的长期相互作用以及关键部件的可靠性。这些挑战需要在理论、实验和工程层面综合解决。
 #### 2. **背景与概念**
@@ -7130,7 +6234,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -7156,14 +6260,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，用户想了解误差场在托卡马克中的来源，以及它如何影响等离子体的稳定性，特别是锁模现象。他们还想知道如何通过制造、安装和主动补偿线圈来控制这些误差场。
-首先，我得解释误差场的来源。可能来自制造和安装的不精确，材料的不均匀性，还有运行中的变形。这些都是物理上的因素，需要逐一列出。
-然后，误差场如何影响稳定性。我记得误差场会引发磁岛，导致锁模，这会限制等离子体的持续时间和性能。锁模是由于旋转的磁岛相互作用，引发不稳定性。
-接下来，解决方法。首先是制造和安装的高精度，这需要先进的制造技术，严格的质量控制，还有精确的安装，可能需要实时监控和调整。其次是主动误差场补偿，这可能涉及到传感器和反馈控制系统，快速检测和调整误差场。
-在解释过程中，我需要确保逻辑清晰，每个点都涵盖到位，并且用易懂的语言表达。可能还需要考虑用户是否有工程背景，是否需要深入的技术细节，或者只是需要概括性的解释。
-总结一下，用户的问题分为两个部分：误差场的影响和控制方法。我要确保每个部分都详细回答，同时保持结构清晰，便于阅读。可能还需要提供一些示例或实际应用中的情况，以增强理解。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 误差场主要来源于制造与安装偏差、材料不均匀性以及运行中的形变，会导致托卡马克等离子体发生锁模现象。通过高精度制造与安装、以及主动误差场补偿线圈可以有效抑制误差场的影响。
 ---
 ### 背景与概念  
@@ -7210,7 +6307,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -7236,21 +6333,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在要思考一下在长脉冲或稳态运行条件下，等离子体控制系统（PCS）需要哪些先进功能。特别是如何同时控制动理学剖面（温度、密度、旋转）和磁面位形。这个问题看起来有点复杂，但我慢慢梳理一下思路。
-首先，我需要了解等离子体控制系统的基本功能。PCS在聚变装置中负责实时监测和调整等离子体的状态，确保其稳定并满足实验需求。在长脉冲或稳态运行中，等离子体的状态可能会有更大的变化，因此PCS需要更先进的功能来应对这些挑战。
-动理学剖面包括温度、密度和旋转速度，这些都是等离子体的核心参数。而磁面位形则涉及托卡马克装置中的磁场结构，特别是磁面的位置和形状，这对等离子体的约束和稳定非常重要。同时控制这些参数可能需要PCS具备更强的协调能力和多变量控制算法。
-接下来，我想到了几个可能需要的功能：
-1. 多目标优化控制：PCS需要同时处理多个目标，如维持温度和密度的均匀分布，同时调整磁场结构。这可能涉及到一些优化算法，如模型预测控制或者基于状态反馈的控制策略。
-2. 高实时性：在长脉冲运行中，等离子体的变化可能会非常快，因此PCS需要有很高的处理速度，能够快速响应并调整控制变量。
-3. 强鲁棒性：系统的扰动或模型不确定性可能会导致控制效果不佳，因此PCS需要具备鲁棒控制能力，能够在一定范围内自动调整以维持等离子体的稳定性。
-4. 集成化诊断与反馈： PCS需要整合来自多个诊断系统的数据，如温度测量、密度测量和磁测量，然后将这些数据反馈到控制系统中，进行实时调整。
-5. 可预测性与模拟：利用高保真的模拟工具，PCS可以在实时控制中预测等离子体的行为，从而提前调整控制参数，避免不稳定性。
-在实现动理学剖面和磁面位形的同时控制方面，我想到可能需要同时调整射频加热、偏压电源和磁场线圈等控制手段。例如，使用射频波来加热等离子体并调整温度和密度，同时通过磁场线圈调整磁面的形状。这需要一个协同控制系统，能够协调这些不同的控制手段，以达到预期的等离子体状态。
-此外，先进诊断系统对于PCS的功能至关重要。需要有高时间分辨率和高空间分辨率的诊断工具，能够实时监测温度、密度和磁场的变化，为控制系统提供准确的数据支持。
-在控制算法方面，可能需要采用非线性控制方法，因为等离子体的行为通常是非线性的，特别是当涉及到动理学效应时。同时，分层控制结构，如高级监督控制和低级反馈控制的结合，可能有助于提高系统的稳定性和响应速度。
-综上所述，PCS需要具备多目标优化、高实时性、强鲁棒性、集成诊断与反馈以及先进控制算法等先进功能，才能在长脉冲或稳态运行条件下有效控制动理学剖面和磁面位形。这需要在硬件和软件两方面进行大量的开发和集成，确保各部分协调工作，维持等离子体的稳定运行。
-&lt;/think&gt;
-### 等离子体控制系统（PCS）在长脉冲或稳态运行条件下的先进功能
+          <t>### 等离子体控制系统（PCS）在长脉冲或稳态运行条件下的先进功能
 #### 1. 多目标优化控制
 **功能描述**：PCS需要同时控制温度、密度、旋转速度以及磁场位形。这涉及到多目标优化，确保所有参数均处于理想范围内。
 **实现方法**：采用高级优化算法，如模型预测控制（MPC），同时考虑多个控制目标，优化控制输入，如射频功率和磁场调节。
@@ -7297,7 +6380,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -7323,15 +6406,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>好的，我现在需要回答用户的问题，关于仿星器与托卡马克在等离子体运行和控制方面的本质区别，特别是破裂现象和运行边界的问题。首先，我应该理解问题的核心，然后逐步分析。
-用户提到仿星器的三维磁场构型，这与托卡马克的二维轴对称磁场有很大的不同。因此，我应该先从磁场结构出发，分析它们对等离子体稳定性的影响。托卡马克的破裂通常是由磁流中断引起的，而仿星器由于其复杂的磁场，可能在稳定性方面有不同表现。
-接下来，我需要确定仿星器是否也存在类似的破裂现象。根据我的知识，仿星器的等离子体确实可能经历破裂，但由于其三维结构，破裂的机制可能不同于托卡马克。这可能涉及不同的不稳定性类型，比如三维扰动的影响。
-然后，运行边界的问题。托卡马克的运行边界主要由压力限制决定，如Greenwald极限。仿星器的情况可能更复杂，因为其运行受到更多因素的影响，如磁场拓扑、几何形状和驱动电流的方式。这些因素可能决定了仿星器的等离子体参数范围，如密度和温度。
-我还需要比较两种装置的等离子体控制方式。托卡马克通常使用射频波加热和磁反馈控制来维持稳定，而仿星器可能依赖于不同的加热方法和更复杂的磁反馈系统，因为它们的磁场结构更复杂。
-在考虑工程或实验意义时，仿星器的三维磁场可以提供更好的稳定性和运行参数的扩展，这对未来聚变装置的设计有重要影响。此外，理解仿星器的运行边界有助于优化其设计，提高其在高密度和高温度条件下的性能。
-总结一下，我应该从磁场结构、破裂机制、运行边界、控制方式等方面进行比较，指出仿星器的独特之处及其在聚变研究中的潜在优势。这将帮助用户全面理解仿星器与托卡马克之间的本质区别。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 仿星器由于其三维磁场构型，相比托卡马克具有更好的稳定性，破裂现象较少，但其运行边界受磁场拓扑、几何参数和驱动电流的影响更大。
 ---
 ### 背景与概念  
@@ -7428,7 +6503,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -7454,15 +6529,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，今天有一个用户的问题需要比较三种辅助加热方法：中性束注入（NBI）、电子回旋共振加热（ECRH）和离子回旋共振加热（ICRH）。看起来这是一个聚变等离子体物理的专家问题，所以我得详细思考一下。
-首先，我要理解每种方法的基本物理原理。NBI是通过注入高能中性束，这些束与等离子体中的离子碰撞，将动能转化为热能。ECRH则是利用高频电磁波与电子的回旋共振，直接加热电子。ICRH则类似，但作用对象是离子，波的频率与离子的回旋频率匹配。
-接下来是能量的耦合机制。NBI因为中性束不带电，可以深入等离子体中心，所以能更有效地加热核心区域。而ECRH和ICRH都是通过电磁波，但由于等离子体对电磁波的吸收特性不同，ECRH主要加热电子，ICRH加热离子。此外，波的穿透深度可能受等离子体密度和磁场强度的影响。
-然后是加热效率。一般来说，NBI因为需要产生高能中性束，涉及加速离子、中和等步骤，能量转换效率可能较低，比如只有约30%。而ECRH和ICRH的效率可能更高，因为它们直接利用电磁波，可能达到50%以上。但具体数值可能需要查证。
-对等离子体参数的影响方面，NBI主要增加离子温度，ECRH增加电子温度，ICRH增加离子温度。此外，这些方法可能影响密度分布和电流分布。例如，NBI可能导致杂质释放，影响密度，而ECRH和ICRH可能在边缘区域有更多的能量沉积，影响电流分布。
-技术挑战方面，NBI需要产生高能的中性束，技术复杂且维护成本高。ECRH需要高功率的微波源，可靠性可能是个问题。ICRH则需要处理复杂的波-等离子体相互作用，可能导致波反射和等离子体不稳定。
-最后，我需要将这些信息组织起来，按照用户要求的结构进行详细比较。每个部分都要有核心结论、背景、原理、估算、工程意义等。确保逻辑清晰，信息准确，同时语言要专业但易懂。
-&lt;/think&gt;
-### 1. **核心结论**  
+          <t>### 1. **核心结论**  
 中性束注入（NBI）、电子回旋共振加热（ECRH）和离子回旋共振加热（ICRH）是聚变装置中三种主要的辅助加热方法，各有其独特的物理原理、能量耦合机制和适用场景，其技术挑战和对等离子体参数的影响也存在显著差异。
 ---
 ### 2. **背景与概念**  
@@ -7522,7 +6589,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -7548,17 +6615,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在要分析一下ITER计划中的中性束注入系统的关键技术和挑战，以及如何监测NBI的性能。首先，我对中性束注入系统（NBI）有一些基本的了解，但具体细节还需要进一步梳理。
-我记得ITER采用的是1 MeV的中性束，这意味着注入的能量比较高，这对于加热等离子体很重要。首先，负离子源的产生应该是一个关键技术。负离子的生成通常涉及到表面放电或者磁控放电，然后将这些负离子加速。在加速过程中，必须有很高的电压，可能需要兆伏特级别的加速器，这对材料和设计是一个挑战。
-接下来是负离子的中性化。中性化通常通过中性化器来实现，比如使用气态中性化器。这个过程需要将负离子转化为中性粒子，这样它们才不会被等离子体的磁场偏转，能够直接注入等离子体核心。中性化效率是一个关键参数，影响最终注入的中性束流强度。高效率意味着更多的能量被有效利用，反之则可能导致系统效率低下。
-然后是束线的长距离传输。从产生到注入点，束线需要很长的距离，可能在ITER中是几十米甚至更长。在这个过程中，束流可能会受到各种干扰，比如磁场泄漏、束流的散焦等。因此，保持束流的稳定传输是一个技术难点。束线的设计需要考虑磁场的控制、真空环境、以及束流的聚焦和导向。
-功率沉积控制也是关键。注入的中性束将能量沉积在等离子体中，需要精确控制沉积的位置和分布，以避免损坏装置材料或不均匀加热导致等离子体不稳定性。这涉及到束流在注入点的瞄准和功率分布的调控，可能需要实时监测和反馈控制。
-关于监测NBI的性能，特别是沉积剖面的监测，我想应该使用一些诊断工具。比如，可以使用光谱诊断，通过测量中性束与等离子体相互作用产生的光谱信号，来推断注入束的分布和能量。另一种方法是利用粒子探测器，测量注入束在等离子体中的轨迹和损失，从而得到沉积剖面的信息。
-此外，还有其他诊断方法，比如使用中性束本身的回旋运动来推断等离子体的磁场分布，或者通过测量束流的散射和反射来判断束流的传输效率。实时监测对于优化NBI系统的运行至关重要，因为任何偏差都可能影响等离子体的加热和控制。
-在分析过程中，我可能忽略了某些关键的技术点或者遗漏了一些诊断方法。例如，中性束注入系统中的束流传输可能还需要考虑热管理和束流的散焦问题，而诊断方面可能还有其他的先进技术，比如使用激光干涉测量等。不过，我需要先确保对每个部分都有基本的理解，然后再深入探讨细节。
-总的来说，中性束注入系统在ITER中的应用涉及多个关键技术和挑战，包括负离子源、中性化效率、束流传输和功率沉积控制。同时，性能监测需要多种诊断工具和技术的支持，以确保系统的高效运行和对等离子体加热的精确控制。
-&lt;/think&gt;
-### ITER计划中性束注入系统的关键技术特点与挑战
+          <t>### ITER计划中性束注入系统的关键技术特点与挑战
 1. **负离子源的产生与中性化**
    - **关键点**：负离子源的产生效率和质量直接影响NBI性能。常用的负离子生成方法包括表面放电和磁控放电。
    - **挑战**：在高能量条件下（如1 MeV），负离子源的稳定性和寿命面临考验，同时高电压加速器的设计需克服材料和绝缘问题。
@@ -7595,7 +6652,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -7621,17 +6678,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论电子回旋电流驱动（ECCD）在控制新经典撕裂模（NTM）中的应用原理，并估算所需驱动电流ICD的大小，同时还要说明如何调整发射镜角度来精确控制ECCD的功率沉积位置。
-首先，我需要理解NTM是什么。NTM是新经典撕裂模，是一种磁流体不稳定性，会导致磁岛形成，影响托卡马克装置的等离子体约束。ECCD是一种通过射频波驱动电流的方法，通常用来稳定这些不稳定的模式。
-接下来，问题要求估算稳定NTM所需的ECCD驱动电流ICD的大小。题目中给出了磁岛宽度W，位置半径r，以及安全因子q。我需要找到这些参数之间的关系，从而导出ICD的表达式。
-我想，这可能涉及到电流扰动模型。或许可以使用一些简化的公式，比如假设ECCD电流需要与NTM引起的电流扰动相当，这样才能抵消不稳定性。然后，将W、r、q这些参数代入公式，进行计算。
-然后，如何调整发射镜角度来控制ECCD的功率沉积位置呢？这可能涉及到波的传播特性，比如波矢方向与磁场的相互作用。调整发射镜角度可以改变波束的入射方向，进而影响功率沉积的位置，可能需要与磁岛的位置相匹配。
-在估算过程中，我可能需要假设一些典型的参数值，比如W、r、q的具体数值，或者使用某种简化的关系式来建立ICD与这些参数之间的联系。
-另外，还需要考虑工程意义，比如如何实际应用这些计算结果来设计或优化ECCD系统，以确保其有效地控制NTM，同时不影响其他等离子体参数。
-可能我需要回顾一下ECCD的基本原理和相关的公式，比如ECCD电流密度的表达式，以及它如何与磁岛的参数相互作用。也许涉及到一些积分或者微分方程，但在简化的模型中，可能可以使用近似的方法来估算。
-最后，总结一下整个过程，确保所有步骤都合理，并且得出的结论符合物理直觉。同时，指出可能的局限性或需要进一步研究的地方。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 电子回旋电流驱动（ECCD）通过在新经典撕裂模（NTM）磁岛区域内产生适当的电流扰动，来稳定磁岛，所需驱动电流ICD的大小与磁岛宽度W、位置r及安全因子q相关。调整发射镜角度可以控制ECCD功率沉积位置，使其与磁岛位置相匹配，从而实现有效控制。
 ### 背景与概念
 新经典撕裂模（NTM）是一种等离子体中由磁场不稳定性引起的磁岛结构，其形成和演化会显著影响托卡马克装置的等离子体约束性能。电子回旋电流驱动（ECCD）是一种利用电子回旋频率附近的射频波驱动电流的技术，能够有选择性地在特定区域产生电流，从而用于抑制或控制等离子体中的不稳定性。
@@ -7662,7 +6709,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -7688,17 +6735,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好，我现在要解释离子回旋共振加热（ICRH）中的两种加热机制：少数离子加热机制和模式转换加热机制。同时，还需要讨论ICRH天线的设计和与等离子体耦合时面临的主要物理和工程问题，比如杂质产生和鞘层效应。
-首先，我需要明确ICRH的基本原理。ICRH是一种通过射频波与等离子体中的离子产生共振来加热等离子体的方法。它的核心在于射频波频率接近离子的回旋频率，导致离子加速并将其动能转化为热能。
-接下来，考虑少数离子加热机制。这里的“少数离子”指的是等离子体中浓度较低的离子物种，如氘（D）或氚（T），而多数离子可能为氢（H）。当射频波的频率接近少数离子的回旋频率时，少数离子会受到强烈的加速，而多数离子由于频率不匹配，吸收的能量较少。这样，射频波的能量主要被少数离子吸收，进而通过碰撞将能量传递给多数离子，从而实现整体加热。这种机制的优势在于，可以通过选择适当的波频率来加热特定的离子物种，提高加热效率。
-然后是模式转换加热机制。ICRH波在进入等离子体时，会经历波模式的转换。例如，从天线发射的快波（fast wave）在穿过等离子体时，可能会在某个特定密度点处转换为慢波（slow wave）或其他模式。慢波更容易与离子产生共振，从而提高能量吸收效率。模式转换加热机制的关键在于波模式转换的位置和条件，这会影响加热的效果和天线的设计。
-接下来，讨论ICRH天线的设计和与等离子体耦合时的物理和工程问题。首先，杂质产生是一个主要问题。等离子体中的高能粒子可能会与材料相互作用，导致杂质进入等离子体，从而改变等离子体的组成和性能。这些杂质会影响ICRH波的吸收和传播，进而影响加热效率。
-其次，鞘层效应也是不容忽视的问题。天线与等离子体之间的过渡区域，即鞘层，具有较高的电场梯度，可能会导致射频波的反射或吸收，影响天线的有效发射。此外，鞘层中的高电场还可能引起等离子体中的粒子加速，进一步引发杂质的产生。
-此外，天线的设计还需要考虑波的频率、功率以及与等离子体的阻抗匹配。天线的几何结构和材料选择也会影响其与等离子体的耦合效率。例如，天线的形状、尺寸以及是否使用防护层等，都会影响波的发射和吸收。
-最后，工程实现方面，需要考虑天线的耐高温、抗辐射能力，以及在极端环境下的稳定性和可靠性。这些因素都会影响天线的设计和制造。
-综上所述，ICRH中的少数离子加热机制和模式转换加热机制是其加热等离子体的核心原理。而天线的设计和与等离子体的耦合过程中，则面临杂质产生和鞘层效应等主要物理和工程问题，这些都需要在设计和操作中得到妥善处理，以确保ICRH系统的有效运行。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 离子回旋共振加热（ICRH）通过两种机制实现：少数离子加热机制利用射频波与等离子体中浓度较低的离子物种发生共振，而模式转换加热机制则通过波在等离子体中的模式转换提高能量吸收效率。ICRH天线设计和等离子体耦合面临的主要问题包括杂质产生、鞘层效应、阻抗匹配及高频电磁环境下的材料性能。
 ---
 ### 背景与概念  
@@ -7742,7 +6779,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -7768,14 +6805,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，今天有个用户问了一个关于低杂波电流驱动（LHCD）的问题，还涉及到它在托卡马克稳态运行和电流剖面控制中的作用和局限性。我得仔细想想怎么回答这个问题。
-首先，我得回忆一下LHCD的基本原理。低杂波，应该是指频率较低的电磁波，通常在托卡马克等离子体中被用来驱动电流。我好像记得低杂波主要是通过和离子的相互作用来产生电流，而不是电子。因为电子的响应通常更快，但低杂波的频率可能和离子的回旋频率相匹配，所以主要和离子发生共振。
-然后，用户问为什么LHCD在边缘区域或低温条件下效率更高。边缘区域的等离子体参数可能比较低，比如温度较低，密度可能较高。低温下，电子的温度低，可能导致电子的运动被限制，这样低杂波更容易和离子发生作用。此外，边缘区域可能有较低的磁场，使得波能够更有效地传输和被吸收。这些因素都可能提高LHCD的效率。
-接下来，讨论LHCD在托卡马克中的作用。稳态运行是一个关键点，因为传统的电流驱动方法可能无法维持长时间的稳定。LHCD可以通过持续的波注入来维持电流，而不需要外部磁通变化，这有助于实现稳态运行。此外，在电流剖面控制方面，比如锯齿控制，LHCD可以用来调节电流的分布，防止电流过载或不均匀，从而稳定等离子体。
-不过，LHCD也有一些局限性。比如，它在高密度或高温条件下可能效果不佳，因为这些情况下波的吸收可能受到影响，或者离子的响应发生变化。另外，波束的指向和分布需要精确控制，否则可能导致电流驱动不均匀，反而引起不稳定性。还有，系统的复杂性和成本也是实际应用中的考虑因素。
-总结一下，我需要按照用户给的答题规范来组织回答。先给出核心结论，然后逐步深入，解释背景、原理、估算、工程意义，最后比较拓展和总结。要确保每个部分都清晰明了，用上必要的公式和典型参数，让用户能够全面理解LHCD的物理机制和实际应用中的优缺点。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 低杂波电流驱动（LHCD, Lower Hybrid Current Drive）通过低杂波与等离子体中离子的回旋共振，将波的动量传递给离子，从而产生电流。LHCD在等离子体边缘区域或较低温度下具有较高效率，是因为在这些条件下波的吸收和离子的回旋共振更为有效。LHCD在托卡马克的稳态运行、锯齿控制和q剖面整形中具有重要作用，但也存在对高密度敏感和复杂系统的局限性。
 ---
 ### 2. 背景与概念  
@@ -7830,7 +6860,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -7856,13 +6886,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于阿尔芬波加热的基本概念以及快慢阿尔芬波的区别，还有它在未来聚变装置中的优势。首先，我得回忆一下阿尔芬波的基本知识。阿尔芬波是等离子体中的磁流体力学波，涉及到磁场和流体的运动。
-快阿尔芬波和慢阿尔芬波的区别可能与它们的传播速度有关。快阿尔芬波的速度较快，可能与等离子体密度较低的情况有关，而慢阿尔芬波则可能在密度较高的区域传播，或者涉及到更多的流体动力学效应。
-接下来，传播和吸收特性。快阿尔芬波可能在更高的频率下传播，因此可能在特定的实验条件下更容易被加热。慢阿尔芬波可能传播速度较慢，吸收可能涉及更复杂的等离子体动力学过程，比如动理学效应，影响加热效率。
-阿尔芬波加热的优势可能在于其非侵入性和高效性。因为阿尔芬波可以深入等离子体内部，而不像射频加热那样可能需要复杂的结构，这可能减少装置的复杂性和维护成本。此外，阿尔芬波加热可能更均匀，有助于维持稳定的等离子体状态，这对聚变反应至关重要。
-在思考过程中，我需要确保这些概念是否正确，可能还需要查阅相关资料来确认快慢阿尔芬波的具体定义和特性，以及它们在加热中的具体应用。不过，基于现有的知识，这些应该是主要的考虑点。
-&lt;/think&gt;
-### 阿尔芬波加热的基本概念
+          <t>### 阿尔芬波加热的基本概念
 阿尔芬波加热（Alfven Wave Heating, AWH）是一种利用磁流体力学波（阿尔芬波）在等离子体中传播时的能量沉积来加热等离子体的技术。阿尔芬波是沿磁场传播的横波，其频率依赖于磁场强度和等离子体密度。AWH 通过激发和控制这些波，使其在特定区域吸收，从而提高等离子体的温度。
 ### 快阿尔芬波和慢阿尔芬波的传播与吸收特性
 1. **快阿尔芬波（Fast Alfven Wave, FAW）**
@@ -7889,7 +6913,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -7915,16 +6939,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，今天遇到了一个关于电子伯恩斯坦波（EBW）加热的问题，我需要详细思考一下，然后按照用户的要求给出结构化的回答。首先，我得明确问题的核心，EBW加热和传统电子回旋共振加热（ECRH）的区别，以及在高密度等离子体中的优势。
-首先，我应该回顾EBW的基本原理。EBW是一种电磁波，其频率在电子回旋频率附近。它通过电子的回旋运动与等离子体相互作用，实现加热。而ECRH则是利用电子回旋共振，将高频波的能量直接传递给电子，产生加热效果。
-接下来，考虑在高密度等离子体中的情况。高密度会导致等离子体的屏蔽效应增强，这会使得传统ECRH的波深入等离子体的能力减弱，加热效率降低。这时候，EBW的优势就体现出来了，因为它可以在相对较低的频率下工作，穿透能力更强，能够到达等离子体的更深处，从而提高加热效率。
-另外，EBW可能在过密等离子体中也有更好的表现，因为它的频率选择使得它可以避开等离子体对高频波的强烈吸收，从而减少能量的损失。这也意味着在高密度的情况下，EBW加热可以更有效地传递能量到等离子体，而ECRH则可能因为频率限制而无法有效工作。
-我还应该考虑EBW的其他潜在优势，比如其在不同的磁场梯度下的适应性，以及可能的波传播特性。例如，EBW可能在某些磁场配置下更容易传播，从而实现更均匀的加热，这对于维持等离子体的稳定性和性能非常重要。
-在回答时，我需要确保涵盖背景与概念，原理与推导，定量估算，以及工程意义等部分。同时，比较EBW和ECRH的优缺点，并指出适用条件。最后，要点总结部分要简明扼要，突出EBW在特定条件下的优势。
-可能的问题在于，我需要准确描述EBW的工作频率和其与等离子体频率的关系，以及这如何影响其穿透能力和加热效率。此外，如何定量估算EBW在不同条件下的性能，可能需要引用一些典型参数，比如等离子体的密度范围、频率选择等。
-总之，我需要系统地组织这些信息，确保回答全面且结构清晰，符合用户提出的详细规范。
-&lt;/think&gt;
-### 电子伯恩斯坦波（EBW）加热原理及优势
+          <t>### 电子伯恩斯坦波（EBW）加热原理及优势
 #### 1. 核心结论
 电子伯恩斯坦波（EBW）加热是一种新兴的等离子体加热方法，特别适用于高密度或过密等离子体条件，相对于传统电子回旋共振加热（ECRH），其优势在于更高的波穿透能力、更低的频率需求以及潜在的更高加热效率。
 ---
@@ -7970,7 +6985,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -7996,20 +7011,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于DEMO等未来聚变电站对等离子体加热与电流驱动系统的总体要求，特别是效率、可靠性、可维护性和与氚增殖包层兼容性方面的问题。我需要先理清楚这几个方面的要求，然后逐一分析。
-首先，核心结论是什么？可能需要提到效率、可靠性、可维护性、兼容性这几个关键词，以及可能的技术路线。
-背景方面，DEMO是ITER的后继，旨在实现商业聚变能，所以加热和驱动系统必须高效可靠。加热方法包括射频波加热和中性束注入，电流驱动则主要是射频波驱动，比如ECRH和ICRH。这些系统的效率直接影响到聚变电站的成本和可行性。
-接下来是原理与推导部分。加热系统的效率计算涉及到输入功率和被等离子体吸收的功率，所以需要考虑波的传播效率、等离子体吸收效率等。驱动电流的效率则涉及驱动电流与输入功率的关系，这可能需要考虑电流生成效率。
-可靠性方面，系统必须能够长时间稳定运行，因为聚变电站需要持续发电。任何故障都会导致停机，影响效率和成本。所以冗余设计、高可靠部件是必须的。
-可维护性方面，考虑到聚变环境中的辐射和高温，维护必须容易，尽可能减少人员介入。模块化设计和远程维护都是关键。
-与氚增殖包层的兼容性，意味着加热系统不能干扰包层工作，同时包层也不能阻碍加热波的传播。可能需要调整波的频率或设计包层结构来避免屏蔽。
-定量估算方面，墙插效率可能在30-50%，具体取决于技术和设计。可靠性指标如MTBF可能达到数万小时以上，可维护性方面，维护时间要短，减少停机时间。
-工程或实验意义方面，高效率意味着更低的运行成本，高可靠性确保持续发电，易于维护减少维护成本和时间，兼容性则保证整个聚变堆的集成顺利。
-比较与拓展，可能比较中性束注入和射频波加热的优缺点，或者不同电流驱动方法的优缺点，讨论它们在DEMO中的适用性。
-总结要点，强调四个关键要求的重要性，并指出技术路线的选择需要综合考虑这些因素。
-现在，我需要把这些思考组织成结构化的回答，按照用户的要求逐步展开，确保涵盖所有要点，并且用明确的小标题来分隔每个部分。同时，注意用规范的单位和符号，必要时使用LaTeX公式。
-&lt;/think&gt;
-### 对DEMO等未来聚变电站等离子体加热与电流驱动系统的总体要求
+          <t>### 对DEMO等未来聚变电站等离子体加热与电流驱动系统的总体要求
 #### 1. 核心结论
 DEMO等未来聚变电站要求加热与电流驱动系统具备高效率（40%-60%）、高可靠性（MTBF&gt;10,000小时）、高可维护性（模块化设计）以及与氚增殖包层的高度兼容性。
 #### 2. 背景与概念
@@ -8034,7 +7036,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -8060,16 +7062,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论的是聚变等离子体中不同加热和电流驱动方法的协同效应，比如怎么组合使用中性束注入（NBI）、电子回旋共振加热（ECRH）和离子回旋共振加热（ICRH）来优化温度、密度和电流剖面。这个问题看起来有点复杂，我得一步步来分析。
-首先，我得了解每种加热方法的基本原理和特点。NBI是通过注入高能中性束，与等离子体中的离子发生核聚变反应，加热等离子体。ECRH则是利用高频电磁波，主要加热电子，适合高密度等离子体。ICRH则是利用低频波，加热离子，适合较低密度的情况。
-接下来，协同效应意味着这三种方法一起使用时，效果会比单独使用更好。我需要考虑它们各自的优势和互补性。比如，NBI能提供高能量和高动量输入，这对维持等离子体的高温和稳定的电流分布很重要。ECRH在加热电子方面效率高，特别是在高密度区域，可以有效控制电子温度的分布。而ICRH则擅长加热离子，尤其在较低密度区域，同时还能驱动电流，帮助维持等离子体的稳定性。
-然后，我得考虑如何将这三种方法结合起来，以优化温度、密度和电流剖面。例如，在等离子体的中心区域，可能需要高密度和高离子温度，这时候可以使用ECRH来加热电子，同时ICRH加热离子，NBI提供高能输入。而在边缘区域，可能需要较低的密度和稳定电流分布，这时ECRH和ICRH的结合可以更好地控制温度梯度，减少热损失。
-另外，电流驱动方面，NBI不仅提供热量，还能驱动电流，这对维持等离子体的自举电流很重要。ECRH虽然不直接驱动电流，但通过改变电子温度分布，间接影响整体电流分布。ICRH则能有效驱动离子电流，特别是在等离子体的外围区域，帮助维持稳定的电流分布。
-我还得考虑参数的选择，比如频率、功率注入的位置和方向等。这些参数的选择会影响加热和电流驱动的效果。例如，ECRH的频率需要接近电子回旋频率，而ICRH的频率则接近离子回旋频率。功率注入的位置需要根据等离子体的密度和温度分布来调整，以达到最佳的加热和驱动效果。
-最后，协同效应带来的好处，比如减少加热功率需求，提高能量约束，优化电流分布，增强等离子体的稳定性，这些都是需要重点考虑的。通过合理组合这三种方法，可以实现对等离子体更精确的控制，提高聚变反应的效率和稳定性。
-总结一下，我需要分析每种加热方法的特点，考虑它们如何互补，制定合理的参数设置，最终达到优化等离子体性能的目的。可能还需要查阅一些文献，了解实际应用中的案例和效果，以验证我的思路是否正确。
-&lt;/think&gt;
-**协同效应与优化控制**
+          <t>**协同效应与优化控制**
 **核心结论**：NBI、ECRH和ICRH的协同使用能优化等离子体的温度、密度和电流剖面，通过互补加热和电流驱动，提高聚变反应的效率和稳定性。
 **背景与概念**：
 - **中性束注入（NBI）**：通过高能中性束与等离子体相互作用，提供热能和动量输入，驱动电流。
@@ -8106,7 +7099,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -8132,14 +7125,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于高功率波加热系统在聚变环境中遇到的材料和工程挑战。我得先理解ECRH和ICRH分别是什么，然后看看它们的关键部件有哪些。用户提到了大功率源、传输线、真空窗和发射天线，这些在长脉冲和强辐射环境下会面临哪些问题。
-首先，大功率源的问题可能出在材料的热负载和耐久性上。磁控管或者速调管需要处理高功率，长时间运行可能会发热，材料如果不够耐热，就会损坏。比如，阳极材料可能承受很高的温度，需要选择高熔点的材料，比如铍或者钨，但这些材料在高温下容易变形或者释放气体，影响性能。
-接着是传输线，这里面可能会有微波的损耗，导致热量积累。如果传输线的材料在高频下损耗大，就会升温，影响系统的效率和寿命。所以需要低损耗的材料，比如高质量的氧化铝，但制造起来成本高，工艺复杂。
-然后是真空窗，它需要在高真空和强辐射的环境下保持结构的完整，同时不能漏气。如果真空窗材料在高温或辐射下容易失效，就会影响整个系统的稳定性。因此，可能需要使用耐辐射的玻璃或陶瓷，并且设计成双层结构，避免材料疲劳。
-发射天线方面，面临的挑战是材料在高功率密度下的耐受能力，以及在复杂电磁环境中的稳定性。金属材料可能会因为高电流密度而产生过热或电弧放电，因此需要高导电性和高熔点的材料，比如铜钨复合材料，同时设计合理的冷却系统。
-总的来说，这些部件都需要在材料选择、结构设计和制造工艺上进行优化，以应对聚变环境的严苛条件。可能需要多学科的协同，比如材料科学、热力学和电磁学的结合，才能解决这些问题。此外，测试和验证也是关键，需要在模拟环境下长期测试，确保材料和设计能够满足要求。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 高功率波加热系统的关键部件在长脉冲、强辐射聚变环境下面临严峻的材料和工程挑战，主要体现在材料的热负载、耐辐射性、机械强度和电磁兼容性上，需通过优化材料选择、结构设计和制造工艺来提升耐久性和可靠性。
 ---
 ### 背景与概念
@@ -8259,7 +7245,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -8285,27 +7271,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好吧，我现在遇到了一个问题，需要详细描述等离子体与壁相互作用（PMI）中的主要物理过程，包括物理溅射、化学溅射、热升华、反射、吸附、再沉积和氢同位素滞留。然后解释这些过程如何影响等离子体性能和PFC寿命。我得好好想想这些过程到底是怎么回事，它们之间的关系又是怎样的。
-首先，等离子体与壁的相互作用是一个复杂的多物理过程。我记得PMI在核聚变装置中非常重要，比如托卡马克，因为高能等离子体会与材料壁发生各种反应。这可能会影响到等离子体的稳定性、壁材料的寿命，以及氢同位素的管理。
-好的，我先来逐一分析每个物理过程：
-1. **物理溅射**：这应该是高能离子或原子碰撞壁材料表面，导致材料原子被溅射出来。这可能是因为离子具有足够的动能，使得碰撞时壁材料被溅射。这会导致壁的侵蚀，释放出的原子可能进入等离子体，影响等离子体的组成和杂质含量。
-2. **化学溅射**：这可能涉及到等离子体中的离子与壁材料发生化学反应，生成挥发性的化合物，从而从壁中释放。比如，碳与氢反应生成甲烷。这种过程会增加壁的材料损失，并且释放出的化合物可能影响等离子体的化学成分。
-3. **热升华**：这个过程可能发生在壁材料受到高热流的冲击时，导致材料直接从固态变为气态，而不经过液态。这会增加壁的损失，并且释放出的材料可能进入等离子体，带来更多的杂质。
-4. **反射**：等离子体中的带电粒子在壁表面发生反射，这可能影响等离子体的粒子损失和壁的加热。反射率高的材料可能会减少粒子损失，降低壁的热负载。
-5. **吸附与解吸**：壁材料可以吸附等离子体中的粒子，如氢同位素。在某些条件下，这些被吸附的粒子会重新进入等离子体。这会影响氢的回收效率，并且可能改变等离子体的组成。
-6. **再沉积**：溅射出的材料原子可能重新沉积在壁的其他区域，形成沉积层。这可能改变壁的表面性质，影响后续的溅射过程，同时可能增加材料的损失或改善壁的保护层。
-7. **氢同位素滞留**：氢及其同位素（如氘、氚）在壁中的滞留会影响聚变燃料的循环和氢的回收效率。过多的滞留可能导致燃料损失，影响聚变反应的效率。
-现在，我得把这些过程整合起来，看看它们如何共同作用，影响等离子体性能和PFC寿命。
-首先，物理溅射和化学溅射都会导致壁材料的损失，释放出的原子进入等离子体，作为杂质会影响等离子体的稳定性。杂质浓度高可能导致等离子体的辐射损失增加，降低温度，从而影响聚变反应效率。
-热升华同样会导致壁材料损失，释放出更多杂质，同时也可能对壁材料的结构造成破坏，降低其使用寿命。
-反射过程中的粒子损失可能影响等离子体的粒子守恒，增加壁的热负载。如果反射率低，更多粒子会撞击壁，导致更高的热负载，可能加速壁材料的损坏。
-吸附和解吸过程会影响氢同位素的管理，如果解吸不充分，可能会导致氢的滞留，影响聚变燃料的循环。此外，吸附的氢可能在等离子体运行中重新进入，改变等离子体的组成，甚至影响温度和密度。
-再沉积过程中的材料重新分布可能导致某些区域的壁材料被侵蚀，而其他区域被覆盖。这可能改变壁的表面性质，影响后续的溅射过程，同时也可能形成不均匀的沉积层，影响热传导和机械强度。
-氢同位素滞留不仅影响燃料的循环效率，还可能对壁材料的性能产生长期影响，比如导致材料的疲劳或性能变化。
-综合来看，这些过程会相互作用，影响等离子体的性能，如温度、密度、杂质含量，以及PFC的寿命。例如，溅射导致的杂质增加会降低等离子体的性能，同时壁材料的损失和再沉积会导致PFC材料的寿命缩短。另外，氢同位素的滞留和管理问题会直接影响聚变燃料的可用性和反应效率。
-为了设计更耐用的PFC和优化等离子体性能，可能需要研究这些过程之间的相互作用，寻找材料和工艺来减少溅射，提高反射率，优化吸附和解吸的平衡，以及有效管理氢同位素的滞留。
-&lt;/think&gt;
-等离子体与壁的相互作用（PMI）涉及多个复杂物理过程，这些过程共同影响等离子体性能和第一壁组件（PFC）的寿命。以下是这些过程的详细描述及其影响：
+          <t>等离子体与壁的相互作用（PMI）涉及多个复杂物理过程，这些过程共同影响等离子体性能和第一壁组件（PFC）的寿命。以下是这些过程的详细描述及其影响：
 ### 1. 主要物理过程
 - **物理溅射**：高能离子或原子碰撞壁材料表面，导致材料原子被溅射。这会增加壁的侵蚀，释放杂质进入等离子体，影响其稳定性和成分。
 - **化学溅射**：离子与壁材料发生化学反应，生成挥发性化合物并释放。这增加了材料损失，并改变等离子体化学成分。
@@ -8327,7 +7293,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -8353,17 +7319,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好，我现在要解决的问题是估算ITER托卡马克偏滤器靶板承受的平均稳态热负荷，并讨论为什么实际峰值热负荷可能远高于此平均值。我需要一步一步地思考，确保每一步都正确。
-首先，问题给出总加热功率Pheat=100MW，其中50%通过偏滤器排出。因此，首先计算通过偏滤器的总功率，即0.5×100MW=50MW。
-接下来，总湿润面积Awetted=4平方米。平均热负荷Q_avg的计算公式是Q_avg = P_total / A_total。所以Q_avg=50MW /4m²=12.5MW/m²，也就是1.25×10^7 W/m²。
-现在，我需要讨论为什么实际峰值热负荷会比这个平均值高很多。首先，考虑偏滤器的结构。靶板可能分为多个区域，每个区域承受不同的热流密度。边缘区域或某些特定位置可能因为等离子体与靶板的相互作用更强烈，导致局部热负荷集中。
-其次，等离子体边界层的复杂性也是一个因素。在托卡马克中，等离子体边界可能会出现不均匀的温度分布，或者出现突变的温度梯度，这些都会导致某些区域的热负荷显著增加。此外，等离子体的湍流或流动也可能导致局部区域的热流密度高于平均值。
-再者，偏滤器的几何形状可能会导致某些部分成为热负荷的“热点”。例如，靶板的某些角落或凸起部分可能会因为等离子体的冲击而承受更高的热负荷。此外，靶板材料的导热性能和结构设计也会影响热负荷的分布。如果材料导热性能不佳，热量可能在局部区域积聚，导致峰值热负荷升高。
-另外，等离子体与靶板之间的相互作用，如溅射效应和材料侵蚀，也可能加剧某些区域的热负荷。当靶板材料被溅射时，可能会形成微小的凹坑或不平滑表面，这些地方可能会集中更多的热量，进一步增加峰值热负荷。
-最后，考虑到ITER的实际运行条件，可能会出现意外的等离子体扰动，如边缘局域模（ELMs）或破裂事件，这些都会导致短时间内局部区域的热负荷急剧增加，远超平均值。
-综上所述，虽然平均热负荷为12.5MW/m²，但实际运行中，由于结构、几何、等离子体边界层的复杂性以及潜在的扰动事件，峰值热负荷可能会显著高于这个平均值。这要求偏滤器材料和结构设计必须能够承受极大的局部热负荷，以确保装置的安全运行。
-&lt;/think&gt;
-### 托卡马克偏滤器的主要功能与热负荷估算
+          <t>### 托卡马克偏滤器的主要功能与热负荷估算
 1. **核心结论**  
    托卡马克偏滤器的平均稳态热负荷约为12.5 MW/m²，但实际峰值热负荷可能远高于此值，因其受到等离子体不均匀沉积、局部几何效应及瞬态事件的影响。
 2. **背景与概念**  
@@ -8388,7 +7344,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -8414,15 +7370,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在需要比较钨（W）、铍（Be）和碳（C）作为聚变装置第一壁或偏滤器材料的优缺点。然后分析ITER为什么从铍改为钨作为初始运行材料。好的，首先，我得了解每种材料的基本性质和它们在聚变装置中的应用情况。
-首先，钨。钨的熔点很高，大约是3422°C，这在高热负荷下表现优异，不容易熔化或损坏。这在聚变装置中非常关键，因为第一壁会承受极高的热量。然而，钨的一个缺点是它的低热导率，这意味着热量可能无法有效地从表面传递到内部结构，可能导致局部过热。另外，钨在高温下可能与氢同位素发生反应，生成难以处理的物质，如钨三氢化物（WH3）。这可能影响等离子体的稳定性，并对材料的寿命产生负面影响。
-接下来是铍。铍的优点是中子吸收截面低，这意味着它不会过多地吸收中子，从而减少中子损失，这对聚变反应有利。此外，铍的重量轻，这在结构设计中可能是个优势。然而，铍的问题在于它的高放射性，当受到中子辐照时，会产生氚，这在实验中需要特别处理，以防止氚的泄漏和污染。此外，铍的机械性能在高温下会迅速恶化，这限制了它在高热负荷条件下的使用。维护和处理铍材料也需要高度的专业知识和防护措施，增加了实验的复杂性和成本。
-然后是碳基材料。碳的高熔点（约3500°C）和良好的热导率使其能够承受高热负荷，这在聚变装置中非常重要。碳的制造成本相对较低，适合大规模应用。然而，碳的中子吸收截面较高，可能导致中子损失，影响聚变反应的效率。此外，碳在高温下容易被氢同位素渗透，导致材料性能下降，甚至发生氢爆，带来安全隐患。碳基材料的寿命也是一个问题，因为它们容易被等离子体中的高能粒子轰击而侵蚀。
-那么，为什么ITER最初选择铍，后来改为钨呢？ITER最初的设计可能更关注中子经济性，因为铍的低中子吸收截面有助于维持聚变反应所需的高中子密度。但是，随着技术的发展和对材料性能的更深入理解，钨的优势变得更加明显。钨的高熔点和抗热冲击能力使其在极端条件下更为可靠，尤其是在处理高热负荷方面。此外，钨在辐照下的性能相对稳定，可能减少了维护和更换材料的频率，降低了实验的复杂性。
-当然，更换材料也涉及到技术挑战。钨的加工和制造可能比铍更具挑战性，尤其是考虑到钨的高熔点和脆性。此外，钨与氢同位素的反应可能产生问题，但目前的技术可能已经找到了缓解这些问题的方法，如表面涂层或适当的热管理设计。
-总的来说，ITER从铍改为钨可能是基于对材料性能更全面的评估，权衡了中子经济性、热性能、辐照稳定性和维护成本等因素。钨在高热负荷和辐照条件下的优异表现，尽管可能带来一些制造上的挑战，但整体上可能更适合ITER的运行需求。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 钨（W）相较于铍（Be）和碳（C）基材料，在聚变装置第一壁或偏滤器应用中表现出更好的热性能和辐照稳定性，但面临与氢同位素反应和制造挑战。ITER改用钨可能是基于对高温热负荷、辐照稳定性和长期运行可靠性的综合考量。
 ### 2. 背景与概念
 聚变装置的第一壁和偏滤器材料需承受极端环境：高热流（10-100 MW/m²）、中子辐照、等离子体粒子轰击。材料需具备高熔点、低中子吸收截面、良好热导率和辐照稳定性。
@@ -8462,7 +7410,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -8488,17 +7436,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，用户问的是关于“脱靶”运行模式的物理机制，以及它对降低偏滤器靶板热负荷和粒子通量的意义，还有实现稳态脱靶运行面临的挑战。
-首先，我需要回忆一下脱靶的定义。脱靶是偏滤器的一种运行模式，主要通过在偏滤器区域形成一个低温、高密度的等离子体层，使得大部分高能粒子被这个层反射，从而减少直接打到靶板上的粒子数量，这样就能降低靶板的热负荷和粒子通量。
-接下来，物理机制方面，应该是涉及等离子体的反射。当偏滤器的密度足够高时，会产生足够的动量来反射进入的高能粒子，特别是离子。这个过程可以通过动量平衡来解释，也就是进入偏滤器的动量和被反射的动量相平衡。
-然后是意义部分，主要的好处是减少靶板的热负荷，延长材料寿命，同时也有助于减少杂质释放，保持等离子体的清洁。这对ITER这样的大型装置来说很重要，因为它们需要长时间运行。
-挑战方面，有几个关键点。首先，维持合适的密度剖面，过高会导致大的粒子通量，过低又无法反射。其次是流动稳定性，层流到湍流的转换会影响脱靶的状态。还有马鞍点附近的压力梯度，如果过大可能会破坏等离子体的稳定。另外，长时间运行可能需要更复杂的控制和反馈系统。
-可能我还需要考虑边界条件，比如温度、密度梯度、磁场配置等，这些都会影响脱靶的实现。可能还有其他因素，比如等离子体的湍流特性，或者材料的响应，这也需要进一步了解。
-总结一下，我需要分点列出物理机制、意义、挑战，并确保每个部分都解释清楚，同时给出具体的例子或参数，比如密度梯度、压力梯度等，让用户理解得更透彻。
-哦，对了，用户提到的是稳态脱靶运行，所以可能还需要讨论维持这种状态的控制策略，以及在不同等离子体条件下可能遇到的问题。
-总之，我得组织好内容，先讲机制，再讲意义，最后讨论挑战，每个部分都要有清晰的解释和具体的例子或参数支持。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 “脱靶”（detached divertor）运行模式通过在偏滤器区域形成一个低温、高密度的等离子体层，使高能粒子被反射而非直接轰击靶板，从而有效降低靶板的热负荷和粒子通量。
 ---
 ### 2. 背景与概念  
@@ -8538,7 +7476,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -8564,18 +7502,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论聚变堆第一壁材料（PFC）的腐蚀、迁移和再沉积问题，以及它们如何导致混合材料层的形成和氚的共沉积，还有如何通过原位诊断来监测PFC表面状态的变化。这个题目看起来挺复杂的，我得一步步理清楚。
-首先，我得明白PFC是什么。聚变堆的第一壁材料，也就是PFC，直接面对高温高能的等离子体。常见的PFC材料包括钨、碳化钨、石墨和铍。这些材料在聚变环境中会经历各种物理和化学过程，比如腐蚀、迁移和再沉积，这会影响聚变堆的性能和寿命。
-接下来是腐蚀过程。PFC材料在与等离子体接触时，会被离子、电子、中性粒子等侵蚀。离子轰击会导致溅射，也就是材料原子被轰击出来，进入等离子体。热载荷会导致材料膨胀，可能会出现裂纹或者剥落。化学反应方面，比如在氘氚等离子体中，材料会和氚发生反应，形成氚化物，这可能影响氚的库存。高温还会导致材料的熔化或者升华，尤其是像钨这样的高熔点材料，在极端条件下也可能会受损。
-然后是迁移和再沉积。被溅射出来的材料原子会在等离子体中扩散，最终沉积在其他表面上，比如远处的PFC或诊断设备上。这个过程可能改变表面的组成，形成混合材料层。迁移的距离取决于材料的扩散系数、等离子体的温度和压力。再沉积时，材料可能以不同的形式沉积，比如多孔结构或者含有杂质的层，这会影响表面的性能，比如热导率和耐腐蚀性。
-接下来是如何导致混合材料层的形成和氚的共沉积。当不同的材料原子在迁移过程中混合，再沉积时会形成多层结构，比如钨和石墨的混合层。这种情况会影响PFC的物理和化学性能，可能加速腐蚀。同时，氚作为聚变燃料之一，会在等离子体中与PFC材料反应，形成氚化物。这些氚化物可能随材料迁移，最终沉积在PFC表面或其他区域。如果表面有裂纹或孔隙，氚可能进入材料内部，导致氚的损失，影响聚变堆的氚循环。
-关于监测PFC表面状态的原位诊断方法，我需要考虑几种常用的技术。光谱诊断可以分析等离子体中溅射出来的材料的成分和浓度，从而推断材料的迁移和腐蚀情况。表面分析技术，比如俄歇电子能谱和X射线光电子能谱，可以直接测量表面的化学成分和结构。热成像可以帮助监测表面的温度分布，发现异常的热载荷区域。中子和核径迹检测则可以追踪氚的分布，评估氚的迁移和共沉积情况。
-现在，我得把这些思考整理成规范的回答，按照用户提供的结构和要点来组织内容。比如，先给出核心结论，然后详细解释每个过程，最后总结监测方法的意义和建议。
-在整理过程中，可能会遗漏一些关键点，比如具体迁移的物理机制或者不同材料的迁移特性差异。需要查阅相关资料，确保信息的准确性。另外，原位诊断的具体技术和它们的工作原理也需要详细说明，以便清晰理解它们如何用于监测PFC的状态。
-最后，我得确保回答符合用户的规范，使用小标题和项目符号，语言清晰严谨，同时包含必要的方程和单位。如果有不确定的地方，比如具体迁移距离的计算或典型参数，需要明确指出假设或参考来源。
-总的来说，这个思考过程需要系统地分析PFC材料在聚变环境中的行为，以及如何通过诊断技术监测这些变化，确保聚变堆的高效和安全运行。
-&lt;/think&gt;
-### PFC材料的腐蚀、迁移和再沉积问题及监测方法
+          <t>### PFC材料的腐蚀、迁移和再沉积问题及监测方法
 #### 核心结论
 聚变堆第一壁材料（PFC）的腐蚀、迁移和再沉积过程会导致混合材料层的形成，并与氚发生共沉积，影响聚变堆性能和氚循环效率。通过光谱分析、表面分析、热成像和中子检测等原位诊断技术，可实时监测PFC表面状态的演化。
 #### 背景与概念
@@ -8606,7 +7533,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -8632,18 +7559,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答的问题是关于高Z杂质，比如钨，进入等离子体芯部带来的不利影响，以及偏滤器在屏蔽这些杂质和排出聚变灰（氦）方面的作用，还有杂质输运的物理机制。
-首先，我得弄清楚高Z杂质是什么。Z是原子序数，高Z就是原子序数比较高的元素，比如钨（Z=74）。聚变反应中使用的主要燃料是氘和氚，氢的同位素，原子序数都是1。所以高Z杂质进入等离子体会有怎样的影响呢？
-我想，首先这些杂质会影响等离子体的热性能。高Z杂质会吸收和发射大量的热，可能干扰等离子体的加热和能量平衡。另外，杂质原子的电荷较高，会在等离子体中积累，可能导致放电中断，因为过高的电荷可能导致电子损失，影响等离子体的稳定性。
-其次，可能与聚变反应的燃料氘和氚相互作用。杂质可能会影响燃料的离子温度，或者干扰磁场约束，因为杂质离子的运动可能与磁力线不同，导致局部磁场变形，从而影响整体的等离子体行为。
-然后，偏滤器的作用。偏滤器通常是托卡马克装置的一部分，位于等离子体的下部，用于收集等离子体中的杂质和聚变产物，比如氦。它们可能通过一些物理机制来分离和排出这些物质，防止它们积累影响等离子体性能。比如，偏滤器可能利用磁力线的结构，使得杂质被引导到特定区域，然后通过泵抽出或者通过冷却表面凝结。
-关于杂质输运的物理机制，可能有几种方式：对流、扩散、场驱动输运。对流可能是指杂质随着等离子体的流动而被带到芯部或边缘。扩散是由于浓度梯度，杂质从高浓度区向低浓度区移动。场驱动可能是指杂质离子受电磁场的影响，沿着磁力线运动。还有可能涉及撕裂模等不稳定性，导致杂质快速进入芯部。
-现在，我得把这些思路组织起来，按照用户的要求分点回答。首先是核心结论，然后分点讨论每个问题，包括背景、原理、工程意义等。
-可能会涉及到一些公式，比如热传导的公式，或者杂质浓度梯度的影响。但可能不需要详细推导，更多是原理性的描述。
-最后，需要总结高Z杂质带来的问题以及偏滤器的作用，强调杂质控制对聚变装置的重要性，以及未来可能的改进方向，比如更好的杂质排出系统或者杂质诊断技术。
-嗯，总体来说，我需要系统地分析每个问题，并且按照用户给出的结构来组织答案，确保每个部分都涵盖关键点，同时使用恰当的物理概念和术语。
-&lt;/think&gt;
-### 高Z杂质进入等离子体芯部的不利影响
+          <t>### 高Z杂质进入等离子体芯部的不利影响
 #### 核心结论
 高Z杂质（如钨）进入等离子体芯部会导致等离子体热性能下降、放电中断风险增加，以及核反应效率降低。
 #### 背景与概念
@@ -8709,7 +7625,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -8735,15 +7651,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于液态金属作为偏滤器的优势和挑战。我得先了解什么是PFCs，也就是等离子体 facing components，就是直接接触高温等离子体的部件，比如偏滤器。
-首先，液态金属的优势。液态金属流动性好，可以均匀带走热量，避免热点，这对长时间高热负荷运行有好处。比如钨块容易熔化，液态锂可能更好。还有，液态金属能吸附氢同位素，这对于氚的回收很重要，聚变堆需要氚，回收率高可以降低成本。
-然后，MHD效应。液态金属是导电的，磁场下会产生电流，可能影响流体流动，甚至导致结构振动，损坏部件。这个需要控制磁场和流速，或者设计结构来缓解。
-蒸发问题。液态金属在高温下容易蒸发，造成污染，甚至改变等离子体成分，影响聚变反应。比如锂的蒸发温度不高，锡可能更高，但运行中温升可能还是导致蒸发。需要降温措施，或者设计系统回收蒸发的金属。
-兼容性问题。液态金属可能会和结构材料反应，腐蚀，或者改变材料性能。比如锂和不锈钢反应，生成脆性物质，影响结构强度。需要选择合适材料，或者做涂层保护。
-氚提取。液态金属捕获氚的能力好，但如何高效提取是个挑战。可能需要特殊的分离工艺，或者设计收集系统。如果提取效率低，会影响氚的循环，影响聚变堆的持续运行。
-综合来看，液态金属作为PFCs潜力大，但这些挑战需要逐一解决。比如材料选择、冷却系统设计、氚提取工艺等。未来的发展可能需要实验验证，找出最优方案。
-&lt;/think&gt;
-### 液态金属作为PFCs的潜在优势和挑战
+          <t>### 液态金属作为PFCs的潜在优势和挑战
 #### 核心结论
 液态金属（如锂、锡）作为偏滤器组件（PFCs）具有优异的热管理能力和氚兼容性，但面临MHD效应、蒸发、材料相容性和氚提取等关键挑战。
 ---
@@ -8787,7 +7695,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -8813,14 +7721,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好吧，我现在得仔细思考一下DEMO反应堆的偏滤器设计问题。之前对托卡马克和 ITER有了解，但DEMO的具体情况还不太清楚。首先，问题说DEMO的偏滤器会面临比ITER更严峻的热负荷和中子辐照环境，所以得想出在设计和材料选择上的革新点。
-首先，热负荷部分。ITER已经面临很高的热流，DEMO更高，可能需要更好的热管理。ITER可能使用钨基材料，但可能不够。需要更强的热导和耐高温材料，比如更高纯度的钨或者钨铼合金？或者采用主动冷却结构，比如更好散热的部件设计，或者更高效的冷却剂，比如液态金属冷却？
-然后，中子辐照。DEMO运行时间长，中子通量更高，材料辐照损伤更严重。钨在高辐照下会变脆，可能需要更耐辐照的材料，比如氧化物弥散强化钢（ODS）或者其他耐辐照合金。或者可以考虑石墨，但石墨在高温和辐照下容易侵蚀，可能需要表面涂层保护。
-设计方面，可能需要主动冷却更高效，或者结构优化，比如使用模块化设计，方便更换受损部件。还有，等离子体控制，可能需要更好的边界层控制技术，比如减少边缘区域的湍流，降低热负荷。
-另外，材料的可制造性也很重要，不能只追求性能而不考虑工艺。还需要进行寿命预测，评估材料在高辐照和高温下的寿命，看看能否满足DEMO的需求。
-总的来说，DEMO需要在材料性能、设计结构、冷却技术等多方面进行创新，才能应对更严峻的环境。这些革新需要结合理论研究和实验验证，逐步推进。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 DEMO偏滤器需要在材料选择、设计结构和冷却技术上进行革新，以应对更高的热负荷和中子辐照。可能包括使用高性能耐辐照材料、主动冷却优化和模块化设计。
 ### 背景与概念
 DEMO作为未来聚变示范堆，其偏滤器必须承受比ITER更严峻的环境。热负荷可达10-20 MW/m²，中子通量超过1e14 n/cm²/s。钨基材料在ITER中表现良好，但DEMO的环境更严酷，需要超越现有技术的解决方案。
@@ -8846,7 +7747,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -8872,15 +7773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好，我现在需要解释聚变堆第一壁材料在遇到像ELMs和破裂这样的瞬态热事件时，为什么会发生熔化、蒸发和开裂。然后，我还要说明如何设计这些材料来提高它们的耐受性。
-首先，我得了解ELMs和破裂是什么。ELMs是边缘局域模，是一种等离子体不稳定性，会在托卡马克装置中导致瞬时的能量释放。破裂则是等离子体突然失去约束，导致能量迅速释放到装置壁上。这些事件都会在短时间内释放大量热能，导致第一壁材料迅速升温。
-接下来，我需要分析这些热事件对材料的影响。材料在短时间内吸收大量热量，温度急剧上升，可能导致熔化。如果温度超过熔点，材料开始熔化。更进一步，如果温度继续升高，材料可能蒸发，导致材料损失。此外，热梯度可能导致材料内部产生应力，进而引起开裂。
-关于设计材料来提高耐受性，我想到几个方面：材料选择、结构设计、冷却系统优化、表面处理和主动控制。材料应该具备高熔点、低热膨胀系数、高热导率和良好的高温强度。结构方面，可以采用分层结构，让不同材料在不同温度区间工作，或者设计成模块化的，以便损坏后更换。冷却系统需要高效，能快速带走热量，防止温度过高。表面处理比如涂层，可以反射部分热流或增加表面的热防护能力。主动控制则是通过监测，提前预测热事件，调整等离子体参数，减少热冲击。
-在推导过程中，我需要写出相关的物理方程，比如热传导方程、应力应变方程，以及材料在高温下的行为模型。这些方程帮助量化热事件对材料的影响，并指导设计选择。
-最后，我需要考虑这些设计在工程上的可行性，比如成本、制造难度、材料的可获得性等，同时也要权衡不同设计方法的优缺点，比如分层结构虽然增加了复杂性，但能提供更好的热防护。
-总结一下，我需要从材料的物理性能、结构设计、冷却系统、表面处理和主动控制五个方面，详细分析如何提高PFCs对瞬态热事件的耐受性，并用物理方程和实际参数来支持我的分析。
-&lt;/think&gt;
-### 瞬态热事件对材料的影响
+          <t>### 瞬态热事件对材料的影响
 瞬态热事件，如ELMs和破裂，会导致PFCs（第一壁材料）经历极端的热负荷。这些事件的特点是短时间内（毫秒到秒级）释放大量能量，导致材料温度急剧上升。以下是材料可能发生的物理变化：
 1. **熔化**：当材料温度达到或超过其熔点时，材料开始熔化。熔化会导致材料结构的破坏和潜在的流动，可能进一步损坏设备。
 2. **蒸发**：在极高的温度下，材料可能直接从固态或液态转化为气态，导致材料的迅速损失。这种过程可能会带走大量热量，但也可能因为材料的损失而使剩余部分暴露在更高的热负荷下。
@@ -8928,7 +7821,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -8954,14 +7847,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>好，我现在要回答关于PFCs产生的灰尘对聚变装置安全运行的潜在风险以及如何监测和控制装置内灰尘水平的问题。
-首先，我需要明确PFCs是什么。PFCs是聚变堆第一壁和偏滤器组件的英文缩写，它们直接与高温等离子体接触。在托卡马克装置中，PFCs会因热负荷和粒子辐照而逐渐产生灰尘。这些灰尘可能由材料溅射、剥落或分解产生。
-接下来，思考这些灰尘带来的潜在风险。第一，高能量等离子体与灰尘的相互作用可能导致爆炸或快速释放能量，威胁装置的安全。第二，聚变反应需要氚作为燃料，如果灰尘吸附氚，可能会导致氚的非受控释放，影响反应控制和安全性。第三，PFCs附近的冷却剂通道如果被灰尘堵塞，会影响冷却效率，甚至导致过热，威胁装置稳定运行。
-然后，考虑如何监测和控制灰尘水平。监测方面，可以使用光散射检测器来实时检测灰尘浓度，或者通过气体检漏系统检测氚的扩散。此外，光学诊断技术如干涉测量可以监测沉积在PFCs表面的颗粒物。质谱仪则能分析气体中包含的氚。
-控制方面，优化PFCs材料是关键。选择低活化、低挥发的材料可以减少灰尘生成。此外，改善热负荷分布，减少局部高热区域，也能降低材料侵蚀。运行中，定期清理PFCs，可能通过物理手段或等离子体清理，可以有效减少沉积物。同时，设计高效的排尘系统，及时将产生的灰尘排出装置，避免积累。
-总结一下，灰尘问题涉及材料科学、等离子体物理和工程设计等多个方面。必须通过多方面的监测和控制措施，确保聚变装置的安全和高效运行。
-&lt;/think&gt;
-**核心结论**  
+          <t>**核心结论**  
 PFCs（聚变堆第一壁和偏滤器组件）产生的灰尘可能通过引发爆炸、氚扩散和冷却剂通道堵塞对聚变装置的安全运行构成风险。监测和控制灰尘水平需要结合物理诊断、材料优化和运行策略。
 **背景与概念**  
 PFCs是聚变装置中直接与高温等离子体接触的组件，包括第一壁和偏滤器。在托卡马克装置中（如ITER和JET），PFCs受到等离子体粒子辐照、热冲击和等离子体-材料相互作用的影响，可能产生微米甚至亚微米尺度的尘埃颗粒。这些颗粒可能由溅射、剥落、分解等过程形成，材料通常包括碳基（如石墨或碳化硅）、钨、钽等。灰尘颗粒的存在可能引发安全隐患，具体机制包括：
@@ -9045,7 +7931,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -9071,15 +7957,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于14 MeV的D-T聚变中子与材料相互作用的主要物理过程，包括原子位移级联和嬗变反应，特别是He和H的产生。然后还要比较这些与裂变堆中子辐照效应的不同之处。用户希望得到详细的解释，按照他们指定的规范来回答，所以我需要一步步理清楚这些过程，并比较两者之间的区别。
-首先，我需要明确14 MeV中子的特点。D-T聚变反应释放的中子能量高达14 MeV，这比裂变堆中的中子能量要高得多，裂变堆的中子通常在热中子能级，也就是约0.025 eV。这个能量差异会导致材料与中子相互作用的方式不同。
-接下来，考虑原子位移级联。中子撞击材料中的原子核，导致原子核被弹出，这个过程需要计算动能传递。14 MeV的中子撞击轻核如碳、氧时，可能会导致显著的动能传递，进而引发更多的位移。这可能比裂变堆中中子的能量低，导致的位移少，所以裂变堆的损伤可能更多是累积效应，而聚变堆则是一次性损伤更明显。
-然后是嬗变反应，特别是生成He和H。在聚变堆中，中子与材料中的核发生(n,2n)、(n,n')、(n,p)等反应，尤其是与硅、铁等元素反应，生成He和H。裂变堆中嬗变反应同样存在，但因为中子能谱不同，可能生成的产物不同，或者浓度较低。聚变堆因为中子能量高，可能更容易引发这些反应，导致更多氦和氢的积累，这对材料性能的影响更大。
-再比较两者的主要区别。中子能量、注量率、材料活化和损伤机制都有不同。聚变堆的高能中子导致更多的直接位移，而裂变堆的中子注量率更高，导致累计损伤更严重。材料活化方面，聚变堆可能因为高能中子产生更多的放射性产物，但半衰期较短，而裂变堆可能有更长的放射性产物。
-最后，工程意义方面，聚变堆需要特别关注氦气泡的形成和材料的肿胀，而裂变堆则关注长期的辐照脆化和累积损伤。聚变堆可能需要更高耐辐射的材料，而裂变堆则需要更好的屏蔽设计。
-总结一下，我需要把上述思路整理成结构化的回答，按照用户的规范，分点阐述，确保每个部分都涵盖用户的要求，同时保持逻辑清晰，用语准确。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 14 MeV D-T聚变中子与材料相互作用的主要物理过程包括原子位移级联、核嬗变反应（如生成He和H），其与裂变堆中子辐照效应的最大区别在于中子能量更高、注量率更大，导致更显著的直接原子位移和核嬗变效应。
 ---
 ### 2. 背景与概念  
@@ -9135,7 +8013,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -9161,15 +8039,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于辐照引起的材料肿胀和辐照蠕变的微观机制，以及这些现象如何影响聚变堆部件的尺寸稳定性和结构完整性。首先，我需要解释这两个现象，然后分析它们的影响。
-首先，我得回忆一下材料在辐照下的反应。辐照肿胀通常是由于高能粒子（比如中子或离子）撞击材料，导致材料内部产生缺陷，比如空位和间隙原子。这些缺陷聚集形成小泡，导致材料体积膨胀。辐照蠕变则是由于缺陷的运动，特别是在有温度梯度的情况下，导致材料发生塑性变形。
-接下来，我需要解释这些微观机制。对于辐照肿胀，我应该提到点缺陷的产生、聚集以及气泡的形成。辐照蠕变则涉及点缺陷的迁移、空位的堆积和材料流动。
-然后，影响部分。肿胀会导致材料体积变化，可能引起部件变形，甚至失效。蠕变则会导致材料形状变化，影响结构完整性。同时，这两种现象会加剧材料的损伤，降低其耐久性。
-用户可能需要这些信息来优化聚变堆的设计，比如选择更耐辐照的材料，或者改进制造工艺。我应该确保解释清晰，结构合理，方便用户应用到实际工程中。
-在写作时，我需要分点列出，每个部分都有明确的小标题，使用LaTeX方程，并解释每个符号的意义。同时，语言要保持客观，不带猜测，确保信息的准确性。
-最后，总结部分要突出最重要的点，提醒用户选择材料和设计时需要考虑的因素。这样，用户可以有明确的指导方向，确保聚变堆的可靠性和安全性。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 辐照引起的材料肿胀和辐照蠕变主要由高能粒子辐照导致的点缺陷（空位和间隙原子）生成、聚集及其与材料晶格的相互作用引起，这些现象会导致聚变堆部件的尺寸变形和力学性能退化，严重时会威胁装置的结构完整性。
 ---
 ### 背景与概念  
@@ -9222,7 +8092,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -9248,14 +8118,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于氢同位素，特别是氦，在金属材料中引起的脆化效应，也就是氦脆。我需要先理解什么是氦脆，为什么它在高温下更显著，这对聚变堆结构材料的工作温度上限有什么影响。
-首先，氦脆应该是指金属材料在受到氦元素的影响下，变得容易脆断。这可能是因为氦在金属中的扩散和聚集，导致材料内部结构的变化，比如形成空洞或者改变晶格结构，从而降低材料的塑性，使其更容易断裂。
-接下来，为什么氦脆在高温下更显著呢？通常来说，温度升高会增加原子的扩散速度，所以氦在金属中的扩散可能在高温下更快速。这可能导致氦更迅速地在晶界或缺陷处聚集，形成更大的空洞或气泡，从而加剧脆化效应。另外，高温下材料的强度可能会降低，而脆化效应进一步降低了材料的断裂韧性，所以高温下氦脆更明显。
-关于聚变堆结构材料的工作温度上限，如果氦脆在高温下更显著，那么设计聚变堆时需要考虑材料的工作温度不能太高，以避免氦脆导致的结构失效。可能需要寻找耐高温且抗氦脆的材料，或者在材料设计中加入某种机制来减轻氦的负面影响，比如通过合金化来改变氦的扩散路径，或者在制造过程中引入某些结构来限制氦的聚集。
-另外，可能还需要通过实验来确定具体材料在不同温度下的氦脆行为，从而为设计提供数据支持。了解氦在材料中的扩散和聚集机制，可以帮助工程师制定更有效的材料选择和结构设计策略，以应对氦脆带来的挑战。
-总的来说，氦脆在高温下的显著性意味着聚变堆的结构材料需要在较低的温度范围内工作，或者采用能够抵抗氦脆的新材料和新技术，以确保聚变堆的安全和长期运行。
-&lt;/think&gt;
-### **核心结论**  
+          <t>### **核心结论**  
 氦脆在高温下尤为显著是因为氦原子在金属中的扩散速率随温度升高而增加，导致其在晶界和缺陷处的聚集加剧，从而降低材料的断裂韧性。这对聚变堆结构材料的工作温度上限提出了严格限制，通常要求材料在低于约 150°C 的温度下运行以避免氦脆。
 ---
 ### **背景与概念**  
@@ -9300,7 +8163,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -9326,12 +8189,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好吧，我现在得回答关于低活化材料（LAMs）的问题。首先，我得弄清楚什么是LAMs。根据之前的资料，LAMs是在聚变反应堆中使用的材料，目的是减少活化产物，从而在事故情况下降低集体剂量，使事故后的清理和修复更容易。低活化铁素体/马氏体钢（RAFM）是其中的一种，比如F82H。
-RAFM的成分设计主要集中在减少那些容易被中子激活的元素，比如Cr、Ni、Mo。Cr在钢中含量高，但容易被中子激活，产生放射性同位素，所以RAFM中的Cr含量通常在9%以下。Ni和Mo也是类似的，因此它们的含量也会被限制。
-我还需要解释为何在聚变能中强调使用LAMs。这主要是因为聚变反应堆中会产生大量的中子，这些中子会与结构材料发生核反应，产生放射性同位素。如果这些材料的活化产物过多，不仅会影响工作人员的健康，还会增加事故处理的难度和成本。因此，选择低活化材料可以显著降低这些风险。
-总结一下，RAFM的设计原则是通过限制容易被活化的元素的含量，来减少材料在聚变环境中的活化程度。Cr、Ni、Mo的含量都被控制在较低的范围内，以达到这一目的。
-&lt;/think&gt;
-**低活化材料（LAMs）**  
+          <t>**低活化材料（LAMs）**  
 低活化材料（Low Activation Materials, LAMs）是指在聚变反应堆中使用的一类特殊材料，其设计目的是最小化中子辐照导致的放射性活化产物。这类材料主要应用于聚变堆的结构材料和包层材料，以降低其在运行和事故情况下的辐射风险。
 ### **背景与概念**  
 聚变反应堆中的核反应会产生大量高能中子，这些中子会与材料中的原子核发生核反应，导致某些材料元素被活化，形成放射性同位素。在事故情况下，这些活化产物可能会释放，对环境和工作人员造成辐射危害。因此，选择低活化材料对于聚变堆的安全性和可持续发展至关重要。
@@ -9359,7 +8217,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -9385,18 +8243,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我收到一个用户的问题，比较几种聚变堆候选结构材料的优缺点。这些材料包括RAFM钢、ODS钢、钒基合金和碳化硅复合材料。用户希望从辐照性能、力学性能、温度窗口、兼容性和制造工艺等方面分析。
-首先，我需要明确用户的需求。看起来他们可能是在研究聚变堆材料的选择，或者是参与相关项目的人。他们可能希望了解哪种材料最适合特定的应用场景，或者在不同条件下哪种材料表现更好。
-接下来，我要逐一分析每种材料的特点。RAFM钢，我得记得它的辐照性能和高温强度。ODS钢应该有更好的辐照稳定性和高温性能，但脆性可能是个问题。钒基合金可能在高温下表现优异，但辐照肿胀是个挑战。碳化硅复合材料在高温和辐照下都很稳定，但制造复杂，成本高。
-然后，我需要考虑辐照性能。哪种材料在高能中子辐照下表现更好？RAFM钢可能在高温下有辐照硬化和肿胀，ODS钢可能更好，钒基合金可能在高温下辐照性能好，而SiC/SiC可能在辐照下尺寸变化小。
-关于力学性能，RAFM钢和ODS钢都是高强度和良好韧性，但高温下可能变脆。钒基合金高温下强度保持不错，而SiC复合材料在高温下力学性能稳定，但韧性可能较低。
-工作温度方面，RAFM钢适合中低温，ODS钢适合中高温，钒基合金适合高温，SiC/SiC适合更高温。制造方面，RAFM和ODS钢工艺成熟，钒基合金需要开发熔铸技术，SiC复合材料工艺复杂。
-兼容性方面，RAFM钢与水冷却剂和锂增殖剂相容，ODS钢也一样，钒基合金可能与熔融盐兼容，SiC/SiC可能与氦气和熔融盐兼容。
-最后，总结一下。RAFM钢适合中低温，成本低，但辐照性能一般；ODS钢适合中高温，辐照好，脆性问题；钒基合金高温性能好，辐照肿胀，制造难；SiC/SiC高温性能稳定，辐射稳定，但制造复杂。
-用户可能需要根据具体项目的需求来选择材料，比如温度范围、辐照条件和制造能力等。可能他们是在设计聚变堆的不同部件，需要不同的材料，所以比较这些材料的优缺点对他们来说非常重要。
-我得确保我的分析涵盖所有用户提到的方面，并且结构清晰，方便用户快速理解。这样他们就能根据自己的具体情况做出最佳选择。
-&lt;/think&gt;
-### **核心结论**  
+          <t>### **核心结论**  
 不同聚变堆候选结构材料在辐照性能、力学性能、工作温度窗口、兼容性及制造工艺等方面各有优劣，需根据聚变堆设计需求综合选择。
 ---
 ### **背景与概念**  
@@ -9457,7 +8304,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -9483,13 +8330,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在要解决的问题是论述当前缺乏聚变中子源对聚变材料研发和认证带来的挑战，以及如何利用现有辐照设施模拟聚变中子环境，同时分析这些方法的局限性。首先，我需要理解聚变中子源的重要性，以及为什么缺乏这种设施会对材料研发产生影响。
-聚变中子源主要来自聚变反应，比如氘和氚的聚变会产生高能中子。这些中子对材料的辐照效应包括材料损伤、性能变化等，这些都是研发聚变材料时必须考虑的因素。如果没有聚变中子源，材料测试就需要借助其他辐照设施，如裂变堆、离子束、散裂中子源等。
-接下来，我需要详细分析每种现有辐照设施的优缺点。裂变堆可以提供高通量中子，但中子能谱与聚变堆不同，主要是热中子。这可能无法准确模拟聚变中子的高能部分。离子束辐照速度快，成本低，但离子与中子的相互作用不同，只能模拟部分损伤机制。散裂中子源能提供脉冲中子束，能谱接近聚变堆，但通量低，材料体积受限，经济成本高。
-然后，我需要讨论这些方法的局限性，比如中子能谱的差异、辐照率的不同、以及材料尺寸限制等。这些因素限制了它们在模拟聚变环境时的准确性，可能导致材料测试结果与实际聚变反应堆中的表现不一致。
-最后，我需要总结这些问题，并提出可能的解决方案，比如开发中间设施或在实验中进行多方法交叉验证。这有助于在缺乏聚变中子源的情况下，尽可能准确地评估聚变材料的性能。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 聚变中子源的缺失严重阻碍了聚变材料研发和认证，现有辐照设施（如裂变堆、离子束、散裂中子源）可部分模拟聚变中子环境，但各有局限性，需结合多种方法进行综合研究。
 ### 背景与概念  
 聚变反应堆（如托卡马克装置）运行时会产生大量高能中子，这些中子会与堆芯材料发生相互作用，导致材料损伤（如辐照脆化、肿胀、氦生成等）。缺乏实际聚变中子源意味着无法直接测试和认证候选材料在真实聚变环境中的性能，这对聚变堆的建设和运行构成了重大挑战。
@@ -9536,7 +8377,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -9562,15 +8403,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，我得解释辐照如何改变材料的韧脆转变温度（DBTT），这对聚变堆结构部件的影响又是什么。首先，辐照效应在核材料中是一个关键问题，尤其是聚变堆，因为高能中子会与材料发生反应，导致结构变化。
-DBTT是材料从韧性变为脆性转变的临界温度，提高DBTT意味着材料在低温下更容易脆断。辐照为什么会引起DBTT的变化呢？可能是因为辐照会导致材料内部产生缺陷，比如位错和空位，这些缺陷可能会改变材料的微观结构，使其更容易断裂。
-接着，辐照可能导致材料出现辐照硬化，这会增加材料的硬度，但也可能降低其韧性。这可能是因为材料在辐照后变得更加刚硬，无法有效地吸收冲击能，从而在较低温度下就会发生脆性断裂。
-另外，辐照可能导致材料内部形成纳米级的缺陷，如位错环、空洞等，这些缺陷可能会阻碍位错的运动，从而改变材料的力学性能。当温度降低时，材料的韧性进一步下降，导致脆性断裂更容易发生。
-对聚变堆结构部件来说，启动和停机时的温度变化很大，如果DBTT提高，材料在低温下更容易脆断，特别是在启动或停机过程中，温度波动可能使材料处于危险的温度范围内。这将影响结构部件的完整性，可能导致部件破裂，影响聚变堆的安全运行。
-此外，偏离正常工况时，比如功率波动或意外事件，温度和应力可能会超出设计范围，这时材料的DBTT升高会增加结构失效的风险。因此，选择能够抵抗辐照效应的材料，并在设计中考虑DBTT的变化，对于聚变堆的安全运行至关重要。
-总结一下，辐照通过导致材料内部结构变化和力学性能改变，提高了DBTT，使得材料在低温下更容易脆断。这在聚变堆结构部件的启动/停机和偏离正常工况时，会增加结构失效的风险，影响聚变堆的完整性。
-&lt;/think&gt;
-### 解释辐照如何改变材料的韧脆转变温度（DBTT）及其对聚变堆结构部件的影响
+          <t>### 解释辐照如何改变材料的韧脆转变温度（DBTT）及其对聚变堆结构部件的影响
 #### 1. 核心结论
 辐照通过引入缺陷和辐照硬化效应，显著提高材料的韧脆转变温度（DBTT），这对聚变堆结构部件在启动/停机或偏离正常工况时的结构完整性构成重大挑战。
 #### 2. 背景与概念
@@ -9607,7 +8440,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -9633,40 +8466,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好的，我来仔细思考一下关于液态金属包层与结构材料之间腐蚀和相容性的问题，以及缓解这些挑战的方法。
-首先，理解问题本身，液态金属（如铅锂）在核聚变装置中作为包层，用于吸收中子并产生氚。结构材料则可能使用RAFM钢（Reduce Activation Ferritic/Martensitic steel）。两者之间的腐蚀和相容性问题，直接关系到装置的长期稳定性和寿命。
-**问题核心在于液态金属与结构材料的相互作用**，这包括物理化学反应、腐蚀机理以及材料性能的退化。RAFM钢作为结构材料，其在高温下的稳定性、抗氧化性和抗腐蚀能力都是关键因素。而液态金属，如铅锂，具有较高的流动性和反应活性，容易与结构材料发生化学反应，导致材料腐蚀。
-**第一步：腐蚀和相容性问题的分析**
-液态金属与结构材料之间可能发生的腐蚀类型包括：
-1. **溶解腐蚀**：液态金属可能溶解结构材料中的某些成分，导致材料强度降低。
-2. **化学反应**：结构材料中的铁、镍等金属元素可能与液态金属发生化学反应，形成化合物或合金层。
-3. **电化学腐蚀**：由于液态金属和结构材料之间的电位差，可能形成微电池，加速腐蚀。
-4. **机械磨损**：液态金属的流动可能对结构材料表面造成磨损，尤其是在高流速区域。
-**第二步：缓解措施**
-为了缓解这些问题，可以考虑以下几种方法：
-1. **材料选择**：
-   - **耐腐蚀材料**：选择对液态金属有更好抗性的材料。例如，使用更耐腐蚀的合金，或者使用非金属材料如陶瓷或碳基材料。
-   - **兼容性材料**：确保结构材料与液态金属在化学和物理性质上相兼容，减少相互反应的可能性。
-2. **涂层技术**：
-   - **保护涂层**：在结构材料表面涂覆一层耐腐蚀的涂层，如氧化物、氮化物或金属间化合物涂层，以隔绝液态金属与结构材料的直接接触。
-   - **自愈合涂层**：开发能够在微损伤后自行修复的涂层，延长涂层的使用寿命。
-3. **液态金属化学控制**：
-   - **杂质控制**：严格控制液态金属中的杂质含量，减少杂质引起的腐蚀。
-   - **化学添加剂**：添加适量的化学添加剂，以调节液态金属的化学性质，降低其反应活性，同时不影响其作为中子倍增剂和氚生产剂的功能。
-**第三步：具体实施与验证**
-在选择材料和涂层时，需要进行实验室规模的模拟实验，验证其在高温、高辐射环境下的耐腐蚀性能。同时，开发用于监测材料状态的诊断工具，如在线监测涂层完整性或结构材料腐蚀程度的传感器，以便及时调整和维护。
-**第四步：工程与实验意义**
-通过材料选择、涂层技术和化学控制，可以有效降低液态金属与结构材料之间的腐蚀和相容性问题，延长聚变装置的使用寿命，提高运行的安全性和经济性。这不仅有助于提高聚变能的可行性，也为未来大规模商业应用奠定基础。
-**可能存在的疑问或挑战**
-在实际应用中，可能遇到以下问题：
-- **涂层与基材的附着力**：涂层在高温下的附着力和稳定性需要进一步验证。
-- **化学添加剂的影响**：添加剂可能对液态金属的其他性能产生不利影响，如流动性或中子倍增效率。
-- **材料成本与可获得性**：耐腐蚀材料和特殊涂层可能成本较高，影响工程的经济性。
-因此，在材料选择和涂层设计时，需要综合考虑性能、成本和可用性，确保解决方案的可行性和可持续性。
-**总结**
-液态金属包层与结构材料之间的腐蚀和相容性问题，是核聚变装置设计中的重要挑战。通过合理的材料选择、先进的涂层技术和有效的液态金属化学控制，可以显著缓解这些问题，为实现聚变能的实用化奠定坚实基础。
-&lt;/think&gt;
-### 结论
+          <t>### 结论
 液态金属（如铅锂）与结构材料（如RAFM钢）之间的腐蚀和相容性问题主要源于液态金属的高活性、辐射环境、高温度和高中子通量。通过选择耐腐蚀和耐辐照的材料、使用保护涂层以及调控液态金属的化学成分，可以有效缓解这些问题，从而延长装置寿命并确保安全运行。
 ---
 ### 背景与概念
@@ -9716,7 +8516,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -9742,17 +8542,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好，我现在要回答关于先进制造技术，特别是增材制造或3D打印，在聚变部件制造中的应用前景和挑战。同时，我还要讨论这些技术如何影响材料的微观结构和性能。
-首先，我需要了解增材制造的基本原理，以及它在复杂几何形状和多材料部件中的应用。增材制造允许逐层构建部件，这对于传统制造难以实现的复杂结构特别有用。这在聚变装置中可能非常有用，因为它们通常需要承受极端条件，比如高温和高辐射，而传统材料可能难以满足这些要求。
-接下来，我要考虑聚变部件的需求。托卡马克装置需要耐高温、高强度、低活化材料，同时可能需要复杂的冷却系统来管理热量。增材制造可以实现内部冷却通道的集成，这可能比传统制造更高效和可靠。
-然后，我需要分析增材制造带来的材料性能变化。增材制造过程中，材料可能会经历不同的热处理，导致微观结构的变化，比如晶体结构的变化或缺陷的形成。这些变化会影响材料的强度、延展性和耐腐蚀性等性能。我需要探讨这些变化的具体影响，以及如何通过工艺参数优化来控制这些变化。
-挑战方面，我需要考虑当前增材制造在聚变部件中的应用限制。首先，材料选择有限，可能无法满足聚变装置的极端要求。其次，工艺的可重复性和一致性可能需要进一步提高，以确保部件的性能一致性。此外，成本也是一个问题，增材制造目前可能比传统制造更昂贵，尤其是在大规模生产时。
-前景方面，增材制造能够实现复杂结构和多材料部件，这在聚变装置中非常重要。随着技术的发展，材料选择和工艺控制可能会得到改善，从而提高部件的性能和可靠性。长期来看，这可能降低聚变能源的成本，使其更接近商业化。
-最后，我需要总结关键点，指出增材制造在聚变部件中的潜力和需要克服的挑战，同时强调材料性能和微观结构研究的重要性。
-在撰写过程中，我需要确保每个部分都有足够的解释，并且逻辑清晰。我要用严谨的语言，避免主观猜测，同时确保所有技术术语准确无误。此外，我需要确保结构清晰，方便读者快速理解内容。
-总的来说，我的思路是先介绍增材制造在聚变部件中的应用前景，然后讨论其对材料性能的影响，接着分析面临的挑战，最后展望未来的发展方向。确保每个部分都有具体的例子和深入的分析，以支撑我的观点。
-&lt;/think&gt;
-### **1. 核心结论**  
+          <t>### **1. 核心结论**  
 增材制造技术在聚变部件制造中具有巨大潜力，尤其适用于复杂几何和多材料结构，但目前面临材料性能、微观结构控制和工艺一致性等挑战。
 ---
 ### **2. 背景与概念**  
@@ -9801,7 +8591,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -9827,15 +8617,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于聚变堆需要哪些关键功能材料以及它们各自的材料科学挑战。首先，用户已经提到了结构材料、诊断窗口材料、绝缘陶瓷材料和热沉材料。我需要详细分析每个材料的重要性及其面临的挑战。
-聚变堆除了结构材料，还需要考虑诊断系统、绝缘、热管理等多个方面。诊断窗口材料需要透明且能承受高辐照，这可能涉及到材料的耐辐照性和光学性能的保持。因为聚变堆中的高能粒子和中子辐照会影响材料的结构，导致材料性能下降，因此如何保持其透明度和完整性是个难题。
-绝缘陶瓷材料用于高温高辐照环境，需要防止漏电同时保持结构完整。这可能需要材料在极端条件下的电绝缘性能和机械稳定性。陶瓷材料通常脆性大，如何在高辐照下保持强度和韧性是关键问题。
-热沉材料比如铜合金，需要高效的热传导和耐高热负荷，同时在高温下不发生蠕变。这可能涉及到材料在循环热载荷下的疲劳行为，以及如何设计材料结构以提高耐久性。
-我还想到可能还有其他功能材料，比如用于氚增殖的材料，需要具备高捕获效率和长使用寿命。辐射屏蔽材料需要阻挡中子和其他辐射，同时减少活化产物的产生。还有诊断和控制用的超导磁体，需要在低温和强磁场下保持性能。
-每个材料面临的挑战可能包括辐照效应、极端温度、高应力、循环载荷等。例如，超导材料需要在低温下保持超导状态，同时承受强磁场和机械应力。辐射屏蔽材料则需要具备良好的中子吸收能力，同时不生成太多活化产物。
-总结来说，每个功能材料都需要在极端环境下保持特定性能，解决这些挑战可能需要多学科合作，开发新型材料或优化现有材料的性能。
-&lt;/think&gt;
-聚变堆不仅需要结构材料，还需要多种关键的功能材料以确保其正常运行。以下是这些材料及其面临的独特材料科学挑战：
+          <t>聚变堆不仅需要结构材料，还需要多种关键的功能材料以确保其正常运行。以下是这些材料及其面临的独特材料科学挑战：
 ### 1. 诊断窗口材料
 **用途**：用于聚变堆的光学诊断，如可见光、红外或X射线诊断。
 **挑战**：
@@ -9936,7 +8718,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -9962,15 +8744,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好，我现在需要解答关于D-T聚变堆中氚自持必要性以及氚增殖的基本核反应原理等问题。首先，我得明确用户的问题。用户是一名资深聚变等离子体物理与工程专家，希望按照特定的答题规范来详细阐述这些内容。
-首先，氚自持的必要性。氚是一种稀有的同位素，自然界含量极少，主要存在于矿物中。在聚变堆中，D-T反应释放中子，这些中子可以与锂反应生成氚。如果聚变堆能够自给自足，不需要外部氚供应，可以减少资源依赖，保障长期运行。这是非常重要的，因为如果不自持，可能面临氚短缺和供应问题。
-接下来是氚增殖的基本核反应原理，涉及n+⁶Li和n+⁷Li。我需要写出这两个反应的方程式，并解释各自的产物和释放的中子数。6Li在热中子下容易裂变，生成氚和氦，同时释放出中子。而7Li需要在更高的能量中子下才会反应，生成氚和两个中子。这两个反应都是在聚变堆的增殖区中进行的。
-然后是氚增殖比（TBR）的定义，即聚变堆产生的氚与消耗的氚的比率。如果TBR等于1，说明自给自足；大于1则表示有盈余。实际聚变堆的TBR必须显著大于1，因为有各种损失和消耗，比如氚在等离子体中的损失、管道和阀门的泄漏，以及在增殖区的消耗。因此，设计中需要一个较高的TBR来弥补这些损失，确保长期运行。
-在写作过程中，我需要按照规范的步骤进行：首先给出核心结论，然后解释背景和概念，接着是原理和推导，然后是定量估算，再分析工程或实验意义，最后是比较与拓展和要点总结。要确保每个部分都清晰明了，使用规范的单位和符号，必要时用LaTeX格式写出方程。
-可能还需要考虑到用户可能的深层需求，比如设计聚变堆时的考虑因素，或者氚循环的具体过程。这可能需要提到氚的分离技术，比如蒸馏法，以及锂的来源。此外，还需要指出TBR过高的设计可能导致装置复杂性增加，因此需要在经济性和效率之间找到平衡。
-最后，要确保语言严谨，避免猜测，所有结论都有据可依。这样，用户不仅能理解氚自持的重要性，还能掌握氚增殖的基本原理和设计考量，这对聚变堆的设计和运行具有重要意义。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 氚自持是实现D-T聚变堆可持续运行的关键，避免对稀缺资源的依赖；氚增殖通过n+⁶Li和n+⁷Li反应实现，而氚增殖比（TBR）必须大于1以弥补系统中氚的损失。
 ---
 ### 背景与概念  
@@ -10013,7 +8787,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -10039,17 +8813,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，这个问题是要比较固态增殖剂包层和液态金属增殖剂包层在多个方面的优缺点。我先得理解一下这两种包层的基本概念。
-固态增殖剂包层，比如HCPB和WCCB，主要使用的是固体材料，如铍或者碳化硅。而液态金属增殖剂包层，如DCLL和WCLL，使用的是液态金属，如液态锂或锂铅混合物。这两种设计在聚变反应堆中起到增殖氚的作用，同时还要处理高能中子的辐照和极高的温度。
-首先，氚增殖性能方面，固态包层的氚增殖效率可能受到材料致密性和设计结构的限制，因为固态材料的氚释放和收集可能不如液态金属高效。液态金属因为流动性好，可能更容易均匀分布中子捕获，从而提高增殖效率。
-接着是氚提取方式。固态包层可能需要复杂的加热或化学处理方法来提取氚，而液态金属因为循环流动，可能更容易通过蒸馏或化学方法提取氚，这样提取效率更高，也更容易自动化。
-热工水力特性方面，液态金属能够更好地带走核反应产生的热量，循环性能也更稳定，这样在热管理上更有优势。而固态包层的热传导可能不如液态金属好，特别是在极端高温下，可能会面临更大的热应力和热疲劳问题。
-材料兼容性方面，液态金属可能与包层结构材料如钢或合金有更好的相容性，因为它们可以流动，减少应力集中。而固态材料在长期辐照下可能会出现辐照损伤和结构脆化，特别是铍和碳化硅在高温下的稳定性可能不如预期。
-安全性方面，液态金属包层在事故情况下可能更稳定，因为液态金属的流动特性有助于事故后的处理和冷却。而固态包层在事故情况下可能面临更高的风险，比如材料断裂或氚泄漏。此外，液态金属的火灾风险较低，因为它们在常温下是固态，但高温下会流动，容易控制。
-工程复杂度方面，液态金属包层需要设计循环系统，包括泵、管道和热交换器，这可能会增加系统的复杂性和成本。而固态包层虽然结构简单，但在氚提取和热管理方面可能需要更多的技术投入，比如复杂的加热装置和氚收集系统。
-综上所述，液态金属包层在氚增殖效率、提取方式和热管理方面可能更具优势，但在材料兼容性和工程复杂度上可能面临更多挑战。固态包层则在材料稳定性和结构简单性上较好，但氚提取和热管理方面可能不够高效。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 液态金属增殖剂包层（如DCLL, WCLL）在氚增殖效率、热工水力性能和氚提取便利性方面优于固态增殖剂包层（如HCPB, WCCB），但液态金属包层在材料兼容性、安全性和工程复杂度上面临更大的挑战。
 ---
 ### 2. 背景与概念
@@ -10102,7 +8866,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -10128,14 +8892,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在需要详细描述ITER实验包层模块（TBM）计划的目标和主要内容。首先，ITER是一个国际热核聚变实验堆，它的主要目的是验证聚变能作为未来能源的可行性。而TBM计划作为ITER的一部分，应该是在ITER运行期间测试未来示范反应堆DEMO所需的包层技术。
-目标方面，我觉得应该是测试和验证多种候选的TBM概念，为DEMO的设计提供数据和经验。这可能包括氚增殖、热管理和材料测试等关键方面。主要内容可能涉及设计、制造、安装和测试不同的TBM模块，可能还会有诊断和数据收集系统。
-接下来，ITER将测试哪些类型的TBM概念呢？根据我所了解的，可能包括干式和水冷式模块，以及固体和液体燃料类型。例如，氦冷陶瓷或铍芯块作为固体燃料，而水冷锂铅或锂陶瓷则可能属于液体燃料类型。
-然后，从TBM实验中期望获得的关键数据和经验可能包括氚增殖效率、热负荷处理能力、材料的辐射性能、机械性能和耐辐照性能等。这些数据将直接支持DEMO包层的设计，帮助选择最优的技术和材料组合。
-不过，我可能需要查阅更多资料来确认这些信息是否准确，特别是关于ITER测试的具体TBM类型和他们希望收集的具体数据。此外，是否还有其他TBM概念？比如模块化设计或者集成诊断系统？
-总的来说，TBM计划是ITER的重要组成部分，旨在为未来的聚变示范堆积累必要的技术和工程经验。
-&lt;/think&gt;
-**实验包层模块（TBM）计划的目标和主要内容**
+          <t>**实验包层模块（TBM）计划的目标和主要内容**
 **目标：**
 实验包层模块（TBM）计划的主要目标是测试和验证多种候选的TBM概念，为未来示范反应堆DEMO的设计和运行提供关键数据和经验。具体包括氚增殖、热管理和材料性能的验证。
 **主要内容：**
@@ -10157,7 +8914,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -10183,15 +8940,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，今天遇到了一个关于聚变反应堆中子倍增剂的问题，用户提到了铍作为倍增剂的作用和必要性，以及使用铍可能带来的材料和安全问题，还有是否有替代材料。我得好好想想怎么回答这个问题。
-首先，铍作为中子倍增剂的工作原理是什么？我记得在聚变反应中，中子的产生是一个关键环节，尤其是氚的增殖。铍在受到快中子轰击时会裂变生成更多的中子，这样可以增加中子的总量，促进更多的聚变反应。这对于实现自持的聚变反应很重要，因为它能提升中子的产量，进而提高氚的增殖效率。
-然后，铍在材料和安全方面的缺点是什么呢？辐照肿胀应该是一个大问题，铍在高剂量中子辐照下会发生结构膨胀，这会影响包层的 integrity，可能会导致部件损坏。另外，铍的毒性也是一个严重问题。铍粉尘对人体有害，吸入后可能引起肺部疾病，这对实验人员和周围环境都是安全隐患。还有，铍在高温下容易挥发，这在反应堆运行过程中可能释放有毒物质，增加风险。
-接下来，替代材料有哪些呢？我听说PEBK和SiC都是候选材料。PEBK是一种有机聚合物，它在辐照下更稳定，毒性和放射性更低，且生产成本较低。SiC是一种陶瓷材料，高温性能好，耐辐照能力强，但是生产成本较高。所以，PEBK和SiC都有各自的优势和劣势。
-那铍作为倍增剂的必要性呢？在现有技术中，铍确实是最有效的中子倍增材料，没有铍的话，中子增殖效率会降低，可能影响聚变反应的可持续性。所以，铍的应用目前来看还是必要的，但未来可能会寻找更安全、更可靠的替代品。
-另外，铍的安全处理和防护措施也很重要。需要设计良好的屏蔽和过滤系统，确保铍粉尘不会泄漏，同时对工作人员进行严格的防护培训。这些措施可以有效降低铍带来的安全风险。
-总的来说，铍作为中子倍增剂在聚变堆中是必要的，但存在材料辐照损伤和安全问题。替代材料如PEBK和SiC是潜在的选择，但各有优缺点，需要进一步研究和开发。未来的研究方向可能是寻找性能更优、更安全的倍增材料，同时改进铍的处理和防护技术，以提高聚变堆的安全性和可持续性。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 中子倍增剂（如铍）在氚增殖包层中通过中子倍增反应提升中子产量，从而促进氚的增殖；然而，铍在辐照肿胀和毒性方面存在材料与安全问题，未来可能需要探索替代材料方案。
 ---
 ### 背景与概念  
@@ -10240,7 +8989,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -10266,13 +9015,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在要详细描述HCPB包层的氚提取系统，以及它面临的主要技术挑战。首先，HCPB是氦冷铸石包层，我需要了解它的基本结构。HCPB由铍块作为增殖材料，外面包裹着碳化硅复合材料作为结构材料，同时通过氦气冷却。
-接下来是氚提取系统的工作原理。铍块吸收中子，生成氚和氦-4。氚会扩散到结构材料，然后通过冷却回路释放到气流中，最终收集起来。过程中需要控制反应活性，避免氚的大量积累导致失控释放。
-然后是氚提取的工艺流程。首先，活化后的铍块在特定温度下进行退火处理，释放氚。释放的氚气被收集到储存系统，经过净化后可以被提取出来用于燃料循环。
-在主要技术挑战部分，氚渗透是一个大问题。材料的选择需要既能有效增殖氚，又不会让氚渗透出去。提取效率方面，如何高效地从结构材料中提取氚，可能需要优化材料的微观结构。铍块的辐照性能也很关键，长期高温和辐照会导致材料性能退化，影响氚的释放和包层的稳定性。
-最后，材料的选择和结构设计需要综合考虑各种因素，以解决这些技术挑战。比如选择高阻氚渗透的材料，优化孔隙结构提高提取效率，同时确保材料的辐照稳定性。
-&lt;/think&gt;
-### 固态增殖剂包层概念：氦冷铸石包层（HCPB）的氚提取系统
+          <t>### 固态增殖剂包层概念：氦冷铸石包层（HCPB）的氚提取系统
 #### 1. **核心结论**
 HCPB包层通过铍块中的中子活化反应生成氚，随后通过热处理和气体吹扫工艺提取氚，面临的主要技术挑战包括氚渗透、提取效率及材料辐照性能。
 ---
@@ -10322,7 +9065,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -10348,19 +9091,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论的是液态金属增殖剂包层中的氚提取技术，特别是针对PbLi DCLL概念。首先，我得理解什么是PbLi DCLL。PbLi应该是指铅锂合金，而DCLL可能指的是双冷却液环形包层，这样的设计通常用于聚变反应堆，因为液态金属具有好的中子慢化能力和高热导率。
-问题集中在氚的提取技术，比如真空渗透和气体吹扫。氚在反应堆中的产生是因为中子和锂的反应，生成氚和氦。这个过程发生在增殖剂中，而增殖剂在循环流动，所以氚会被带出并与冷却剂混合。如何有效地从液态金属中提取氚是一个关键问题，因为它关系到反应堆的氚自持能力。
-首先，我得了解氚在液态金属中的存在形式。PbLi中的氚可能以溶解的形式存在，或者与材料表面结合。因为液态金属的密度较大，而氚的原子量较小，所以可能存在密度差，可以利用蒸馏原理来分离。
-接下来，关于真空渗透法，它的原理应该是利用压力差将氚从液态金属中分离出来。在高真空环境下，氚的蒸气压较高，容易蒸发，从而进入气相，再通过冷凝器收集。这可能是一个被动的过程，不需要太多外部能量，但效率可能取决于液态金属的表面积、温度和真空度。
-然后是气体吹扫法，这种方法通常是在液态金属中通入气体，比如氦气，利用气泡携带氚蒸气离开液态金属。这种方法的效率可能受气流速度、气体种类以及液态金属的流动状态影响。气体吹扫法需要考虑到气体与液态金属的相容性，以及气体可能带来的杂质问题。
-液态金属中的氚渗透和滞留问题，可能涉及到材料的选择。例如，包层材料是否容易吸附氚，或者是否会促进氚的析出。选择合适的材料可以减少氚的滞留，提高提取效率。
-在工程实现上，这两种方法都有各自的优缺点。真空渗透法可能设备简单，但处理能力有限，尤其在大规模工业应用中。而气体吹扫法可能需要更复杂的设备，包括气体供应和处理系统，以及防止气体泄漏的措施。
-效率方面，可能需要对两种方法进行比较。比如，在相同条件下，哪种方法能提取更多的氚，或者提取速度更快。可能需要通过实验或模拟来确定。
-难点可能包括液态金属的处理安全性，氚的提取效率，以及长期运行的可靠性。例如，PbLi在高温下可能会有腐蚀性，对设备材料的要求很高。此外，氚的活性很高，处理过程中需要考虑辐射防护和氚的回收安全性。
-我还需要考虑现有技术中是否有实际应用的案例，或者有哪些研究在进行。比如，国际热核聚变实验堆（ITER）是否有相关的氚提取系统，或者是否有其他实验堆采用类似的方法。
-最后，可能还需要综合各种因素，如成本、维护复杂度、系统的可靠性和可扩展性，来评估哪种方法更适合PbLi DCLL包层的设计。
-&lt;/think&gt;
-### 氚提取技术：真空渗透与气体吹扫
+          <t>### 氚提取技术：真空渗透与气体吹扫
 #### 真空渗透法
 1. **原理**  
    真空渗透法利用压力差，将氚从液态金属中提取出来。在高真空环境下，氚的蒸气压较高，容易蒸发并进入气相，随后通过冷凝器收集。
@@ -10402,7 +9133,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -10428,15 +9159,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好的，我现在要详细回答关于聚变堆氚工厂的主要组成部分及其功能，以及面临的关键技术和安全挑战。首先，我需要明确问题中的各个部分，包括燃料清理、同位素分离、氚储存输运和氚的衡算。
-首先，燃料清理系统。我需要理解它在聚变堆中的作用，特别是如何从反应后的混合气体中去除杂质，比如未反应的氢同位素和氦-3等。可能需要讨论所使用的设备，如低温蒸馏塔或吸附床，以及它们的工作原理。此外，如何处理含有放射性物质的废气也是一个关键点，可能涉及净化和安全排放的措施。
-接下来是同位素分离系统。这部分主要是将氘和氚从氢气中分离出来。我需要考虑使用的分离方法，如蒸馏法、电解法或分子筛吸附法。每种方法都有其优缺点，比如蒸馏法可能需要高温高压，而电解法则可能在能源效率上更有优势。此外，分离效率和设备的复杂性也是需要讨论的。
-然后是氚的储存和输运系统。氚是一种放射性物质，容易扩散，因此储存和输运需要特别小心。可能需要讨论使用有机和无机化合物来作为氚的载体，以及如何确保这些储存容器的密封性和安全性。在输运过程中，防止泄漏和确保运输的安全性也是重点。
-最后是氚的精确衡算。由于氚的放射性，准确追踪其数量和流动是必不可少的。我需要讨论使用的方法，如在线监测、取样分析和计算机模拟，以及如何结合这些方法来实现精确的衡算。
-在分析这些系统的功能之后，我需要转向关键技术和安全挑战。例如，在燃料清理中，如何提高杂质去除的效率同时降低成本？在同位素分离中，选择高效且经济的方法可能面临技术瓶颈。氚的储存和输运涉及材料科学的问题，如找到能够长期安全储存氚的材料。此外，放射性物质的处理和人员防护也是安全上的重要问题。
-在总结时，我需要强调各系统之间的协同作用，以及在技术和安全上的创新需求，以确保聚变堆的高效运行和安全性。
-&lt;/think&gt;
-### 聚变堆氚工厂主要组成部分及其功能
+          <t>### 聚变堆氚工厂主要组成部分及其功能
 #### 1. 燃料清理（杂质去除）系统
 - **功能**：从聚变反应后的混合气体中去除未反应的氢同位素（如氢、氘、氦-3等），以及生成的杂质气体。
 - **设备**：通常使用低温蒸馏塔、吸附床或离子泵等装置，以不同温度下气体的凝结特性实现分离。
@@ -10495,7 +9218,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -10521,15 +9244,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在得分析聚变堆中氚清单的主要影响因素，以及为什么最小化氚清单对安全性和经济性这么重要。首先，我得回忆一下氚在聚变反应中的作用。氚是一种稀有的同位素，主要用于与氘核聚变产生能量。在托卡马克装置中，尤其是像ITER这样的装置，包层设计至关重要，因为它们不仅吸收中子，还负责产生氚。
-首先，包层滞留。包层中的材料，比如锂陶瓷，会捕获中子，生成氚。但是，这些氚可能会被包层材料吸附，无法释放出来，这就增加了氚的滞留量。此外，温度和材料的结构可能会影响氚的释放效率。
-接下来是PFC滞留。PFCs是第一壁材料，直接面对高温等离子体。等离子体中的氢同位素，包括氚，可能会被PFCs中的金属材料吸附或渗透。温度、材料类型以及表面处理都会影响氚在这些部件中的滞留情况。
-然后是燃料循环系统的滞留。这个系统负责氚的回收和再利用，如果系统中的设备，比如分离器或储存器，效率不高，就会导致氚在系统中滞留。这部分的管理直接影响氚的库存量。
-为什么最小化氚清单重要呢？首先，经济性方面，氚成本很高，减少滞留意味着减少补充的需求，降低成本。其次，安全性方面，减少滞留可以降低事故中的氚释放风险，比如在事故情况下，系统外的氚量越少，风险就越低。
-接下来，我得考虑如何减少这些滞留。可能的措施包括优化包层设计，使用更高效的材料，提高PFC的表面处理，减少吸附，以及改进燃料循环系统的回收技术。此外，实时监测和诊断系统也很重要，能够及时发现问题，调整参数，减少氚的滞留。
-总的来说，最小化氚清单是一个系统工程，涉及材料科学、工程设计和运行管理等多个方面。需要综合考虑各种因素，才能有效降低氚的库存，提升聚变堆的安全性和经济性。
-&lt;/think&gt;
-### 分析影响聚变堆整体氚清单（Tritium Inventory）的主要因素
+          <t>### 分析影响聚变堆整体氚清单（Tritium Inventory）的主要因素
 #### 核心结论
 聚变堆的氚清单受包层滞留、PFC滞留和燃料循环系统滞留等多方面因素影响，最小化氚清单可显著提升装置的安全性和经济性。
 #### 背景与概念
@@ -10556,7 +9271,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -10582,21 +9297,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好吧，我现在要讨论实现DEMO氚自持所面临的综合性挑战。首先，我需要明确DEMO的目标是什么。DEMO的目标是氚自持，也就是氚的增殖比TBR要大于1.1或者更高。这涉及到多个因素，包括包层覆盖率、中子泄漏、结构材料吸收、增殖剂富集度以及氚提取和处理过程中的损失等。
-首先，包层覆盖率。包层覆盖率指的是在反应堆内，能够与中子发生反应的区域所占的比例。如果包层覆盖率不够高，意味着很多中子没有被有效利用来产生氚，这会直接影响TBR。那么，如何提高包层覆盖率呢？可能需要优化包层的设计，比如增加包层的体积，或者使用更高效的材料。但这样做可能会增加成本和复杂性，甚至影响结构的稳定性。
-接下来是中子泄漏。中子在反应堆内运动时，如果没有被包层捕获，就会泄漏出去，无法参与增殖反应。这会导致中子的损失，进而影响TBR。中子泄漏的程度受到很多因素的影响，比如反应堆的大小、形状、材料等。为了减少中子泄漏，可能需要使用更有效的慢化剂或者反射层，以增加中子在反应堆内的停留时间。但这些措施可能会增加设计的复杂性和成本。
-结构材料吸收也是一个重要的因素。结构材料可能会吸收中子，从而减少可用的中子数量。这意味着需要选择中子吸收较低的材料，或者尽可能减少结构材料的使用量。但结构材料的选择还受到其他因素的影响，比如材料的耐辐射性和高温性能。因此，如何在中子吸收和结构材料性能之间找到平衡点是一个挑战。
-增殖剂富集度是指增殖剂中锂-6的含量。锂-6是产生氚的主要成分，因此富集度越高，增殖效率就越高。然而，富集度的提高需要更多的资源和更高的成本。此外，富集度的提高可能会带来其他问题，比如材料的均匀性和稳定性。因此，需要在增殖效率和成本、材料稳定性之间进行权衡。
-最后是氚提取和处理过程中的损失。即使在包层中成功地产生了氚，如果在提取和处理过程中发生了损失，也会导致TBR降低。因此，需要优化提取和处理工艺，尽可能减少损失。这可能涉及到改进提取技术、优化处理流程以及提高设备的效率和可靠性。
-综合来看，实现DEMO氚自持是一个复杂的系统工程，涉及到多个方面的挑战。每个因素都对TBR有重要影响，而且它们之间可能相互关联，相互制约。为了成功实现氚自持，需要在设计、材料、工艺等多个方面进行深入的研究和优化。
-首先，我需要从包层覆盖率入手。包层覆盖率的提高意味着更多的中子被用于增殖氚。这可以通过增加包层的体积或者使用更高效率的材料来实现。但同时，这也需要考虑结构的稳定性和成本问题。可能需要进行数值模拟和实验来优化包层的设计。
-其次，中子泄漏的问题。减少中子泄漏需要考虑反应堆的整体设计，包括形状、尺寸、慢化剂和反射层的选择。这可能需要进行多物理场的数值模拟，评估不同设计方案对中子泄漏的影响，并找出最优的设计方案。
-结构材料吸收方面，需要选择中子吸收较低的材料。但这些材料可能在耐辐射性和高温性能方面存在不足。因此，可能需要开发新的材料，或者在设计中尽量减少结构材料的使用，以减少中子的吸收。
-增殖剂富集度的提高需要在资源和成本之间进行权衡。可能需要研究新的富集技术，提高富集效率，同时降低成本。此外，还需要评估高富集度材料对反应堆性能和安全的影响。
-在氚提取和处理方面，需要优化提取工艺，减少损失。这可能涉及到改进提取设备的设计，优化处理流程，提高设备的效率和可靠性。可能需要进行实验研究，评估不同的提取和处理方法的效果。
-总的来说，实现DEMO氚自持需要在多个方面进行深入的研究和优化。每个因素都对最终的TBR有重要影响，因此需要综合考虑，找到各个因素之间的最佳平衡点。这将是一个长期而复杂的过程，需要多学科的协同合作和持续的技术创新。
-&lt;/think&gt;
-**实现DEMO氚自持的综合性挑战**
+          <t>**实现DEMO氚自持的综合性挑战**
 **1. 核心结论**  
 实现DEMO氚自持（TBR &gt; 1.1）面临多重复杂挑战，包括包层设计、中子管理、材料选择及氚循环效率，需多领域协同创新。
 **2. 背景与概念**  
@@ -10631,7 +9332,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -10657,16 +9358,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于氚在聚变电厂内的安全管理，包括多重屏障、滞留物去除和事故缓解措施，以及如何确保氚释放远低于法规限值。首先，我需要明确氚的特性和在聚变环境中的行为。
-氚是一种放射性物质，半衰期大约12.3年，释放β射线。在聚变反应中，氚作为燃料之一，与氘反应生成氦和中子。由于氚具有放射性，必须严格控制其在电厂内的泄漏，以确保工作人员和公众的安全。
-多重屏障系统是关键。通常包括反应堆容器、真空室、冷却系统等多层结构，防止氚逸出。每层都有监测系统，一旦检测到泄漏，立即启动应急程序。
-氚的滞留物去除也是重要的一环。在设备表面或管道内，氚可能会被吸附或沉积。需要定期进行清洁和净化，可能使用吸附剂或蒸馏技术来回收氚，减少滞留物的积累。
-事故缓解措施方面，应设计应急系统，如快速关闭燃料供应，启动备份冷却系统，确保即使在事故情况下也能控制氚的泄漏。此外，事故后应有详细的处理方案，包括人员疏散、环境保护等。
-法规限值方面，通常氚的年释放量会被严格控制在极低水平，如微居里级别。因此，必须通过精确的设计和维护，确保所有屏障和处理措施的有效性，使得实际释放量远低于限值。
-此外，培训和管理也是不可忽视的部分。工作人员需要经过专业培训，了解氚的安全处理和紧急应对措施。同时，电厂运营中必须有严格的安全管理和监控机制，确保所有操作符合法规要求。
-综上所述，通过多重屏障、定期净化、事故应急措施以及严格管理，可以有效确保氚在聚变电厂内的安全，使其释放量远低于法规限值。
-&lt;/think&gt;
-### 氚在聚变电厂内的安全约束和管理策略
+          <t>### 氚在聚变电厂内的安全约束和管理策略
 #### 1. **核心结论**
 氚的安全管理通过多重屏障、滞留物去除和事故缓解措施实现，确保其释放远低于法规限值，保障人员与环境安全。
 #### 2. **背景与概念**
@@ -10757,7 +9449,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -10783,15 +9475,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在得比较一下NbTi和Nb3Sn这两种低温超导材料在聚变磁体中的性能和成本。首先，我要回想一下这两种材料的基本特性。NbTi应该是一种传统的超导材料，而Nb3Sn则是更高性能的，可能更适合高磁场环境。
-聚变磁体，特别是像ITER这样的装置，环向场（TF）和中心螺线管（CS）需要非常强的磁场。所以，临界磁场可能是一个关键点。NbTi的临界磁场可能较低，而Nb3Sn的临界磁场更高，这样在高磁场下Nb3Sn表现更好。
-临界电流密度也是一个重要指标。Nb3Sn可能比NbTi有更高的临界电流密度，这意味着在相同截面积下，Nb3Sn可以承载更大的电流，这对提高磁体性能很有帮助。
-应变敏感性方面，Nb3Sn可能不如NbTi稳定。因为NbTi在受到机械应变时，性能下降可能不那么明显，而Nb3Sn可能更敏感，这在制造和运行中需要特别注意，可能导致更高的维护成本或制造复杂性。
-制造成本方面，Nb3Sn的生产过程可能更复杂。因为它通常需要高温高压反应，所以成本会比NbTi高。这可能使得在某些情况下，NbTi更具经济性，但高性能的需求下不得不选择Nb3Sn。
-ITER为什么选择Nb3Sn呢？可能因为ITER需要更高的磁场强度和更高的电流密度，来满足托卡马克的高磁场要求，从而实现稳定的等离子体约束。尽管成本高，但为了性能，ITER还是选择了Nb3Sn。
-总结一下，Nb3Sn在临界磁场和电流密度上优于NbTi，但制造成本更高，且应变敏感性更强。ITER需要高性能，所以选择了Nb3Sn，尽管成本更高，但能带来更好的磁场性能，这对于实现聚变反应是必要的。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 Nb₃Sn超导材料因其高临界磁场和高临界电流密度，非常适合聚变装置中的高磁场和强电流需求，而ITER选择其作为环向场（TF）和中心螺线管（CS）磁体的主要原因。
 ### 2. 背景与概念
 低温超导材料是聚变磁体的关键，NbTi和Nb₃Sn均为低温超导体，但性能差异显著。临界电流密度（$J_c$）、临界磁场（$B_c$）、应变敏感性和制造成本是关键比较因素。
@@ -10820,7 +9504,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -10846,13 +9530,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于CICC设计原理以及它在大型聚变磁体中的应用优势，还有面临哪些挑战。我需要从背景开始讲，首先解释什么是CICC，它和常规导体有什么不同，特别是在聚变装置中的重要性。然后，用户提到了高载流能力、稳定性和机械强度，这些都是CICC的优势，需要分别展开说明，包括每个优势的具体表现和背后的原因。
-接下来，用户问到了热工水力和电磁力学方面的挑战。这部分需要详细分析。热工水力方面，主要是冷却的问题，包括如何有效带走热量，避免热点；还有流动不稳定性和温度不均的问题。电磁力学方面，强磁场下的电磁力分布不均，可能导致应变和机械损伤，还有涡流引起的附加发热，这些都是需要考虑的因素。
-此外，用户可能还想知道为什么CICC会被选中，特别是在ITER和JT60SA这样的大型装置中。这里可以提到CICC相比其他超导材料的优势，比如更好的加工性能和成本效益。同时，设计上的挑战需要解决方案，比如优化冷却通道设计、使用高温超导材料等，这些都是未来可能的发展方向。
-最后，用户可能关心这些挑战对工程设计的具体影响，以及如何应对这些挑战。因此，在回答时需要提供具体的例子和参数，比如电流密度、最大载流量等，让用户能够理解CICC的实际应用情况和面临的困难。
-总的来说，回答应该结构清晰，分点论述，每个部分都要有具体的解释和例子，确保用户能够全面理解CICC的设计原理、优势以及面临的挑战。同时，语言要简洁明了，避免过于专业的术语，确保信息的传达清晰有效。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 CICC（Cable-In-Conduit Conductor，管内电缆导体）通过将超导电缆嵌入金属管中并填充低温冷却介质，实现了高载流能力和优异的热力学稳定性，成为ITER等大型聚变装置磁体的核心技术。然而，其设计需克服复杂的热工水力和电磁力学挑战。
 ---
 ### 背景与概念  
@@ -10918,7 +9596,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -10944,13 +9622,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>好的，我现在要回答关于高温超导材料在聚变磁体中的应用问题。首先，我需要回忆一下高温超导体（HTS）和低温超导体（LTS）的区别，以及HTS在聚变装置中的优势。
-HTS的运行温度比LTS高，这意味着冷却系统可能更简单，使用液氮而不是更昂贵的液氦。这应该降低成本和维护复杂性。另外，HTS可能允许更高的磁场，因为它们可以在更高的温度下工作，从而减少磁体中的电阻和热量生成。
-接下来，HTS磁体设计可能更紧凑，因为不需要那么多的冷却结构，这样可以节省空间，可能有助于更紧凑的聚变装置设计，比如仿星器或托卡马克的环形磁体。
-然后，我需要考虑CFS公司在这方面的突破。我知道CFS在HTS材料和磁体制造方面有很多研究，可能涉及材料的改进，如REBCO带材的性能提升，或者制造工艺的创新，比如更高效的磁体结构，以提高磁场强度和稳定性。此外，他们可能在磁场稳定性和冷却系统方面有所进展，使HTS磁体更适合实际应用。
-最后，我需要总结这些优势，比如提高聚变装置的效率、降低成本和复杂性，以及HTS磁体在紧凑设计和长期稳定运行方面的潜力。同时，也要指出当前的挑战，比如制造成本和材料的稳定性，可能需要进一步的研究来解决。
-&lt;/think&gt;
-### 高温超导材料在聚变磁体应用中的潜力
+          <t>### 高温超导材料在聚变磁体应用中的潜力
 #### 1. **核心结论**
 高温超导（HTS）材料（如REBCO）在聚变磁体应用中展现出巨大潜力，主要优势包括更高的运行温度、更强的磁场、更紧凑的设计，以及更低的冷却成本。
 #### 2. **背景与概念**
@@ -10979,7 +9651,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -11005,18 +9677,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，我现在要描述ITER大型低温系统的主要组成和功能，包括氦制冷机、液氮预冷系统、低温分配系统和过冷氦循环。还要说明系统需要达到的温度水平和制冷功率，以及面临的运行挑战，比如动态热负荷。
-首先，我想了解一下ITER的低温系统到底由哪些部分组成。根据之前的阅读，我知道低温系统主要负责为磁体和一些低温部件提供冷却，使其达到超导所需的低温环境。所以，氦制冷机应该是核心部分，因为它能够提供超低温，特别是4K左右的温度。液氮预冷系统可能在前期冷却中发挥作用，帮助降低温度，减少氦制冷机的负担。低温分配系统则负责将冷量输送到各个需要冷却的部件，比如磁体和支撑结构。过冷氦循环可能用于进一步冷却某些部件，或者帮助维持极低温环境。
-接下来，温度水平和制冷功率是关键参数。我记得ITER的超导磁体需要在4K左右工作，而某些部分可能需要更低的温度，比如使用铌锡导体的区域可能需要更低的温度，比如2K或更低。制冷功率方面，氦制冷机需要提供相当大的制冷能力，可能在数十兆瓦级别。具体的数字我可能记不太准，但大概是在40 MW左右。过冷氦循环可能需要处理更大的制冷量，因为涉及到更多的冷却回路。
-然后是运行挑战，动态热负荷应该是一个主要问题。在ITER运行过程中，等离子体放电时会产生热负荷，这些热负荷会传递到低温系统，导致温度波动。这要求低温系统具备快速响应的能力，同时保持温度稳定，否则可能会导致磁体性能下降或者系统故障。此外，系统的可靠性和复杂性也是一个挑战，因为低温系统的维护和操作需要高度专业化的知识和技能，而ITER作为一个国际合作项目，涉及到多个国家，协调和管理也是一个难题。
-在背景与概念部分，我需要解释为什么低温系统如此重要。超导磁体需要在极低温下工作，以保持其超导性能，从而产生强大的磁场来约束等离子体。因此，低温系统的性能直接影响到ITER的运行效率和安全性。氦制冷机、液氮预冷系统、低温分配系统和过冷氦循环各自承担不同的角色，共同确保整个系统的温度控制。
-在原理与推导部分，我应该详细说明每个部分的工作原理。氦制冷机通常使用吉福德-麦克劳德循环（ Claude process），通过膨胀机和节流阀来实现降温。液氮预冷系统利用液氮的蒸发来吸收热量，降低进入氦制冷机的流体温度，提高效率。低温分配系统则是一个复杂的网络，负责将冷量分配到各个磁体和其他低温部件。过冷氦循环可能通过进一步降低氦的温度，或者在某些部件中循环，以维持更稳定的低温环境。
-在定量估算方面，我需要给出具体的温度和功率数值。例如，超导磁体需要在4K或以下工作，而制冷功率可能达到约40 MW。过冷氦循环可能处理更大的制冷量，比如数十兆瓦。这些数字需要基于ITER的设计参数，可能在公开资料中可以查到，比如 ITER 官方网站或相关技术文档。
-工程或实验意义部分，低温系统的可靠性和效率对ITER的成功至关重要。任何温度波动都可能导致磁体性能下降，影响等离子体的约束能力。因此，设计和运行高效的低温系统是ITER工程中的关键任务。此外，低温系统的复杂性意味着需要先进的诊断和控制系统，以实时监测和调整系统的运行状态。
-比较与拓展部分，可以考虑不同类型的低温系统设计，比如不同的制冷循环或材料选择。例如，有些系统可能使用不同的制冷剂或循环方式，各有优缺点。在ITER中，氦制冷机是主流选择，因为它能够提供极低的温度，但在维护和成本方面可能有一定的挑战。
-最后，要点总结需要简洁明了，强调低温系统的关键组成部分、温度要求、制冷功率以及面临的挑战。这有助于读者快速抓住重点，理解ITER低温系统的复杂性和重要性。
-&lt;/think&gt;
-### ITER大型低温系统的主要组成、功能、温度水平、制冷功率及运行挑战
+          <t>### ITER大型低温系统的主要组成、功能、温度水平、制冷功率及运行挑战
 #### 1. 核心结论
 ITER的大型低温系统由氦制冷机、液氮预冷系统、低温分配系统和过冷氦循环组成，需在4K以下提供超过40 MW的制冷功率，面临动态热负荷和系统复杂性等挑战。
 #### 2. 背景与概念
@@ -11043,7 +9704,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -11069,14 +9730,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于超导磁体失超现象的问题。首先，我得理解什么是失超。超导磁体在正常工作时是超导态，电阻为零，电流可以无损耗地流过。但如果某些条件被打破，超导态会被破坏，电阻突然上升，这就是失超现象。
-接下来，我要解释失超的发生机制。可能的原因包括磁场变化率太高、电流变化太快、局部温度上升超过临界值，或者材料缺陷导致局部电阻增加。这些因素会导致超导体从超导态转变为正常态，电阻急剧上升，电流通过时产生大量热量，可能引发烧毁。
-然后，失超的潜在危害。突然的电阻增加会导致电流集中，产生大量热量，可能导致磁体损坏甚至引发爆炸。此外，失超可能导致磁体中的电流快速变化，影响聚变装置的稳定运行，甚至危及设备和人员安全。
-接下来，聚变装置中采用的失超检测技术和保护策略。检测技术方面，通常包括监测电压变化，因为失超时电阻增加会导致电压上升；监测磁场变化，因为电流变化会导致磁场变化；还有温度监测，超导体的局部温度上升可能是失超的前兆。此外，使用示踪电流，通过小电流的电阻变化来检测失超。
-保护策略方面，快速放电系统能在失超时迅速将电流转移到外部回路，减少流经磁体的电流，防止过热。淬火加热器则通过加热使超导体迅速恢复正常态，避免热量积累。此外，设置安全裕度，确保磁体在设计时有足够的余量应对潜在的失超情况。分级保护系统，针对不同级别的失超采取不同的应对措施，提高保护效率。
-最后，总结一下。失超是超导磁体在特定条件下发生的电阻突然增加的现象，可能带来严重的安全隐患。通过检测技术和保护策略，可以有效预防和减轻失超带来的影响，确保聚变装置的安全运行。
-&lt;/think&gt;
-### 超导磁体的失超（Quench）现象
+          <t>### 超导磁体的失超（Quench）现象
 #### 1. **核心结论**
 超导磁体的失超是指超导体从超导态突然转变到正常态的现象，导致电阻急剧增加，可能引发热量集中和磁体损坏。
 #### 2. **背景与概念**
@@ -11118,7 +9772,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -11144,18 +9798,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答用户关于大型、高场超导聚变磁体在制造和装配过程中面临的主要工程挑战的问题。用户提到了ITER的TF线圈，所以我得围绕这些挑战展开。
-首先，我应该回忆一下超导磁体的基本知识。超导磁体用于产生强磁场，对于聚变反应至关重要。ITER的TF线圈是托卡马克的重要组成部分，负责 confinement 等离子体。然而，制造和装配这些线圈确实面临很多挑战。
-用户提到了几个方面：导体接头、绕组精度、绝缘、支撑结构以及电磁力处理。我应该逐一分析这些挑战，看看每个方面有哪些具体问题。
-首先，导体接头。超导材料在低温下工作，接头如果不好会影响整体性能。接头处的电阻和电感会影响电流的传递，特别是在故障电流的情况下，可能产生很高的热量，导致损坏。所以，这里需要低温焊接技术，比如电阻焊或者电子束焊，同时还要考虑接头在动态载荷下的稳定性。
-接下来是绕组精度。绕组的几何形状必须非常精确，才能确保产生的磁场符合设计要求。绕组的误差可能导致磁场不均匀，进而影响等离子体的稳定性。特别是对于大尺寸设备来说，热胀冷缩和应力会导致形状变化，这可能超出允许的误差范围，需要使用精确的制造和装配技术，比如预应力框架或者自动化的绕线设备。
-然后是绝缘系统。超导磁体在低温环境下工作，而绝缘材料需要在极低温度下保持其性能。同时，超导体可能会受到高场强和高电磁力的影响，这会增加材料的应力。因此，选择合适的绝缘材料，确保其在低温、强磁场和高应力下的性能是关键。可能需要多层结构，同时使用环氧树脂或者玻璃纤维等材料。
-支撑结构也是关键。线圈需要被固定在适当的位置，承受电磁力、重量和热应力。在运行中，线圈可能会受到动态载荷，包括交流电磁力引起的振动，这可能导致疲劳失效。所以，支撑结构需要具备足够的强度和刚性，同时具有良好的减震性能。设计时可能需要使用有限元分析来优化结构。
-最后是电磁力处理。TF线圈在运行时会产生巨大的电磁力，特别是环向力和垂直力。这些力会导致线圈变形，甚至可能损坏支撑结构。因此，需要设计合适的方式来固定线圈，分散这些力。这可能包括使用刚性结构和冗余设计，同时确保系统的稳定性和安全性。
-总的来说，这些挑战都需要综合考虑材料科学、机械工程、低温技术和电磁学等多个领域的知识。在设计和制造过程中，必须进行严格的测试和验证，确保每个部分都能在极端条件下正常工作。此外，成本控制和时间管理也是不可忽视的因素，因为大型项目往往预算庞大，时间紧迫。
-现在，我需要将这些思考整理成一个结构化的回答，按照用户提供的规范来组织内容，确保每个部分都涵盖核心结论、背景与概念、挑战分析、工程意义等。
-&lt;/think&gt;
-**核心结论**  
+          <t>**核心结论**  
 大型、高场超导聚变磁体在制造和装配过程中面临的主要工程挑战包括导体接头的低温性能、绕组几何精度的控制、绝缘系统的耐受性、支撑结构的力学稳定性以及电磁力的处理。
 ---
 ### **背景与概念**  
@@ -11214,7 +9857,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -11240,16 +9883,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好的，我现在需要帮助用户解释ITER的中心螺线管（CS）的作用，以及它采用分模块设计的原因，同时分析其结构和运行面临的挑战。
-首先，用户的问题涉及聚变等离子体物理和工程，尤其是托卡马克装置的关键部件。我需要回顾相关的理论知识，确保自己对中心螺线管的作用有清晰的理解。
-中心螺线管的主要功能是通过变化的电流产生轴向磁场，从而感应等离子体电流。在托卡马克中，等离子体电流的建立和维持至关重要，因为它决定了等离子体的约束性能。中心螺线管通过欧姆感应原理，在等离子体中产生环向电流。当CS的电流变化时，根据法拉第电磁感应定律，会在等离子体中感应出环向电动势，从而驱动电流。
-接下来，CS采用分模块设计的原因可能涉及到电流强度和磁体结构的限制。由于ITER要求非常高的等离子体电流（数十兆安），单个线圈无法承受如此大的电流，分模块设计可以将电流分配到多个线圈，避免过热和电磁应力过大。同时，分模块设计有助于制造和维护，因为较大的整体结构可能难以制造和运输。
-关于结构和运行的挑战，电磁应力是一个主要问题。高电流会产生巨大的电磁力，特别是在线圈之间和线圈与结构之间。此外，等离子体的高能量环境可能导致极端条件，如高真空、低温（超导材料）和强辐射，这些都会增加设计和运行的难度。超导材料的选择和冷却系统的设计也是关键因素，因为超导线在高温下会失去超导性，影响CS的性能。
-另外，控制电流变化时的电压和能量损耗也是需要考虑的因素。为了维持稳定的等离子体状态，CS必须能够精确地调节其电流，这涉及到复杂的控制系统和能量管理。
-最后，总结一下，中心螺线管在ITER中的关键作用是通过感应产生等离子体电流，分模块设计是为了应对高电流带来的物理和工程挑战，而其结构和运行则面临电磁应力、极端环境和精确控制等多方面的挑战。
-在回答时，我需要按照用户提供的结构，逐步展开每个部分，确保逻辑清晰，内容全面，并且使用正确的符号和单位。同时，要保持严谨和客观，避免未经验证的猜测。
-&lt;/think&gt;
-### 1. **核心结论**  
+          <t>### 1. **核心结论**  
 ITER的中心螺线管（CS）通过感应作用生成等离子体环向电流，并在等离子体放电过程中维持电流平衡；CS采用分模块设计以应对高电流密度和复杂电磁环境的挑战，其结构和运行面临电磁应力、热载荷和超导性能维持等独特挑战。
 ---
 ### 2. **背景与概念**  
@@ -11295,7 +9929,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -11321,18 +9955,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好的，我现在需要讨论聚变堆中超导磁体辐射屏蔽的重要性，以及中子和伽马射线对超导材料特别是绝缘材料的损伤效应，最后探讨如何设计有效的屏蔽系统。首先，我得回忆一下聚变反应堆的工作原理，特别是涉及到辐射的部分。
-聚变反应堆，比如托卡马克，通过高能粒子的碰撞产生核聚变，释放出大量能量，包括中子和伽马射线。这些高能粒子会对周围的结构材料造成辐射损伤。特别是超导磁体，用于产生强大的磁场来约束等离子体，它们的材料必须能够承受高温、电磁应力以及辐射损伤。
-首先，关于辐射屏蔽的重要性。聚变堆内的中子和伽马射线能量很高，能够穿透材料，对周围的结构和设备造成损伤。超导磁体，尤其是其绝缘材料，对辐射非常敏感。中子和伽马射线可能会导致材料性能下降，如导电性、机械强度和绝缘性能的退化，这会直接影响磁体的稳定运行，甚至导致整个装置的故障。
-接下来，我需要详细分析中子和伽马射线对超导材料的损伤机制。中子主要是通过撞击材料原子核，引起核反应，产生其他的粒子和射线，这可能导致材料发生辐照损伤，例如材料结构的变化和性能的劣化。伽马射线则主要通过电离效应，破坏材料的分子结构，导致材料退化。
-对于绝缘材料来说，辐射的损伤可能更加严重。绝缘材料一旦性能下降，可能会导致磁体之间发生短路，影响整个磁场的稳定性。因此，有效的辐射屏蔽系统对于保护超导磁体，尤其是绝缘材料，至关重要。
-在设计屏蔽系统时，我需要考虑哪些因素？首先是屏蔽材料的选择。常用的屏蔽材料包括低活化钢、钨、铅等。这些材料具有良好的中子俘获和伽马射线吸收性能。同时，材料的辐射损伤特性也需要考虑，以确保屏蔽材料在长期运行中的稳定性。
-其次是屏蔽结构的设计。屏蔽系统可能需要多层结构，每层有不同的材料和厚度，以优化对中子和伽马射线的屏蔽效果。例如，第一层可能使用高密度材料来吸收高能伽马射线，随后使用低活化材料来处理剩余的中子流。
-另外，还需要考虑屏蔽系统与超导磁体之间的距离和布局，以最小化屏蔽材料对磁场的干扰。同时，屏蔽系统的热管理也是一个重要问题，因为它可能会产生大量热量，需要有效的冷却系统来维持工作温度。
-此外，屏蔽系统的设计还需要考虑到聚变堆的整体布局和运行条件，例如中子和伽马射线的来源、方向和强度分布，以确保屏蔽系统能够在各种工况下有效工作。
-总结一下，设计有效的辐射屏蔽系统需要综合考虑材料的选择、结构设计、布局优化以及热管理等多方面因素，以确保超导磁体及其绝缘材料能够承受聚变堆内的辐射环境，保障装置的安全和稳定运行。
-&lt;/think&gt;
-### 聚变堆中超导磁体辐射屏蔽的重要性及设计
+          <t>### 聚变堆中超导磁体辐射屏蔽的重要性及设计
 #### 1. 核心结论
 辐射屏蔽在聚变堆中至关重要，能有效保护超导磁体及绝缘材料免受中子和伽马射线的损伤，确保装置安全稳定运行。
 #### 2. 背景与概念
@@ -11362,7 +9985,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -11388,16 +10011,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于未来商业聚变堆的超导磁体系统成本降低的途径。用户提到了材料选择、导体设计、制造工艺和系统集成几个方面，看来希望得到一个全面的分析。
-首先，我得考虑用户的背景。作为资深专家，用户可能已经在聚变领域有一定的了解，但可能需要更详细的分析来指导实际项目或研究。所以，我需要确保回答既全面又有深度，同时提供具体的建议。
-从材料选择开始，高端超导材料确实昂贵，所以寻找低成本替代材料是关键。铁基超导体和镁基超导体都是不错的选择，因为它们成本较低且性能足够。同时，提升现有材料的性能也是降低成本的一种方式，比如通过改良制备工艺。
-接下来是导体设计，常规的电缆-in-conduit导体虽然性能好，但制造复杂，成本高。可以选择简化结构的导体，比如整体绞合导体，这样生产效率会提高。同时，优化导体的几何结构，比如增大截面积，可以减少用量，从而降低成本。
-制造工艺方面，提高自动化水平是关键。自动化可以减少人工成本，提高一致性，还可以通过改进工艺参数来提升材料利用率，减少浪费。另外，模块化制造和并行制造也能有效缩短制造周期，降低成本。
-在系统集成方面，降低磁体系统复杂性很重要。使用简单结构，比如单层绕组，可以减少材料和组装成本。同时，优化制冷系统，比如提高冷却效率，减少制冷剂用量，也能节省成本。
-其他方面，维修便利性也很重要。简化结构，提高可靠性，可以减少维护成本，延长使用寿命。供应链管理和标准化设计也能帮助降低成本，通过规模化生产来摊薄成本。
-最后，综合以上各方面，降低成本需要综合考虑材料、设计、工艺和系统集成。材料方面选更便宜的，设计上简化，制造上自动化，系统集成上优化结构。这些措施结合起来，才能有效降低超导磁体的成本，推动商业聚变堆的发展。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 降低未来商业聚变堆中超导磁体系统成本的关键途径包括：优化材料选择、改进导体设计、提升制造工艺效率以及简化系统集成方案。
 ---
 ### 2. 背景与概念  
@@ -11464,7 +10078,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -11490,16 +10104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在要解答关于仿星器磁体系统设计、制造和应力分析的特殊挑战，以及如何利用先进计算工具和制造技术应对这些问题。首先，我需要回顾一下仿星器和托卡马克的基本概念，了解它们之间的主要区别，特别是磁体系统方面的不同。
-仿星器与托卡马克都是核聚变反应的候选装置，但它们的磁体设计有很大不同。托卡马克使用环形的磁线圈，产生一个环形的磁场，而仿星器则采用更复杂的三维磁线圈结构，以提供更稳定的等离子体约束。这种复杂的三维结构使得仿星器的磁体系统在设计、制造和应力分析上面临更多挑战。
-首先，关于设计和制造的复杂性。仿星器的磁体系统通常由多个复杂的三维线圈组成，这些线圈需要精确地排列和安装。三维结构意味着每个线圈都有不同的形状和尺寸，这增加了制造和组装的难度。与托卡马克相比，托卡马克的线圈是环形对称的，结构相对简单，而仿星器的线圈设计更为复杂，因此制造和安装的难度也更大。
-其次，电磁力和应力分析。由于仿星器的线圈是三维结构，电磁力在各个方向上的分布更为复杂，这增加了应力分析的难度。在托卡马克中，由于对称性，电磁力的分布相对均匀，而仿星器中每个线圈的电磁力分布可能各不相同，导致复杂的应力分布。因此，如何准确计算这些应力，并找到合适的材料和设计来应对这些应力，是一个挑战。
-第三，超导材料的性能要求。仿星器的磁体通常需要产生更强的磁场，以维持等离子体的稳定，这意味着对超导材料的性能要求更高。在高磁场环境下，超导材料可能会出现性能退化，这会影响磁体系统的稳定性和寿命。因此，如何选择合适的超导材料，并在设计中考虑到材料的性能限制，是一个需要解决的问题。
-接下来，关于如何利用先进的计算工具和制造技术来应对这些挑战。首先，计算工具如有限元分析（FEA）可以在设计阶段模拟电磁力和应力分布，帮助优化线圈结构和材料选择。此外，三维设计软件可以用于精确建模和设计复杂的线圈结构，确保每个线圈的形状和位置都符合设计要求。
-在制造方面，采用精确的加工技术，如数控机床，可以制造出高精度的线圈结构。此外，自动化组装系统可以提高安装的精确性和效率，减少人为错误。对于超导材料的性能，可以通过实验和计算相结合的方法，选择最合适材料，并在设计中进行合理的散热和冷却设计，确保材料在高磁场下稳定工作。
-总之，仿星器磁体系统的设计和制造面临多个特殊挑战，包括复杂的设计和制造、电磁力和应力分析以及超导材料的性能要求。通过采用先进的计算工具和制造技术，如有限元分析、三维设计软件、高精度加工技术和自动化组装系统，可以有效应对这些挑战，提升仿星器磁体系统的性能和可靠性。
-&lt;/think&gt;
-### 仿星器磁体系统的特殊挑战及应对策略
+          <t>### 仿星器磁体系统的特殊挑战及应对策略
 #### 1. 磁体系统的设计复杂性
 - **三维结构设计**：仿星器的磁体系统通常由多个三维线圈组成，每个线圈具有独特的形状和尺寸，设计过程复杂。
 - **制造难度**：精确制造这些复杂结构需要高精度的加工技术和严格的公差控制。
